--- a/cj/catalog.xlsx
+++ b/cj/catalog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,7 +576,6 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>CJTZ2542002</t>
@@ -656,7 +655,6 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>CJJK2535911</t>
@@ -736,7 +734,6 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>CJWJ2475803</t>
@@ -816,7 +813,6 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>CJQB2473986</t>
@@ -896,7 +892,6 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>CJYD2473487</t>
@@ -976,7 +971,6 @@
       <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>CJYD2467164</t>
@@ -1056,7 +1050,6 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>CJNZ2466335</t>
@@ -1136,7 +1129,6 @@
       <c r="N9" t="n">
         <v>1</v>
       </c>
-      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>CJJK2461568</t>
@@ -1216,7 +1208,6 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>CJYD2458993</t>
@@ -1296,7 +1287,6 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>CJJK2431893</t>
@@ -1376,7 +1366,6 @@
       <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>CJWJ2430646</t>
@@ -1456,7 +1445,6 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>CJWJ2429828</t>
@@ -1536,7 +1524,6 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>CJTZ2428392</t>
@@ -1616,7 +1603,6 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>CJWY2427704</t>
@@ -1696,7 +1682,6 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>CJWJ2427662</t>
@@ -1776,7 +1761,6 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>CJTZ2425636</t>
@@ -1856,7 +1840,6 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>CJLY2424041</t>
@@ -1936,7 +1919,6 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>CJWY2424034</t>
@@ -2016,7 +1998,6 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>CJQZ2423861</t>
@@ -2096,7 +2077,6 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>CJWJ2423548</t>
@@ -2176,7 +2156,6 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>CJWJ2419864</t>
@@ -2256,7 +2235,6 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>CJCS2419126</t>
@@ -2336,7 +2314,6 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>CJWJ2418836</t>
@@ -2416,7 +2393,6 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>CJWJ2418401</t>
@@ -2496,7 +2472,6 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>CJFY2418540</t>
@@ -2576,7 +2551,6 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>CJWL2418421</t>
@@ -2656,7 +2630,6 @@
       <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>CJJK2416913</t>
@@ -2736,7 +2709,6 @@
       <c r="N29" t="n">
         <v>1</v>
       </c>
-      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>CJJK2415528</t>
@@ -2816,7 +2788,6 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>CJWL2414234</t>
@@ -2896,7 +2867,6 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>CJWL2414256</t>
@@ -2976,7 +2946,6 @@
       <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>CJWJ2413428</t>
@@ -3056,7 +3025,6 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>CJQB2412505</t>
@@ -3136,7 +3104,6 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>CJQB2412521</t>
@@ -3216,7 +3183,6 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>CJMY2409493</t>
@@ -3296,7 +3262,6 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>CJLY2410148</t>
@@ -3376,7 +3341,6 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>CJJK2407374</t>
@@ -3456,7 +3420,6 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>CJTZ2404277</t>
@@ -3536,7 +3499,6 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>CJTZ2403954</t>
@@ -3616,7 +3578,6 @@
       <c r="N40" t="n">
         <v>1</v>
       </c>
-      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>CJWJ2404290</t>
@@ -3696,7 +3657,6 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>CJTZ2400841</t>
@@ -3776,7 +3736,6 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>CJNZ2400871</t>
@@ -3856,7 +3815,6 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>CJNZ2400856</t>
@@ -3936,7 +3894,6 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>CJQB2400794</t>
@@ -4016,7 +3973,6 @@
       <c r="N45" t="n">
         <v>1</v>
       </c>
-      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>CJQB2400801</t>
@@ -4096,7 +4052,6 @@
       <c r="N46" t="n">
         <v>1</v>
       </c>
-      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>CJFY2398578</t>
@@ -4176,7 +4131,6 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>CJQB2399234</t>
@@ -4256,7 +4210,6 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>CJLY2398557</t>
@@ -4336,7 +4289,6 @@
       <c r="N49" t="n">
         <v>1</v>
       </c>
-      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>CJQB2399176</t>
@@ -4416,7 +4368,6 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>CJMY2399199</t>
@@ -4496,7 +4447,6 @@
       <c r="N51" t="n">
         <v>1</v>
       </c>
-      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>CJWJ2399211</t>
@@ -4576,7 +4526,6 @@
       <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>CJMY2398318</t>
@@ -4656,7 +4605,6 @@
       <c r="N53" t="n">
         <v>1</v>
       </c>
-      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>CJDK2397946</t>
@@ -4736,7 +4684,6 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>CJMY2398315</t>
@@ -4816,7 +4763,6 @@
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>CJWJ2397373</t>
@@ -4896,7 +4842,6 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>CJQB2396736</t>
@@ -4976,7 +4921,6 @@
       <c r="N57" t="n">
         <v>1</v>
       </c>
-      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>CJJK2395065</t>
@@ -5057,7 +5001,6 @@
       <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>CJTZ2395050</t>
@@ -5137,7 +5080,6 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>CJWL2395027</t>
@@ -5217,7 +5159,6 @@
       <c r="N60" t="n">
         <v>1</v>
       </c>
-      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>CJWL2392005</t>
@@ -5297,7 +5238,6 @@
       <c r="N61" t="n">
         <v>1</v>
       </c>
-      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>CJKT2391363</t>
@@ -5377,7 +5317,6 @@
       <c r="N62" t="n">
         <v>1</v>
       </c>
-      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>CJWL2389913</t>
@@ -5457,7 +5396,6 @@
       <c r="N63" t="n">
         <v>1</v>
       </c>
-      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>CJLY2388965</t>
@@ -5537,7 +5475,6 @@
       <c r="N64" t="n">
         <v>1</v>
       </c>
-      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>CJLY2388603</t>
@@ -5617,7 +5554,6 @@
       <c r="N65" t="n">
         <v>1</v>
       </c>
-      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>CJTZ2388945</t>
@@ -5697,7 +5633,6 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>CJWL2388631</t>
@@ -5777,7 +5712,6 @@
       <c r="N67" t="n">
         <v>1</v>
       </c>
-      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>CJQB2388990</t>
@@ -5857,7 +5791,6 @@
       <c r="N68" t="n">
         <v>1</v>
       </c>
-      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>CJLY2388612</t>
@@ -5937,7 +5870,6 @@
       <c r="N69" t="n">
         <v>1</v>
       </c>
-      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>CJQZ2388971</t>
@@ -6017,7 +5949,6 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
-      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>CJNZ2387628</t>
@@ -6097,7 +6028,6 @@
       <c r="N71" t="n">
         <v>1</v>
       </c>
-      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
           <t>CJJK2386869</t>
@@ -6177,7 +6107,6 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
-      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>CJWL2385506</t>
@@ -6257,7 +6186,6 @@
       <c r="N73" t="n">
         <v>1</v>
       </c>
-      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>CJCS2384600</t>
@@ -6337,7 +6265,6 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
-      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>CJWL2384142</t>
@@ -6417,7 +6344,6 @@
       <c r="N75" t="n">
         <v>1</v>
       </c>
-      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>CJWL2384154</t>
@@ -6497,7 +6423,6 @@
       <c r="N76" t="n">
         <v>1</v>
       </c>
-      <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>CJWV2384127</t>
@@ -6577,7 +6502,6 @@
       <c r="N77" t="n">
         <v>1</v>
       </c>
-      <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>CJLY2383153</t>
@@ -6657,7 +6581,6 @@
       <c r="N78" t="n">
         <v>1</v>
       </c>
-      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>CJQZ2382073</t>
@@ -6737,7 +6660,6 @@
       <c r="N79" t="n">
         <v>1</v>
       </c>
-      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>CJLY2381227</t>
@@ -6817,7 +6739,6 @@
       <c r="N80" t="n">
         <v>1</v>
       </c>
-      <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>CJQB2381247</t>
@@ -6897,7 +6818,6 @@
       <c r="N81" t="n">
         <v>1</v>
       </c>
-      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>CJNZ2380999</t>
@@ -6977,7 +6897,6 @@
       <c r="N82" t="n">
         <v>1</v>
       </c>
-      <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>CJKT2381250</t>
@@ -7057,7 +6976,6 @@
       <c r="N83" t="n">
         <v>1</v>
       </c>
-      <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>CJCS2380467</t>
@@ -7137,7 +7055,6 @@
       <c r="N84" t="n">
         <v>1</v>
       </c>
-      <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>CJWL2380478</t>
@@ -7217,7 +7134,6 @@
       <c r="N85" t="n">
         <v>1</v>
       </c>
-      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>CJLY2377509</t>
@@ -7297,7 +7213,6 @@
       <c r="N86" t="n">
         <v>1</v>
       </c>
-      <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>CJWL2377261</t>
@@ -7377,7 +7292,6 @@
       <c r="N87" t="n">
         <v>1</v>
       </c>
-      <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>CJJK2377284</t>
@@ -7457,7 +7371,6 @@
       <c r="N88" t="n">
         <v>1</v>
       </c>
-      <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>CJJK2377289</t>
@@ -7537,7 +7450,6 @@
       <c r="N89" t="n">
         <v>1</v>
       </c>
-      <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>CJTZ2377304</t>
@@ -7617,7 +7529,6 @@
       <c r="N90" t="n">
         <v>1</v>
       </c>
-      <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>CJQZ2376385</t>
@@ -7697,7 +7608,6 @@
       <c r="N91" t="n">
         <v>1</v>
       </c>
-      <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>CJTZ2376299</t>
@@ -7711,6 +7621,7448 @@
       <c r="R91" t="inlineStr">
         <is>
           <t>1922580653762805761</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0rakc5fmtrf1ns2lldlzi7yk</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A Solid-colored Long-sleeved Top For Ladies</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/ded964a2-57fd-4771-b3e1-1f7ee4f99f76.png,https://cf.cjdropshipping.com/61d49743-6cb2-42ab-b669-b1f2dcfe1e65.png</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Introducing our Solid-Colored Long-Sleeved Top for Ladies, the perfect blend of comfort and style. Crafted from soft fabric, this versatile piece effortlessly complements any outfit, making it ideal for casual outings or cozy nights in. Available in various hues, it’s a must-have addition to every wardrobe. Discover your favorite!</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>13</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL237639401AZ'], ['Black-M', 'CJWL237639402BY'], ['Black-L', 'CJWL237639403CX'], ['Black-XL', 'CJWL237639404DW'], ['Black-2XL', 'CJWL237639405EV'], ['Black-3XL', 'CJWL237639406FU'], ['Grey-S', 'CJWL237639407GT'], ['Grey-M', 'CJWL237639408HS'], ['Grey-L', 'CJWL237639409IR'], ['Grey-XL', 'CJWL237639410JQ'], ['Grey-2XL', 'CJWL237639411KP'], ['Grey-3XL', 'CJWL237639412LO']]</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>340</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>CJWL2376394</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>1922593195553570818</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>18nrd6zu463igdp9zi5h9wbd</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A Solid-colored Long-sleeved Top For Ladies</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/aabc9b04-fb39-4051-acb5-43e998d81408.png,https://cf.cjdropshipping.com/cdd332a3-d78b-4a31-ba5e-6688d84268b2.png,https://cf.cjdropshipping.com/067313d1-6473-41b9-8d6f-e160636a285d.png,https://cf.cjdropshipping.com/4f090677-4751-4063-8598-7fdf1f9c526f.png</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>49</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Introducing our Solid-colored Long-sleeved Top for Ladies, designed for style and comfort. This versatile staple features a flattering fit and soft fabric, perfect for layering or wearing on its own. Available in trendy colors, it adds a chic touch to any outfit. Enhance your wardrobe with this timeless essential today!</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>29</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL237246701AZ'], ['Black-M', 'CJWL237246702BY'], ['Black-L', 'CJWL237246703CX'], ['Black-XL', 'CJWL237246704DW'], ['Black-2XL', 'CJWL237246705EV'], ['Black-3XL', 'CJWL237246706FU'], ['Khaki-S', 'CJWL237246707GT'], ['Khaki-M', 'CJWL237246708HS'], ['Khaki-L', 'CJWL237246709IR'], ['Khaki-XL', 'CJWL237246710JQ'], ['Khaki-2XL', 'CJWL237246711KP'], ['Khaki-3XL', 'CJWL237246712LO']]</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>270</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>CJWL2372467</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>1920800206766731265</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>mvcaklwfts74a6j554ipqysr</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Trendy Light Blue High - Waisted Flared Jeans</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/50c13157-ca33-4071-8aa7-9f267c725945.jpg,https://cf.cjdropshipping.com/841d29f9-180e-4183-86de-9068df7c9256.jpg,https://cf.cjdropshipping.com/2df8211d-3cfe-4d9a-b0df-edecac9642b0.jpg,https://cf.cjdropshipping.com/40b1c17e-b399-4d37-b0d4-80af5abf8038.jpg,https://cf.cjdropshipping.com/33320e29-53e3-4fa3-8372-7ba741c3883f.jpg,https://cf.cjdropshipping.com/cb62c10f-d6e4-4513-b135-73b5b4d7c3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Trendy Light Blue High-Waisted Flared Jeans  
+Step out in style with these chic high-waisted flared jeans. Crafted for comfort and flair, their light blue hue complements any outfit. Perfect for day or night, these jeans enhance your silhouette while providing maximum versatility. Embrace your inner fashionista and make a statement wherever you go!</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Bottoms,Woman Jeans</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>41</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>[['Light Blue-S', 'CJNZ237229801AZ'], ['Light Blue-M', 'CJNZ237229802BY'], ['Light Blue-L', 'CJNZ237229803CX'], ['Light Blue-XL', 'CJNZ237229804DW'], ['Light Blue-2XL', 'CJNZ237229805EV']]</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>780</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>CJNZ2372298</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>1920753090420289537</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>rttmt5wg3da325wmqdnfiqhg</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ladies' Printed Long-sleeved Top</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/f0515ab8-efcf-41b3-96d2-4ae071970fd4.png,https://cf.cjdropshipping.com/1c06e935-b563-4749-bb9c-69f0d1bcba5d.png</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Discover the perfect blend of comfort and style with our Ladies' Printed Long-sleeved Top. This chic garment features eye-catching patterns and soft fabric, ensuring you look fabulous while feeling cozy. Dress it up or down for any occasion—your wardrobe staple awaits! Embrace effortless elegance with this must-have piece.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>20</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>[['Style1-S', 'CJWL237077701AZ'], ['Style1-M', 'CJWL237077702BY'], ['Style1-L', 'CJWL237077703CX'], ['Style1-XL', 'CJWL237077704DW'], ['Style1-2XL', 'CJWL237077705EV'], ['Style1-3XL', 'CJWL237077706FU'], ['Style2-S', 'CJWL237077707GT'], ['Style2-M', 'CJWL237077708HS'], ['Style2-L', 'CJWL237077709IR'], ['Style2-XL', 'CJWL237077710JQ'], ['Style2-2XL', 'CJWL237077711KP'], ['Style2-3XL', 'CJWL237077712LO']]</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>396</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>CJWL2370777</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>1920067199517773825</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0johwkxpat6iwod3t68bm88o</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Women's Round Neck Striped Long Sleeve T-Shirt</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/e8fbbbdc-48bb-42ec-998f-625e8d150185.png,https://cf.cjdropshipping.com/6188a6c9-b878-4bc1-bc52-49d59f99d4ac.png,https://cf.cjdropshipping.com/ce5a24df-ed18-4d0d-b39d-2e40e5dea790.png,https://cf.cjdropshipping.com/432620ee-4f6a-48e6-a331-b3132c0b4871.png</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Introducing the Women’s Round Neck Striped Long Sleeve T-Shirt, a perfect blend of comfort and style. Crafted with soft fabric, this trendy top features a chic striped design that effortlessly complements any outfit. Ideal for layering or wearing solo, it’s a must-have addition to your wardrobe for casual outings!</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>41</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>[['Style1-S', 'CJWL237074801AZ'], ['Style1-M', 'CJWL237074802BY'], ['Style1-L', 'CJWL237074803CX'], ['Style1-XL', 'CJWL237074804DW'], ['Style1-2XL', 'CJWL237074805EV'], ['Style1-3XL', 'CJWL237074806FU'], ['Style2-S', 'CJWL237074807GT'], ['Style2-M', 'CJWL237074808HS'], ['Style2-L', 'CJWL237074809IR'], ['Style2-XL', 'CJWL237074810JQ'], ['Style2-2XL', 'CJWL237074811KP'], ['Style2-3XL', 'CJWL237074812LO']]</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>228</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>CJWL2370748</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>1920058524018278402</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>v4anac6tweph4pj3jbmflbe2</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ladies' Plain And Simple Daily Wear Long Sleeve Shorts 2pcs Set</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/d8bd0e89-8caa-4aef-ac1c-a3726708616f.png,https://cf.cjdropshipping.com/d479e2e2-bdac-427d-bf28-8d39d9f85f61.png,https://cf.cjdropshipping.com/85756e73-251e-410e-97ba-988461afb38b.png,https://cf.cjdropshipping.com/ba7f3f6b-4a02-4ca7-a3c8-a2a3d9a5a6e0.png</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>49</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Ladies' Plain and Simple Daily Wear Long Sleeve Shorts 2pcs Set. This versatile ensemble features a comfortable fit ideal for any occasion. Crafted from soft, breathable fabric, it ensures all-day comfort. Perfect for lounging at home or casual outings, this set is a must-have addition to your wardrobe.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>41</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>[['Grey-S', 'CJTZ236921501AZ'], ['Grey-M', 'CJTZ236921502BY'], ['Grey-L', 'CJTZ236921503CX'], ['Grey-XL', 'CJTZ236921504DW'], ['Grey-2XL', 'CJTZ236921505EV'], ['Grey-3XL', 'CJTZ236921506FU'], ['Beige-S', 'CJTZ236921507GT'], ['Beige-M', 'CJTZ236921508HS'], ['Beige-L', 'CJTZ236921509IR'], ['Beige-XL', 'CJTZ236921510JQ'], ['Beige-2XL', 'CJTZ236921511KP'], ['Beige-3XL', 'CJTZ236921512LO']]</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>420</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>CJTZ2369215</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>1919558745421950978</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>g7lxu8x9t25qri8wjlzobiv6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Women's Solid Color Hooded Neck Long Sleeve Sweatshirt With Pockets</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/b78d9b06-e0e1-4ca3-beca-20cca1100fc0.png,https://cf.cjdropshipping.com/3bb1ed09-ea87-45f2-9a99-a2c1652973d0.png</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Discover ultimate comfort with the Women's Solid Color Hooded Neck Long Sleeve Sweatshirt. Featuring cozy pockets and a stylish design, this essential piece blends functionality and fashion effortlessly. Perfect for casual outings or lounging at home, it offers versatility and warmth. Elevate your wardrobe with this chic, must-have sweatshirt today!</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>41</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJWL236979501AZ'], ['Green-M', 'CJWL236979502BY'], ['Green-L', 'CJWL236979503CX'], ['Green-XL', 'CJWL236979504DW'], ['Green-2XL', 'CJWL236979505EV'], ['Green-3XL', 'CJWL236979506FU'], ['Black-S', 'CJWL236979507GT'], ['Black-M', 'CJWL236979508HS'], ['Black-L', 'CJWL236979509IR'], ['Black-XL', 'CJWL236979510JQ'], ['Black-2XL', 'CJWL236979511KP'], ['Black-3XL', 'CJWL236979512LO']]</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>330</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>CJWL2369795</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>1919691407519375361</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>gxq1hkrdbmzd4wmerz8z8jj5</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Shoulder Jogger Wide Leg Jumpsuit Cinched</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/42290648-f292-4a17-87be-d5088a43fde4.png,https://cf.cjdropshipping.com/7fdc69f3-4a30-4a7f-8597-7132753df2c6.png,https://cf.cjdropshipping.com/04bcd267-1464-4d37-bcee-91db5fd7230b.png</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Step into effortless style with our Shoulder Jogger Wide Leg Jumpsuit. This chic design features a cinched waist for a flattering silhouette and wide leg comfort. Perfect for any occasion, it's versatile enough to dress up or down. Experience fashion-forward comfort that makes a bold statement wherever you go!</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Rompers</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>27</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJLT236980001AZ'], ['White-M', 'CJLT236980002BY'], ['White-L', 'CJLT236980003CX'], ['White-XL', 'CJLT236980004DW'], ['White-2XL', 'CJLT236980005EV'], ['White-3XL', 'CJLT236980006FU'], ['Black-S', 'CJLT236980007GT'], ['Black-M', 'CJLT236980008HS'], ['Black-L', 'CJLT236980009IR'], ['Black-XL', 'CJLT236980010JQ'], ['Black-2XL', 'CJLT236980011KP'], ['Black-3XL', 'CJLT236980012LO']]</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>540</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>CJLT2369800</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>1919692549062959105</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>qh0gp5q489odx7jajeptrghe</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ladies' Striped Long-sleeved Top</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/081a43e8-422a-416d-8ff4-dd576a41af4a.png,https://cf.cjdropshipping.com/15970470-d791-43e9-b4d6-125d1c49c91b.png,https://cf.cjdropshipping.com/df662483-c581-4a64-ae95-58e055e2b96b.png,https://cf.cjdropshipping.com/8bfc0dda-b84a-4155-aff4-18e870ea292b.png,https://cf.cjdropshipping.com/3c93184e-cc93-4610-a804-2f061f2b710d.png,https://cf.cjdropshipping.com/47da478a-3a4a-4f9b-b716-b900e939e788.png</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Introducing the Ladies' Striped Long-sleeved Top, a stylish essential for your wardrobe. Featuring a chic striped pattern, this top combines comfort and elegance effortlessly. Perfect for casual outings or layered under jackets, it provides versatility for any season. Embrace a fresh look that enhances your confidence and showcases your unique style!</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>81</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236977401AZ'], ['Black-M', 'CJWL236977402BY'], ['Black-L', 'CJWL236977403CX'], ['Black-XL', 'CJWL236977404DW'], ['Black-2XL', 'CJWL236977405EV'], ['Black-3XL', 'CJWL236977406FU'], ['Blue-S', 'CJWL236977407GT'], ['Blue-M', 'CJWL236977408HS'], ['Blue-L', 'CJWL236977409IR'], ['Blue-XL', 'CJWL236977410JQ'], ['Blue-2XL', 'CJWL236977411KP'], ['Blue-3XL', 'CJWL236977412LO']]</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>220</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>CJWL2369774</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>1919689246480572418</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>f6hxj5taast3p799k1itd4b6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A Solid-color Long-sleeved Top With A High Neckline For Ladies</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/ccf34b1a-b9fb-46c5-bd4d-cfcde6fce34e.png,https://cf.cjdropshipping.com/638c966c-ed42-4ab1-bbd8-8e76eeedcc43.png</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Introducing a stylish long-sleeved top featuring a chic high neckline, perfect for any occasion. Crafted from soft, breathable fabric, it offers comfort and sophistication. Versatile enough to dress up or down, this wardrobe essential complements your favorite bottoms effortlessly. Elevate your fashion game with this timeless piece today!</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236888301AZ'], ['Black-M', 'CJWL236888302BY'], ['Black-L', 'CJWL236888303CX'], ['Black-XL', 'CJWL236888304DW'], ['Black-2XL', 'CJWL236888305EV'], ['Black-3XL', 'CJWL236888306FU'], ['White-S', 'CJWL236888307GT'], ['White-M', 'CJWL236888308HS'], ['White-L', 'CJWL236888309IR'], ['White-XL', 'CJWL236888310JQ'], ['White-2XL', 'CJWL236888311KP'], ['White-3XL', 'CJWL236888312LO']]</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>388</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>CJWL2368883</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>1919324721265799170</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>qor7wtewmxcnkcocuj5f04co</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A Solid-color Long-sleeved Top With A Large Collar For Ladies</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/6ec2525d-2507-42cc-91df-e67b08352861.png,https://cf.cjdropshipping.com/16f6f0b9-3d74-4ae4-a04f-fceee7697169.png,https://cf.cjdropshipping.com/8c0eebd7-bb4e-424e-8316-a4e5003bd2ee.png,https://cf.cjdropshipping.com/f5ba3dfd-5a01-41d4-8129-4f7b7229b079.png</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Discover our Solid-color Long-sleeved Top, featuring a stylish large collar designed for fashionable women. This versatile piece enhances your wardrobe with its chic simplicity, perfect for any occasion. Crafted from soft, breathable fabric, it ensures comfort throughout the day. Stand out effortlessly and embrace your elegance with this essential top.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>53</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236889801AZ'], ['Black-M', 'CJWL236889802BY'], ['Black-L', 'CJWL236889803CX'], ['Black-XL', 'CJWL236889804DW'], ['Black-2XL', 'CJWL236889805EV'], ['Black-3XL', 'CJWL236889806FU'], ['Beige-S', 'CJWL236889807GT'], ['Beige-M', 'CJWL236889808HS'], ['Beige-L', 'CJWL236889809IR'], ['Beige-XL', 'CJWL236889810JQ'], ['Beige-2XL', 'CJWL236889811KP'], ['Beige-3XL', 'CJWL236889812LO']]</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>350</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>CJWL2368898</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>1919326807603982338</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>h0vsu4whzbqyl27s4lwmrs3k</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Knit Sweater Without Necklace,Long Sleeve Tops</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/52c97c3d-c85f-4bf4-a0a9-fbee93a203b1.png,https://cf.cjdropshipping.com/2b998236-4973-4be8-8b21-74f8e575bfbb.png,https://cf.cjdropshipping.com/de894d6d-4858-48ac-a4d7-077310d75c51.png,https://cf.cjdropshipping.com/887bfe6c-43c6-44e6-9175-773c2b7c8dfb.png</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Introducing our Knit Sweater Without Necklace, a perfect blend of comfort and style. This long-sleeve top features a cozy design, ideal for layering or standalone wear. Perfect for any occasion, it exudes casual elegance. Embrace warmth and chic fashion effortlessly; this wardrobe essential will quickly become your go-to favorite!</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>20</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJWL236638901AZ'], ['White-M', 'CJWL236638902BY'], ['White-L', 'CJWL236638903CX'], ['White-XL', 'CJWL236638904DW'], ['White-2XL', 'CJWL236638905EV'], ['White-3XL', 'CJWL236638906FU'], ['Black-S', 'CJWL236638907GT'], ['Black-M', 'CJWL236638908HS'], ['Black-L', 'CJWL236638909IR'], ['Black-XL', 'CJWL236638910JQ'], ['Black-2XL', 'CJWL236638911KP'], ['Black-3XL', 'CJWL236638912LO']]</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>270</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>CJWL2366389</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>1917527755115233281</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>duy9vae4vjv8g0bhrnbkk7v2</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Women's Stand Collar Long Sleeve Sweater Pullover,Long Sleeve Tops</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/300a4b9a-83f1-4e18-9e6c-c7f046512a05.png,https://cf.cjdropshipping.com/da146dcf-fdc9-4685-ace9-21a16203c668.png,https://cf.cjdropshipping.com/72fc5a6d-a0d8-4335-b8ee-39cf53462fd4.png,https://cf.cjdropshipping.com/2251a665-494b-4f89-ac4c-affcdb7f283e.png</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Embrace style and comfort with our Women's Stand Collar Long Sleeve Sweater Pullover. Crafted from soft, breathable fabric, this chic top features a contemporary stand collar and flattering long sleeves. Perfect for layering or wearing solo, it effortlessly enhances any outfit. Upgrade your wardrobe with this essential piece for all occasions!</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>19</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236639201AZ'], ['Black-M', 'CJWL236639202BY'], ['Black-L', 'CJWL236639203CX'], ['Black-XL', 'CJWL236639204DW'], ['Black-2XL', 'CJWL236639205EV'], ['Black-3XL', 'CJWL236639206FU'], ['White-S', 'CJWL236639207GT'], ['White-M', 'CJWL236639208HS'], ['White-L', 'CJWL236639209IR'], ['White-XL', 'CJWL236639210JQ'], ['White-2XL', 'CJWL236639211KP'], ['White-3XL', 'CJWL236639212LO']]</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>250</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>CJWL2366392</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>1917534669822730241</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>3lfjef1etdki6pr5n62s90kv</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Plus Size Casual Dress</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/f3e841bb-bbd4-44cd-bc03-62f1dda05654.png,https://cf.cjdropshipping.com/65fb239f-9402-40fe-9548-c6ff0c416192.png,https://cf.cjdropshipping.com/a6411b4f-cc01-4b99-96ea-59e6480321f9.png,https://cf.cjdropshipping.com/911d9721-cb56-4a9a-9b43-fff5aa38ec86.png</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Plus Size Casual Dress, designed for comfort and versatility. Featuring a flattering silhouette and vibrant colors, this dress is perfect for any occasion. Made with soft, breathable fabric, it ensures you feel fabulous all day long. Embrace your curves and express your unique style effortlessly!</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>10</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJLY236638701AZ'], ['Black-M', 'CJLY236638702BY'], ['Black-L', 'CJLY236638703CX'], ['Black-XL', 'CJLY236638704DW'], ['Black-2XL', 'CJLY236638705EV'], ['Black-3XL', 'CJLY236638706FU'], ['Apricot-S', 'CJLY236638707GT'], ['Apricot-M', 'CJLY236638708HS'], ['Apricot-L', 'CJLY236638709IR'], ['Apricot-XL', 'CJLY236638710JQ'], ['Apricot-2XL', 'CJLY236638711KP'], ['Apricot-3XL', 'CJLY236638712LO']]</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>390</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>CJLY2366387</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>1917526662289326082</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0id2k1wud7kbqo2bxpdmn71w</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ladies' Summer Knitted Square Neck Waist Cinching Sexy Y2K Base T-Shirt</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/5c1d9765-e7d3-4d6f-9ff1-fdbfc0454fa3.png,https://cf.cjdropshipping.com/290f2493-fefc-4419-a0b4-fc05d0c86966.png,https://cf.cjdropshipping.com/cd4b513d-0415-4bf3-9b0c-185f58102370.png,https://cf.cjdropshipping.com/f5b6ca4b-21d1-4236-9a12-41002fa62099.png,https://oss-cf.cjdropshipping.com/product/2025/05/05/07/8304f234-2e6f-4a4d-b080-b69c78e91314.jpg,https://cf.cjdropshipping.com/ded11e54-6192-4ecb-ab4f-f0790e91f9ae.png,https://oss-cf.cjdropshipping.com/product/2025/05/05/07/4b7a2251-f925-4a9b-9b6e-d5d846e2d3af.jpg</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Introducing the Ladies' Summer Knitted Square Neck Waist Cinching Sexy Y2K Base T-Shirt! Embrace retro charm with its stylish square neckline and flattering waist-cinching design. Perfect for warm days, this versatile top pairs seamlessly with shorts or skirts. Boost your wardrobe with this must-have fashion statement that celebrates confidence and individuality!</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>57</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236540301AZ'], ['Black-M', 'CJWL236540302BY'], ['Black-L', 'CJWL236540303CX'], ['Black-XL', 'CJWL236540304DW'], ['Black-2XL', 'CJWL236540305EV'], ['Black-3XL', 'CJWL236540306FU'], ['Brown-S', 'CJWL236540307GT'], ['Brown-M', 'CJWL236540308HS'], ['Brown-L', 'CJWL236540309IR'], ['Brown-XL', 'CJWL236540310JQ'], ['Brown-2XL', 'CJWL236540311KP'], ['Brown-3XL', 'CJWL236540312LO']]</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>189</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>CJWL2365403</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>1917131236007452673</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>iqvtsp8z7unare0oa75vhxr2</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Women's Leisure Vacation Western Style Suede Subcutaneous Fringe Dress</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/5fdb8c48-4606-42d4-8532-57454a69cde3.jpg,https://cf.cjdropshipping.com/d2451616-5359-4361-b091-76abb100f231.jpg,https://cf.cjdropshipping.com/df81a75e-976d-4bad-9e58-f7e70b9b0455.jpg,https://cf.cjdropshipping.com/76dc5d35-3ea6-45be-90a0-332533c130e5.jpg,https://cf.cjdropshipping.com/d362dd3f-0016-4db2-a3fd-aa1c25d6106a.jpg</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>60</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with our Women's Leisure Vacation Western Style Suede Subcutaneous Fringe Dress. This chic piece combines comfort and flair, featuring soft suede and playful fringe details. Perfect for summer outings or festivals, it adds a touch of boho charm to your wardrobe. Stand out wherever you go with this unique design.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>33</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>[['Brown-S', 'CJLY236548001AZ'], ['Brown-M', 'CJLY236548002BY'], ['Brown-L', 'CJLY236548003CX'], ['Brown-XL', 'CJLY236548004DW']]</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>250</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>CJLY2365480</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>1917142985931784193</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1aglyqsjzt22enfa1t9vb1vj</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ladies' Solid-colored Shirts</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/4f4d748c-d443-4f0c-adbc-824327af563b.png,https://cf.cjdropshipping.com/1dec3b06-27d8-4cbc-8d34-1b460263ce6f.png,https://cf.cjdropshipping.com/a4c884ef-f182-4543-a44b-c8abceb00d26.png,https://cf.cjdropshipping.com/711fcde4-557b-48f6-a993-c7f3580fe98e.png</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Introducing our Ladies' Solid-Colored Shirts, designed for effortless style and comfort. Crafted from breathable fabric, these versatile tops are perfect for any occasion, allowing you to express your unique flair. Available in a range of vibrant hues, they easily pair with your favorite bottoms. Step out confidently in stunning fashion!</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>78</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJWL236553901AZ'], ['Blue-M', 'CJWL236553902BY'], ['Blue-L', 'CJWL236553903CX'], ['Blue-XL', 'CJWL236553904DW'], ['Blue-2XL', 'CJWL236553905EV'], ['Blue-3XL', 'CJWL236553906FU'], ['Green-S', 'CJWL236553907GT'], ['Green-M', 'CJWL236553908HS'], ['Green-L', 'CJWL236553909IR'], ['Green-XL', 'CJWL236553910JQ'], ['Green-2XL', 'CJWL236553911KP'], ['Green-3XL', 'CJWL236553912LO']]</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>255</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>CJWL2365539</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>1917153664418947074</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ddgk31j922lu4pi2o1s8pdvm</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Women Plain Crew Neck Long Sleeve Ruched Fitted Slim Fit T-Shirt</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/ccdccc78-616a-4ddb-9956-09a52f56b1d0.png,https://cf.cjdropshipping.com/8a2661a4-6bba-4467-a990-cb8e1af8bcab.png,https://cf.cjdropshipping.com/05b512d8-9dda-436d-a32c-5ad596979b21.png,https://cf.cjdropshipping.com/c045e215-c94b-4347-a2ae-68e1e6199d67.png,https://cf.cjdropshipping.com/dcea048d-28d3-468e-bb4e-f723324b0624.png</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Discover ultimate style with our Women Plain Crew Neck Long Sleeve Ruched Fitted Slim Fit T-Shirt. Designed for effortless elegance, this versatile top features flattering ruched detail and a comfortable slim fit, perfect for any occasion. Pair it with your favorite jeans or skirts for a chic, polished look every time!</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>55</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236541201AZ'], ['Black-M', 'CJWL236541202BY'], ['Black-L', 'CJWL236541203CX'], ['Black-XL', 'CJWL236541204DW'], ['Black-2XL', 'CJWL236541205EV'], ['Black-3XL', 'CJWL236541206FU'], ['Brown-S', 'CJWL236541207GT'], ['Brown-M', 'CJWL236541208HS'], ['Brown-L', 'CJWL236541209IR'], ['Brown-XL', 'CJWL236541210JQ'], ['Brown-2XL', 'CJWL236541211KP'], ['Brown-3XL', 'CJWL236541212LO']]</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>190</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>CJWL2365412</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>1917132457644630018</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>s5vgah8eevxqoecvf3hr6lez</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Women'S Cozy Knit Cardigan - Long Sleeve</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/5c752096-7bdb-44d8-82f4-39e3fd3310c2.png,https://cf.cjdropshipping.com/94daec9f-c563-49aa-ba96-094b7a948ef8.png,https://cf.cjdropshipping.com/590dc2e9-5eba-4cad-ba62-36cd186541ad.png</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>49</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Wrap yourself in warmth with our Women's Cozy Knit Cardigan. Featuring long sleeves and a chic design, this cardigan combines comfort and style effortlessly. Perfect for layering or casual outings, it complements any outfit. Enjoy the soft, breathable fabric that keeps you cozy throughout the day. Elevate your wardrobe essentials today!</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Blazers</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>49</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJQB236538601AZ'], ['Black-M', 'CJQB236538602BY'], ['Black-L', 'CJQB236538603CX'], ['Black-XL', 'CJQB236538604DW'], ['Black-2XL', 'CJQB236538605EV'], ['Black-3XL', 'CJQB236538606FU'], ['Khaki-S', 'CJQB236538607GT'], ['Khaki-M', 'CJQB236538608HS'], ['Khaki-L', 'CJQB236538609IR'], ['Khaki-XL', 'CJQB236538610JQ'], ['Khaki-2XL', 'CJQB236538611KP'], ['Khaki-3XL', 'CJQB236538612LO']]</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>380</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>CJQB2365386</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>1917129513704595457</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ebgq93vdw1mygefk50m97k1z</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Spring And Autumn Winter New Romantic Pink Round Neck Long Sleeve Knitted Women's Sweater</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/4e3211de-bbf6-4fd1-a624-aa12b1dd77e9.png,https://cf.cjdropshipping.com/fab27d14-1f75-4d51-8c3c-7b3a3712c7c8.png</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Experience cozy elegance with our Romantic Pink Round Neck Long Sleeve Knitted Women's Sweater. Perfect for spring, autumn, and winter, this stylish piece combines warmth and charm. Its soft fabric ensures comfort while the lovely hue adds a touch of femininity. Refresh your wardrobe with this must-have essential!</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>29</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>[['Pink-S', 'CJWL236541701AZ'], ['Pink-M', 'CJWL236541702BY'], ['Pink-L', 'CJWL236541703CX'], ['Pink-XL', 'CJWL236541704DW'], ['Pink-2XL', 'CJWL236541705EV'], ['Pink-3XL', 'CJWL236541706FU'], ['Blue-S', 'CJWL236541707GT'], ['Blue-M', 'CJWL236541708HS'], ['Blue-L', 'CJWL236541709IR'], ['Blue-XL', 'CJWL236541710JQ'], ['Blue-2XL', 'CJWL236541711KP'], ['Blue-3XL', 'CJWL236541712LO']]</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>350</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>CJWL2365417</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>1917133431533764609</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>z0zlt2honv2atprbi1ygcjap</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Women's French Solid Color Long Sleeve</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/d812266b-7fbf-43d7-8ed6-84fc049fa502.png,https://cf.cjdropshipping.com/0406107a-75f8-4883-b7d0-ef9ccfd1e81f.png,https://cf.cjdropshipping.com/635276f3-c593-43dc-814b-9b51afed18ac.png,https://cf.cjdropshipping.com/96fcf03c-6b5d-4ef6-a537-4cfd330599bb.png,https://cf.cjdropshipping.com/ad75cc19-9d48-41ff-a6cd-c30c9934719c.png,https://cf.cjdropshipping.com/0f0e7fd4-f36c-473b-80d9-e7fd6e2ab84e.png</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Discover timeless elegance with our Women's French Solid Color Long Sleeve. Crafted for comfort and style, this versatile piece complements any wardrobe. Featuring a chic design and flattering fit, it’s perfect for layering or wearing alone. Embrace sophistication and make a fashion statement effortlessly. Ideal for any occasion or season!</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>33</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236476101AZ'], ['Black-M', 'CJWL236476102BY'], ['Black-L', 'CJWL236476103CX'], ['Black-XL', 'CJWL236476104DW'], ['Black-2XL', 'CJWL236476105EV'], ['Black-3XL', 'CJWL236476106FU'], ['White-S', 'CJWL236476107GT'], ['White-M', 'CJWL236476108HS'], ['White-L', 'CJWL236476109IR'], ['White-XL', 'CJWL236476110JQ'], ['White-2XL', 'CJWL236476111KP'], ['White-3XL', 'CJWL236476112LO']]</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>213</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>CJWL2364761</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>1916825864226836482</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>6kr7oktir49lnv4oili5mp6r</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Women's Solid Color Drop Shoulder Long Sleeve Shirt</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/76ec7265-79ed-4cb4-811d-51488eead904.png,https://cf.cjdropshipping.com/64a22bcd-29de-4359-98ae-39e582731dab.png</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Experience effortless style with our Women's Solid Color Drop Shoulder Long Sleeve Shirt. Crafted for comfort and versatility, this chic top features a relaxed fit and timeless design, perfect for layering or solo wear. Available in a variety of stunning colors, it seamlessly complements any wardrobe while ensuring you look fabulous every day.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>31</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236474401AZ'], ['Black-M', 'CJWL236474402BY'], ['Black-L', 'CJWL236474403CX'], ['Black-XL', 'CJWL236474404DW'], ['Black-2XL', 'CJWL236474405EV'], ['Black-3XL', 'CJWL236474406FU'], ['Blue-S', 'CJWL236474407GT'], ['Blue-M', 'CJWL236474408HS'], ['Blue-L', 'CJWL236474409IR'], ['Blue-XL', 'CJWL236474410JQ'], ['Blue-2XL', 'CJWL236474411KP'], ['Blue-3XL', 'CJWL236474412LO']]</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>245</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>CJWL2364744</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>1916817342437101569</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>hhmufxpuj5up28gydstb2iz8</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Women's Plus Size Casual T-shirt</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/64de08e6-36ee-44f0-b9b3-58203027b1f3.png,https://cf.cjdropshipping.com/ee7bbb4e-edbe-4c47-818f-8b0345d22742.png,https://cf.cjdropshipping.com/ef3a5d8d-fe2b-427d-b4c0-e2794fd54048.png</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Stay stylish and comfortable in our Women's Plus Size Casual T-shirt! Crafted from soft, breathable fabric, this versatile tee offers a flattering fit for every body type. Perfect for casual outings or lounging at home, it effortlessly combines fashion and comfort. Embrace your individuality with this essential wardrobe staple!</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>20</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJWL236475601AZ'], ['Blue-M', 'CJWL236475602BY'], ['Blue-L', 'CJWL236475603CX'], ['Blue-XL', 'CJWL236475604DW'], ['Blue-2XL', 'CJWL236475605EV'], ['Blue-3XL', 'CJWL236475606FU'], ['Grey-S', 'CJWL236475607GT'], ['Grey-M', 'CJWL236475608HS'], ['Grey-L', 'CJWL236475609IR'], ['Grey-XL', 'CJWL236475610JQ'], ['Grey-2XL', 'CJWL236475611KP'], ['Grey-3XL', 'CJWL236475612LO']]</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>290</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>CJWL2364756</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>1916823487994236930</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2d9icrcss1t3pibeecwh40c3</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Women's Solid Color Half Turtleneck T-shirt</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/d6284fee-9b97-4734-934b-c327e8dec3be.png,https://cf.cjdropshipping.com/1b56c7f7-bf3d-4526-871f-3c112c5dca36.png,https://cf.cjdropshipping.com/ee730305-9ffa-4fb6-b2e4-06e982d86cf4.png,https://cf.cjdropshipping.com/71d3c0c6-197f-4b37-8f56-c167ce3da196.png,https://cf.cjdropshipping.com/c1f9b172-2f27-4e18-9e68-0b9af9cd3708.png,https://cf.cjdropshipping.com/4cf314f5-d642-490a-9c0f-061e1f1fa183.png</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>18</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Step into effortless style with our Women's Solid Color Half Turtleneck T-shirt. Crafted from premium fabric, this versatile top combines comfort and sophistication. Perfect for layering or wearing solo, it features a relaxed fit and chic design. Choose your favorite hue and enhance your wardrobe with this must-have essential!</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>13</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJWL236475001AZ'], ['Green-M', 'CJWL236475002BY'], ['Green-L', 'CJWL236475003CX'], ['Green-XL', 'CJWL236475004DW'], ['Green-2XL', 'CJWL236475005EV'], ['Green-3XL', 'CJWL236475006FU'], ['Brown-S', 'CJWL236475007GT'], ['Brown-M', 'CJWL236475008HS'], ['Brown-L', 'CJWL236475009IR'], ['Brown-XL', 'CJWL236475010JQ'], ['Brown-2XL', 'CJWL236475011KP'], ['Brown-3XL', 'CJWL236475012LO']]</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>225</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>CJWL2364750</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>1916819762014580738</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>214uanf1ubc7mcwl2yhtxwrd</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Women'S Black Off-Shoulder Long Sleeve Jumpsuit</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/570ca55f-d20b-4f46-ad80-a103191b79b9.png,https://cf.cjdropshipping.com/c52f1edf-8dc6-4d7c-bf02-04220a724284.png,https://cf.cjdropshipping.com/37805676-495c-4633-93f5-503cfbbe6036.png,https://cf.cjdropshipping.com/47210ff3-9227-43b8-af96-31dc76cb5f6d.png</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Discover effortless elegance with our Women’s Black Off-Shoulder Long Sleeve Jumpsuit. Crafted for the modern woman, this stunning piece showcases your silhouette while providing ultimate comfort. Perfect for any occasion, it combines chic style and versatility. Step out confidently and turn heads with this must-have addition to your wardrobe!</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Rompers</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJLT236415901AZ'], ['Black-M', 'CJLT236415902BY'], ['Black-L', 'CJLT236415903CX'], ['Black-XL', 'CJLT236415904DW'], ['Black-2XL', 'CJLT236415905EV'], ['Black-3XL', 'CJLT236415906FU'], ['Blue-S', 'CJLT236415907GT'], ['Blue-M', 'CJLT236415908HS'], ['Blue-L', 'CJLT236415909IR'], ['Blue-XL', 'CJLT236415910JQ'], ['Blue-2XL', 'CJLT236415911KP'], ['Blue-3XL', 'CJLT236415912LO']]</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>375</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>CJLT2364159</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>1916678693708886018</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ctfaff3x4wptn5xeazp4o3eo</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Women's Long Sleeve Shirt,Long Sleeve Tops</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/ea01ba57-119a-468f-bc87-6039cfe3c0d2.png,https://cf.cjdropshipping.com/9fb42fdd-0b0e-486e-953a-24fbf8adedd1.png,https://cf.cjdropshipping.com/3daca819-3a55-4072-bd25-d9a910d1300c.png,https://cf.cjdropshipping.com/6627ef3f-6f87-4740-be8c-ffb2d3439a8b.png</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Discover the ultimate blend of comfort and style with our Women’s Long Sleeve Shirt. Perfect for layering or standalone wear, this versatile top features a flattering fit and breathable fabric. Available in various colors, it's an essential addition to any wardrobe, effortlessly transitioning from casual outings to chic gatherings. Upgrade your collection today!</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>36</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236473801AZ'], ['Black-M', 'CJWL236473802BY'], ['Black-L', 'CJWL236473803CX'], ['Black-XL', 'CJWL236473804DW'], ['Black-2XL', 'CJWL236473805EV'], ['Black-3XL', 'CJWL236473806FU'], ['White-S', 'CJWL236473807GT'], ['White-M', 'CJWL236473808HS'], ['White-L', 'CJWL236473809IR'], ['White-XL', 'CJWL236473810JQ'], ['White-2XL', 'CJWL236473811KP'], ['White-3XL', 'CJWL236473812LO']]</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>205</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>CJWL2364738</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>1916813530649432065</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>5teuhstcx7vno6bfain0a9m7</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Cozy V-Neck Women's Sweater</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/72733409-cebd-45e1-b8bd-a29cd73a5f79.png,https://cf.cjdropshipping.com/782f5fac-a3e1-4493-8359-61e75d9446e7.png</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Embrace warmth and style with our Cozy V-Neck Women's Sweater. Crafted from soft, breathable fabric, it offers ultimate comfort for any occasion. The elegant v-neck design adds a chic touch, making it perfect for layering or casual outings. Available in various colors, this essential piece enhances every wardrobe effortlessly.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>16</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236414801AZ'], ['Black-M', 'CJWL236414802BY'], ['Black-L', 'CJWL236414803CX'], ['Black-XL', 'CJWL236414804DW'], ['Black-2XL', 'CJWL236414805EV'], ['Black-3XL', 'CJWL236414806FU'], ['Blue-S', 'CJWL236414807GT'], ['Blue-M', 'CJWL236414808HS'], ['Blue-L', 'CJWL236414809IR'], ['Blue-XL', 'CJWL236414810JQ'], ['Blue-2XL', 'CJWL236414811KP'], ['Blue-3XL', 'CJWL236414812LO']]</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>320</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>CJWL2364148</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>1916675998360113154</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>gk5ashy02917bbau0t5ppn53</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Solid Color Long Sleeve Hoodie And Sport Pants</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/6a40accf-2acd-46e6-a374-aed0d0fcbef7.png,https://cf.cjdropshipping.com/9f920a20-4adb-4ad4-b0da-369614c95331.png,https://cf.cjdropshipping.com/a313ecb6-c5c6-462c-b3cc-ef9090567b43.png,https://cf.cjdropshipping.com/3cdff8ba-8cc2-4b55-b16e-77ce247bbe51.png</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Introducing the Solid Color Long Sleeve Hoodie and Sport Pants, your perfect blend of comfort and style. This chic ensemble is crafted from soft, breathable fabric, ensuring all-day ease. The trendy design pairs effortlessly for workouts or casual outings. Elevate your wardrobe with this must-have athleisure set that defines modern fashion!</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>26</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJTZ236411301AZ'], ['Black-M', 'CJTZ236411302BY'], ['Black-L', 'CJTZ236411303CX'], ['Black-XL', 'CJTZ236411304DW'], ['Black-2XL', 'CJTZ236411305EV'], ['Black-3XL', 'CJTZ236411306FU'], ['Khaki-S', 'CJTZ236411307GT'], ['Khaki-M', 'CJTZ236411308HS'], ['Khaki-L', 'CJTZ236411309IR'], ['Khaki-XL', 'CJTZ236411310JQ'], ['Khaki-2XL', 'CJTZ236411311KP'], ['Khaki-3XL', 'CJTZ236411312LO']]</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>750</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>CJTZ2364113</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>1916669324391976961</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>69yktm35n0d9462hy5qd0p4w</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Plus Size Button Knitted Sweater</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/1b6883ab-3927-4acc-8fb2-b8e0a0cf43db.png,https://cf.cjdropshipping.com/309e5b28-f867-4424-87a2-42f83fa79994.png</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>49</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Stay cozy and stylish with our Plus Size Button Knitted Sweater. Crafted from soft, high-quality fabric, this versatile piece features trendy buttons and a flattering fit. Perfect for layering, it's ideal for casual outings or relaxed days at home. Embrace comfort without sacrificing your chic sense of fashion!</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>12</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL236474901AZ'], ['Black-M', 'CJWL236474902BY'], ['Black-L', 'CJWL236474903CX'], ['Black-XL', 'CJWL236474904DW'], ['Black-2XL', 'CJWL236474905EV'], ['Black-3XL', 'CJWL236474906FU'], ['Khaki-S', 'CJWL236474907GT'], ['Khaki-M', 'CJWL236474908HS'], ['Khaki-L', 'CJWL236474909IR'], ['Khaki-XL', 'CJWL236474910JQ'], ['Khaki-2XL', 'CJWL236474911KP'], ['Khaki-3XL', 'CJWL236474912LO']]</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>330</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>CJWL2364749</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>1916818532616998913</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>pet29en1r4e3jfozsb7ac0vl</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Women's Solid Color Long Sleeve Dress</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/711d089b-0f2b-45cd-ac86-388d008d9e14.png,https://cf.cjdropshipping.com/c692cd4a-b464-4bd2-a7e1-68d05b6f9860.png,https://cf.cjdropshipping.com/ff495f47-b8cc-4f05-ad06-24273f372653.png,https://cf.cjdropshipping.com/db13274f-c506-4438-bc91-016b0a0aab9b.png</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Discover effortless elegance with our Women's Solid Color Long Sleeve Dress. This versatile piece showcases a flattering silhouette, perfect for any occasion. Crafted from soft, breathable fabric, it offers all-day comfort and style. Dress it up or down for a chic look that enhances your wardrobe and boosts your confidence. </t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>26</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJLY236476401AZ'], ['Black-M', 'CJLY236476402BY'], ['Black-L', 'CJLY236476403CX'], ['Black-XL', 'CJLY236476404DW'], ['Black-2XL', 'CJLY236476405EV'], ['Black-3XL', 'CJLY236476406FU'], ['Green-S', 'CJLY236476407GT'], ['Green-M', 'CJLY236476408HS'], ['Green-L', 'CJLY236476409IR'], ['Green-XL', 'CJLY236476410JQ'], ['Green-2XL', 'CJLY236476411KP'], ['Green-3XL', 'CJLY236476412LO']]</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>360</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>CJLY2364764</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>1916827172786769921</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>kkoooy18dyhle8uf6dj8dxgu</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Black Deep V Backless Long Sleeve Dress</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/ab0e8a12-07b3-4049-a02e-9b0c07b751d1.png,https://cf.cjdropshipping.com/7839c244-6e05-4215-91e7-dbca4e103f6f.png</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Make a striking entrance in our Black Deep V Backless Long Sleeve Dress. This stunning piece combines elegance with allure, featuring a bold V neckline and a daring backless design. Perfect for special occasions or a night out, it guarantees all eyes on you while ensuring maximum comfort and style.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>38</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>[['Black-XS', 'CJLY236362401AZ'], ['Black-S', 'CJLY236362402BY'], ['Black-M', 'CJLY236362403CX'], ['Black-L', 'CJLY236362404DW'], ['Black-XL', 'CJLY236362405EV']]</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>355</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>CJLY2363624</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>1916329833231912961</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>tthcubhc0ltf1a5j0fdvtykv</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Black Bandeau Fringe Top</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/c36a225b-6b60-4d8d-a18e-0dbc6fe24e40.jpg,https://cf.cjdropshipping.com/bfa04461-8bd4-44c4-83c3-6ee6ad8216d4.jpg,https://cf.cjdropshipping.com/8616ba82-e39d-4a56-a0b2-055adc3355d6.jpg,https://cf.cjdropshipping.com/f50cd336-8a16-41de-815d-8c91861aa92c.jpg,https://cf.cjdropshipping.com/94c75858-35c9-463e-b30a-08b63459dd9d.jpg,https://cf.cjdropshipping.com/8b5f4ff5-0c16-43e5-a79c-7e31ecb79d15.jpg</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>58</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Unleash your inner bohemian with our Black Bandeau Fringe Top. This stylish piece features playful fringe detailing that moves with you, creating a fun and flirty vibe. Perfect for festivals or casual outings, it effortlessly pairs with high-waisted bottoms. Step out in confidence and make a statement wherever you go!</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Camis</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>[['Black-XS', 'CJWC236384901AZ'], ['Black-S', 'CJWC236384902BY'], ['Black-M', 'CJWC236384903CX'], ['Black-L', 'CJWC236384904DW'], ['Black-XL', 'CJWC236384905EV']]</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>212</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>CJWC2363849</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>1916399535376297986</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>qv68lz1ffldelv897rlilkh4</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Women's Solid Color Minimalist Long Sleeve Buttoned Shirt</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/be6a0e10-6904-4a38-bfec-69ac457a2678.png,https://cf.cjdropshipping.com/8dfe6a81-8a6a-4c10-9fb9-a5bb05e4641d.png,https://cf.cjdropshipping.com/a6ad26b1-be79-4424-8b99-324cf1aa8291.png,https://cf.cjdropshipping.com/cdb8ba26-244a-4182-92b9-fb7d54cf71c6.png,https://cf.cjdropshipping.com/d9742104-51d8-48b5-88c4-c9d76333b579.png,https://cf.cjdropshipping.com/bdb73625-874e-4789-9879-c2c627184cbb.png</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Introducing the Women's Solid Color Minimalist Long Sleeve Buttoned Shirt, where simplicity meets style. Crafted for versatility, this shirt features a timeless design perfect for any occasion. Its soft fabric ensures all-day comfort, while the elegant button details add a touch of sophistication. Upgrade your wardrobe with this essential piece today!</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>14</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>[['Brown-S', 'CJWL236270801AZ'], ['Brown-M', 'CJWL236270802BY'], ['Brown-L', 'CJWL236270803CX'], ['Brown-XL', 'CJWL236270804DW'], ['Brown-2XL', 'CJWL236270805EV'], ['Brown-3XL', 'CJWL236270806FU'], ['Grey-S', 'CJWL236270807GT'], ['Grey-M', 'CJWL236270808HS'], ['Grey-L', 'CJWL236270809IR'], ['Grey-XL', 'CJWL236270810JQ'], ['Grey-2XL', 'CJWL236270811KP'], ['Grey-3XL', 'CJWL236270812LO']]</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>295</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>CJWL2362708</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>1915716284550737922</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ldeed24gboy4588wk9ngt8cm</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Split Button Front Shirt</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/784c9777-b828-4e01-8737-8d5c18bc9833.png,https://cf.cjdropshipping.com/7e433e59-fa65-4848-bf09-9d7b82ccbb9e.png,https://cf.cjdropshipping.com/0f014bb5-46b3-480b-8134-099ad5cb19da.png,https://cf.cjdropshipping.com/de9ef52f-7bbf-4c27-bc39-23a2f906e4c4.png</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Upgrade your wardrobe with the Split Button Front Shirt! This stylish piece features a modern design, perfect for casual or dressy occasions. Crafted from comfortable fabric, it offers versatility and a flattering fit. Pair it with your favorite jeans or trousers for a chic, effortless look that turns heads wherever you go!</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>44</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJWL236183701AZ'], ['White-M', 'CJWL236183702BY'], ['White-L', 'CJWL236183703CX'], ['White-XL', 'CJWL236183704DW'], ['White-2XL', 'CJWL236183705EV'], ['White-3XL', 'CJWL236183706FU'], ['Black-S', 'CJWL236183707GT'], ['Black-M', 'CJWL236183708HS'], ['Black-L', 'CJWL236183709IR'], ['Black-XL', 'CJWL236183710JQ'], ['Black-2XL', 'CJWL236183711KP'], ['Black-3XL', 'CJWL236183712LO']]</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>228</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>CJWL2361837</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>1915357752113598465</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>u7a69lf3b38aukdka51rnae4</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Solid Color Open Front Crop Jacket</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/ba806c37-b361-488f-a2b5-186a72b6153c.png,https://cf.cjdropshipping.com/051f7ee6-8071-4867-a2c2-f09b6856a880.png,https://cf.cjdropshipping.com/0945d0f9-bdb8-4f2c-aaf3-13ba8d1860fe.png</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Solid Color Open Front Crop Jacket
+Stay stylish and comfortable with our Solid Color Open Front Crop Jacket. Its chic design effortlessly complements any outfit, while the lightweight fabric ensures all-day wear. Perfect for layering, this versatile piece adds a modern touch to your wardrobe. Embrace your fashion sense and make a statement today!</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Blazers</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>50</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJQB236176401AZ'], ['Black-M', 'CJQB236176402BY'], ['Black-L', 'CJQB236176403CX'], ['Black-XL', 'CJQB236176404DW'], ['Black-2XL', 'CJQB236176405EV'], ['Black-3XL', 'CJQB236176406FU'], ['Pink-S', 'CJQB236176407GT'], ['Pink-M', 'CJQB236176408HS'], ['Pink-L', 'CJQB236176409IR'], ['Pink-XL', 'CJQB236176410JQ'], ['Pink-2XL', 'CJQB236176411KP'], ['Pink-3XL', 'CJQB236176412LO']]</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>195</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>CJQB2361764</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>1915339884000235522</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>z35o8qbikmgzclm16rykdrrx</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Pleated Long Button Down Dropped Shoulder Women Shirt</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/cbdfa51e-fc10-424c-a1df-1bb3b3903f81.png,https://cf.cjdropshipping.com/f3f5f23a-08ed-47a6-8c02-e95611ef704c.png,https://cf.cjdropshipping.com/1290d560-349d-438f-a73f-3f0be3708110.png,https://cf.cjdropshipping.com/1e4796dc-26db-479a-b78c-948549bf231d.png</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Introducing the Pleated Long Button Down Dropped Shoulder Women Shirt, perfect for effortless style. This chic blouse features a relaxed fit, stylish pleats, and a sophisticated dropped shoulder design. Crafted from breathable fabric, it ensures all-day comfort. Pair it with jeans or skirts for a versatile look that transitions seamlessly from day to night.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Blazers</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>26</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJQB236175501AZ'], ['White-M', 'CJQB236175502BY'], ['White-L', 'CJQB236175503CX'], ['White-XL', 'CJQB236175504DW'], ['White-2XL', 'CJQB236175505EV'], ['White-3XL', 'CJQB236175506FU'], ['Blue-S', 'CJQB236175507GT'], ['Blue-M', 'CJQB236175508HS'], ['Blue-L', 'CJQB236175509IR'], ['Blue-XL', 'CJQB236175510JQ'], ['Blue-2XL', 'CJQB236175511KP'], ['Blue-3XL', 'CJQB236175512LO']]</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>340</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>CJQB2361755</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>1915336714159181826</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>j3c89qng19iolv9o0v0xmowb</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Casual V-Neck Knit Fabric Long Sleeve T-Shirt For Women In Solid Colo</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/9955401b-d4fb-4e62-9c16-fcedc2814aea.png,https://cf.cjdropshipping.com/1f60ecbc-7832-4486-8d20-b5ab87729f0c.png,https://cf.cjdropshipping.com/dabb543e-cb86-4bea-ae0e-be4b1ac85879.png,https://cf.cjdropshipping.com/1041e33b-c377-4d0d-95fe-fc455ed45b6e.png,https://cf.cjdropshipping.com/10ff4818-79fa-4ce2-9a7f-b171dfb70d2c.png,https://cf.cjdropshipping.com/a614fc2b-7830-4e57-aa8b-99187750ff2f.png</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Introducing our Casual V-Neck Knit Fabric Long Sleeve T-Shirt for Women, designed in chic solid colors. This versatile top combines comfort and style, perfect for casual outings or layering. Crafted from soft, breathable material, it offers a flattering fit for any body type. Elevate your wardrobe with this essential piece!</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>19</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJWL236096801AZ'], ['Blue-M', 'CJWL236096802BY'], ['Blue-L', 'CJWL236096803CX'], ['Blue-XL', 'CJWL236096804DW'], ['Blue-2XL', 'CJWL236096805EV'], ['Blue-3XL', 'CJWL236096806FU'], ['Green-S', 'CJWL236096807GT'], ['Green-M', 'CJWL236096808HS'], ['Green-L', 'CJWL236096809IR'], ['Green-XL', 'CJWL236096810JQ'], ['Green-2XL', 'CJWL236096811KP'], ['Green-3XL', 'CJWL236096812LO']]</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>307</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>CJWL2360968</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>1914992078828699650</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>sda9k0kpr4esmjotmmujl8bi</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Women's Casual Button-Up Shirt,Long Sleeve Tops</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/98867b7b-f069-4d13-9ab6-a91b2d6a9eab.png,https://cf.cjdropshipping.com/3d6e2f79-310c-4a5a-bb31-d2b52a6ef5ec.png,https://cf.cjdropshipping.com/1715843d-8e6e-4ef6-8fc5-ff98eb4df5d2.png,https://cf.cjdropshipping.com/231a73ac-cbc6-475d-ac9d-93d5e296d57c.png,https://cf.cjdropshipping.com/7208ad04-dc1b-415d-85fb-3108714d9aac.png</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Discover the perfect blend of style and comfort with our Women's Casual Button-Up Shirt. Crafted from breathable fabric, this long sleeve top features a chic design that easily transitions from day to night. Wear it alone or layer with your favorite pieces for a versatile, fashionable look.</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>20</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJWL236093707GT'], ['Blue-M', 'CJWL236093708HS'], ['Blue-L', 'CJWL236093709IR'], ['Blue-XL', 'CJWL236093710JQ'], ['Blue-2XL', 'CJWL236093711KP'], ['Blue-3XL', 'CJWL236093712LO'], ['Black-S', 'CJWL236093713MN'], ['Black-M', 'CJWL236093714NM'], ['Black-L', 'CJWL236093715OL'], ['Black-XL', 'CJWL236093716PK'], ['Black-2XL', 'CJWL236093717QJ'], ['Black-3XL', 'CJWL236093718RI']]</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>310</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>CJWL2360937</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>1914979029358268417</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>cq6jcyvzn14o8spazrrx7eaz</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Solid Color Zip-up Teddy Hoodie, Casual Long Sleeve Hoodie Jacket</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/f85763a3-d40f-457b-bc26-8f9cd55789a0.png,https://cf.cjdropshipping.com/ba3741a0-e00b-4ac1-a183-34ef84cbc3dd.png,https://cf.cjdropshipping.com/42a75234-4170-4dad-befe-02ada30fabdd.png,https://cf.cjdropshipping.com/455d0039-29df-447f-b083-b76047c8d311.png,https://cf.cjdropshipping.com/ea8398b4-3db5-474e-8639-1c5d3eaa866f.png</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Introducing the Solid Color Zip-up Teddy Hoodie: your ultimate casual companion. This cozy long sleeve jacket combines warmth and style, perfect for chilly days. With its soft teddy fabric and versatile zip-up design, it effortlessly enhances any outfit. Slip into comfort and make a fashion statement like never before!</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Basic Jacket</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>46</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJJK236097901AZ'], ['White-M', 'CJJK236097902BY'], ['White-L', 'CJJK236097903CX'], ['White-XL', 'CJJK236097904DW'], ['White-2XL', 'CJJK236097905EV'], ['White-3XL', 'CJJK236097906FU'], ['Black-S', 'CJJK236097907GT'], ['Black-M', 'CJJK236097908HS'], ['Black-L', 'CJJK236097909IR'], ['Black-XL', 'CJJK236097910JQ'], ['Black-2XL', 'CJJK236097911KP'], ['Black-3XL', 'CJJK236097912LO']]</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>330</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>CJJK2360979</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>1914996096107073537</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>e8g31g2r0jz1g4mrrc9iab15</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Women's Printed Polyester Jeans</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/7f696bd1-3a85-4477-9134-4f662ef8f8a6.png,https://cf.cjdropshipping.com/8b3a8f08-f3b2-486e-860e-ac69e94bbe0c.png,https://cf.cjdropshipping.com/b136973d-66d9-4b05-85ac-fc06cfe852b6.png,https://cf.cjdropshipping.com/bc2e840a-75ec-4e28-9874-8908fb29abd9.png,https://cf.cjdropshipping.com/3e75ab5d-a271-4f67-a85f-54fc2b650b76.png,https://cf.cjdropshipping.com/ec1baf7f-d3d1-4549-a89e-40ab5a3f083f.png</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Experience style and comfort with our Women's Printed Polyester Jeans. Crafted from high-quality polyester, these trendy jeans showcase vibrant prints for a bold look. Perfect for casual outings or dressing up, they offer flexibility and breathability. Embrace your individuality and make a fashion statement with every step you take!</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Bottoms,Woman Jeans</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>101</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>[['Style1-S', 'CJNZ236086401AZ'], ['Style1-M', 'CJNZ236086402BY'], ['Style1-L', 'CJNZ236086403CX'], ['Style1-XL', 'CJNZ236086404DW'], ['Style1-2XL', 'CJNZ236086405EV'], ['Style1-3XL', 'CJNZ236086406FU'], ['Style2-S', 'CJNZ236086407GT'], ['Style2-M', 'CJNZ236086408HS'], ['Style2-L', 'CJNZ236086409IR'], ['Style2-XL', 'CJNZ236086410JQ'], ['Style2-2XL', 'CJNZ236086411KP'], ['Style2-3XL', 'CJNZ236086412LO'], ['Style3-S', 'CJNZ236086413MN'], ['Style3-M', 'CJNZ236086414NM'], ['Style3-L', 'CJNZ236086415OL'], ['Style3-XL', 'CJNZ236086416PK'], ['Style3-2XL', 'CJNZ236086417QJ'], ['Style3-3XL', 'CJNZ236086418RI'], ['Style4-S', 'CJNZ236086419SH'], ['Style4-M', 'CJNZ236086420TG'], ['Style4-L', 'CJNZ236086421UF'], ['Style4-XL', 'CJNZ236086422VE'], ['Style4-2XL', 'CJNZ236086423WD'], ['Style4-3XL', 'CJNZ236086424XC'], ['Style5-S', 'CJNZ236086425YB'], ['Style5-M', 'CJNZ236086426ZA'], ['Style5-L', 'CJNZ236086427AZ'], ['Style5-XL', 'CJNZ236086428BY'], ['Style5-2XL', 'CJNZ236086429CX'], ['Style5-3XL', 'CJNZ236086430DW'], ['Style6-S', 'CJNZ236086431EV'], ['Style6-M', 'CJNZ236086432FU'], ['Style6-L', 'CJNZ236086433GT'], ['Style6-XL', 'CJNZ236086434HS'], ['Style6-2XL', 'CJNZ236086435IR'], ['Style6-3XL', 'CJNZ236086436JQ'], ['Style1-4XL', 'CJNZ236086437KP'], ['Style1-5XL', 'CJNZ236086438LO'], ['Style2-4XL', 'CJNZ236086439MN'], ['Style2-5XL', 'CJNZ236086440NM'], ['Style3-4XL', 'CJNZ236086441OL'], ['Style3-5XL', 'CJNZ236086442PK'], ['Style4-4XL', 'CJNZ236086443QJ'], ['Style4-5XL', 'CJNZ236086444RI'], ['Style5-4XL', 'CJNZ236086445SH'], ['Style5-5XL', 'CJNZ236086446TG'], ['Style6-4XL', 'CJNZ236086447UF'], ['Style6-5XL', 'CJNZ236086448VE']]</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>305</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>CJNZ2360864</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>1914966372799315969</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>8kpg26ofkw018cmqpb3iawk4</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Backless Leopard Print Maxi Dress</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/44a50e04-c15b-40f8-9dde-8287bf3f86cb.jpg,https://cf.cjdropshipping.com/803b82bf-9672-4376-a425-00bf69ef59a0.jpg,https://cf.cjdropshipping.com/abc2adb8-3a10-4dc4-a056-e402246f7c67.jpg,https://cf.cjdropshipping.com/a72ff0f7-6c69-4b3a-a40d-6c3b50162610.jpg,https://cf.cjdropshipping.com/735eb347-b256-4d8a-a104-0a851d477345.jpg</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Unleash your inner glam with this stunning Backless Leopard Print Maxi Dress. Its sleek design and flowing silhouette offer ultimate comfort while making a bold fashion statement. Perfect for any occasion, this dress effortlessly combines elegance and flirtatious charm. Stand out and turn heads wherever you go in this must-have addition!</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>17</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>[['Leopard-XS', 'CJLY236094801AZ'], ['Leopard-S', 'CJLY236094802BY'], ['Leopard-M', 'CJLY236094803CX'], ['Leopard-L', 'CJLY236094804DW'], ['Leopard-XL', 'CJLY236094805EV']]</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>325</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>CJLY2360948</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>1914982180744384513</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4ef0hg3bri1hcrh4lkj71yu8</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Round Neck Lantern Sleeve Shirt Dress</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/10313187-b3d8-4d0e-b6b8-0dce902a3b98.png,https://cf.cjdropshipping.com/0145be70-c13e-4d3f-9ebd-e67293078c7b.png,https://cf.cjdropshipping.com/f36b6feb-3345-499f-bed0-b944bd745399.png,https://cf.cjdropshipping.com/04d9ae3b-de56-4c11-b8da-e43fe6adf85e.png,https://cf.cjdropshipping.com/88a5051d-c341-4002-a2b3-a233c3362424.png,https://cf.cjdropshipping.com/a88f0c84-d81a-4800-8a11-6ede7adc4d3e.png</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Introducing the Round Neck Lantern Sleeve Shirt Dress – a perfect blend of elegance and comfort. This stylish dress features charming lantern sleeves and a versatile round neck, perfect for any occasion. Pair it with your favorite accessories and step into the spotlight, showcasing your timeless fashion sense effortlessly!</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>17</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>[['Purple-S', 'CJLY236013601AZ'], ['Purple-M', 'CJLY236013602BY'], ['Purple-L', 'CJLY236013603CX'], ['Purple-XL', 'CJLY236013604DW'], ['Purple-2XL', 'CJLY236013605EV'], ['Purple-3XL', 'CJLY236013606FU'], ['Blue-S', 'CJLY236013607GT'], ['Blue-M', 'CJLY236013608HS'], ['Blue-L', 'CJLY236013609IR'], ['Blue-XL', 'CJLY236013610JQ'], ['Blue-2XL', 'CJLY236013611KP'], ['Blue-3XL', 'CJLY236013612LO']]</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>226</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>CJLY2360136</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>1914625221687275521</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>9hrkohhktqocc39jfs0f0k39</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Letter Print Zipper Dual Pockets Hoodie</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/e32a8ee1-b3a1-4f7b-9033-347f4c55d453.png,https://cf.cjdropshipping.com/9ae0be6f-b08c-4804-ad51-a1ae2a72ed54.jpg,https://cf.cjdropshipping.com/c64877c8-d80d-418f-81e4-404f0687cfc0.png</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Introducing the Letter Print Zipper Dual Pockets Hoodie – your go-to for comfort and style. Crafted from cozy fabric, this hoodie features bold lettering and practical pockets, perfect for on-the-go lifestyles. Stay warm while showcasing your unique flair. Ideal for casual outings or lounging at home. Grab yours today!</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Basic Jacket</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>30</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJJK236013401AZ'], ['Black-M', 'CJJK236013402BY'], ['Black-L', 'CJJK236013403CX'], ['Black-XL', 'CJJK236013404DW'], ['Black-2XL', 'CJJK236013405EV'], ['Black-3XL', 'CJJK236013406FU'], ['White-S', 'CJJK236013407GT'], ['White-M', 'CJJK236013408HS'], ['White-L', 'CJJK236013409IR'], ['White-XL', 'CJJK236013410JQ'], ['White-2XL', 'CJJK236013411KP'], ['White-3XL', 'CJJK236013412LO']]</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>476</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>CJJK2360134</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>1914623723286937601</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>5edwoduug5bbhiqw7xwhpmz9</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Women's Shirt Jacquard Bubble Sleeve Temperament Top Shorts Commuting Design Casual Suit</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/d9e82540-42b1-4fe1-bec3-cad7493818a7.jpg,https://cf.cjdropshipping.com/30a9759d-53b5-4544-bdb4-13a5950eeb41.jpg,https://cf.cjdropshipping.com/6efa5cc2-cb9a-4749-9914-87fa2753e3ac.jpg,https://cf.cjdropshipping.com/a34aac28-46e4-4400-9ba0-83a381b3eec8.jpg,https://cf.cjdropshipping.com/a45d20ef-7aa4-48ff-9666-041a3877105e.jpg,https://cf.cjdropshipping.com/7c439d8b-0d18-43aa-bc51-aee0a7330540.jpg,https://cf.cjdropshipping.com/3c2e3096-0464-4634-b7fe-fd236e09aa95.jpg,https://cf.cjdropshipping.com/315263d0-7799-4da5-8c02-71614ec5a08c.jpg,https://cf.cjdropshipping.com/22744ef5-68e9-4dc4-9d7a-f6768503ff4e.jpg</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>103</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Women's Shirt Jacquard Bubble Sleeve Temperament Top. This chic, casual suit features an elegant design perfect for commuting. The unique bubble sleeves add a touch of sophistication, while the lightweight fabric ensures comfort. Elevate your wardrobe with this versatile ensemble that transitions seamlessly from day to night!</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>23</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJTZ235829001AZ'], ['White-M', 'CJTZ235829002BY'], ['White-L', 'CJTZ235829003CX'], ['White-XL', 'CJTZ235829004DW'], ['White-XXL', 'CJTZ235829005EV'], ['Pink-S', 'CJTZ235829006FU'], ['Pink-M', 'CJTZ235829007GT'], ['Pink-L', 'CJTZ235829008HS'], ['Pink-XL', 'CJTZ235829009IR'], ['Pink-XXL', 'CJTZ235829010JQ'], ['Yellow-S', 'CJTZ235829011KP'], ['Yellow-M', 'CJTZ235829012LO'], ['Yellow-L', 'CJTZ235829013MN'], ['Yellow-XL', 'CJTZ235829014NM'], ['Yellow-XXL', 'CJTZ235829015OL'], ['Black-S', 'CJTZ235829016PK'], ['Black-M', 'CJTZ235829017QJ'], ['Black-L', 'CJTZ235829018RI'], ['Black-XL', 'CJTZ235829019SH'], ['Black-XXL', 'CJTZ235829020TG'], ['Dark blue-S', 'CJTZ235829021UF'], ['Dark blue-M', 'CJTZ235829022VE'], ['Dark blue-L', 'CJTZ235829023WD'], ['Dark blue-XL', 'CJTZ235829024XC'], ['Dark blue-XXL', 'CJTZ235829025YB'], ['Blue-S', 'CJTZ235829026ZA'], ['Blue-M', 'CJTZ235829027AZ'], ['Blue-L', 'CJTZ235829028BY'], ['Blue-XL', 'CJTZ235829029CX'], ['Blue-XXL', 'CJTZ235829030DW'], ['Green-S', 'CJTZ235829031EV'], ['Green-M', 'CJTZ235829032FU'], ['Green-L', 'CJTZ235829033GT'], ['Green-XL', 'CJTZ235829034HS'], ['Green-XXL', 'CJTZ235829035IR'], ['Khaki-S', 'CJTZ235829036JQ'], ['Khaki-M', 'CJTZ235829037KP'], ['Khaki-L', 'CJTZ235829038LO'], ['Khaki-XL', 'CJTZ235829039MN'], ['Khaki-XXL', 'CJTZ235829040NM'], ['Purple-S', 'CJTZ235829041OL'], ['Purple-M', 'CJTZ235829042PK'], ['Purple-L', 'CJTZ235829043QJ'], ['Purple-XL', 'CJTZ235829044RI'], ['Purple-XXL', 'CJTZ235829045SH']]</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>300</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>CJTZ2358290</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>1913860078022721537</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>34py4cbq9btdgnu782wjrvpn</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Lace Panel Long Sleeve Shirt</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/b37be9cc-ee50-476f-8452-59c31f102458.jpg,https://cf.cjdropshipping.com/f370afad-a7ec-4310-91c4-5876a33131e0.jpg,https://cf.cjdropshipping.com/9b966da8-63b5-4cb5-bed5-50f537ed220b.jpg,https://cf.cjdropshipping.com/d4c34606-332d-4613-9719-76e7daa49078.jpg,https://cf.cjdropshipping.com/42408839-76c2-4268-8a3f-04f7bff8a304.jpg,https://cf.cjdropshipping.com/bec53622-5d0e-4648-8945-34b6a68c163c.jpg,https://cf.cjdropshipping.com/46770734-8c85-46d2-a90b-1d04b4e64b04.jpg</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Discover our Lace Panel Long Sleeve Shirt, a perfect blend of elegance and style. This exquisite top features delicate lace detailing that adds a touch of sophistication to any outfit. Crafted for comfort and versatility, it’s ideal for casual outings or special occasions. Embrace your femininity effortlessly with this stunning piece.</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Blouses , Shirts</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>4</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>[['White-XS', 'CJCS235693401AZ'], ['White-S', 'CJCS235693402BY'], ['White-M', 'CJCS235693403CX'], ['White-L', 'CJCS235693404DW'], ['White-XL', 'CJCS235693405EV']]</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>480</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>CJCS2356934</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>1913124902468616193</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>e6yd8xcf0arv9lxuhzd5g6ku</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Mesh See-through Skirt</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/42a82663-527b-40eb-8981-d2d399f54f67.jpg,https://cf.cjdropshipping.com/df59d23f-a5ed-4b95-9336-0be2116eaa33.jpg,https://cf.cjdropshipping.com/2eadad4b-159d-4f76-84f2-5e350ade6253.jpg</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Unleash your inner fashionista with our Mesh See-through Skirt! This stunning piece combines elegance and allure, showcasing layers of breathtaking mesh that beautifully drape your silhouette. Perfect for layering or making a statement, this versatile skirt can elevate any outfit. Embrace your bold side and turn heads with every step!</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Bottoms,Skirts</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>16</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>[['White-XS', 'CJQZ235707101AZ'], ['White-S', 'CJQZ235707102BY'], ['White-M', 'CJQZ235707103CX'], ['White-L', 'CJQZ235707104DW'], ['White-XL', 'CJQZ235707105EV']]</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>220</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>CJQZ2357071</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>1913156063286820865</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>hfgzbqxp2fb0pkumzxkje5ro</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Zip Up Drawstring Hoodies, Casual Soldi Long Sleeve Sweatshirt</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/1356dfbb-4a96-4af2-8513-b07fbcc54180.png,https://cf.cjdropshipping.com/6ed5bc75-6887-4cc9-bfa6-c98156af0486.png,https://cf.cjdropshipping.com/8f836059-301e-499e-b09c-85bd43e63d71.png,https://cf.cjdropshipping.com/b55c429e-62ef-4c3b-a554-c6a9c004d4f2.png,https://cf.cjdropshipping.com/584b7502-0d7c-4330-b512-a250cdd0dc63.png</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Unleash comfort with our Zip Up Drawstring Hoodies! Crafted from soft, breathable fabric, this casual long sleeve sweatshirt is perfect for layering. The stylish design features a versatile hood and adjustable drawstrings, ensuring a cozy fit for any occasion. Perfect for chilly mornings or relaxed afternoons out. Upgrade your wardrobe today!</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Basic Jacket</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>22</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJJK235699201AZ'], ['White-M', 'CJJK235699202BY'], ['White-L', 'CJJK235699203CX'], ['White-XL', 'CJJK235699204DW'], ['White-2XL', 'CJJK235699205EV'], ['White-3XL', 'CJJK235699206FU'], ['Black-S', 'CJJK235699207GT'], ['Black-M', 'CJJK235699208HS'], ['Black-L', 'CJJK235699209IR'], ['Black-XL', 'CJJK235699210JQ'], ['Black-2XL', 'CJJK235699211KP'], ['Black-3XL', 'CJJK235699212LO']]</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>430</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>CJJK2356992</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>1913136692497776642</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1viriyr71c61npt2kysa0r8e</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>White Lapel Blazers</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/f00f7882-c5e3-4b7e-9641-dd2e0a12b6fc.jpg,https://cf.cjdropshipping.com/4b711926-0581-4089-bfd6-bbec442f5125.jpg,https://cf.cjdropshipping.com/ce562a98-d4ff-4622-8d06-df37d0bf1e7e.jpg</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Introducing our stunning White Lapel Blazer, a perfect blend of sophistication and style. Crafted with premium fabric, this versatile piece enhances any outfit, making it ideal for both formal occasions and casual outings. Stand out effortlessly with its classic silhouette and chic design, ensuring you make a memorable statement wherever you go.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Basic Jacket</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>61</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>[['White-XS', 'CJJK235708201AZ'], ['White-S', 'CJJK235708202BY'], ['White-M', 'CJJK235708203CX'], ['White-L', 'CJJK235708204DW'], ['White-XL', 'CJJK235708205EV']]</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>597</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>CJJK2357082</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>1913157799913226241</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>msh8q7mbr63gu6091uau4m86</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Women's Lightweight Floral Maxi Tank Dress</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/344cf9c2-933f-4e25-9896-17e4b6dcaea3.png,https://cf.cjdropshipping.com/11bd98c1-071b-49a0-b8a1-47b9d94e9a11.png,https://cf.cjdropshipping.com/737cd3b8-c35a-425e-8c44-849a06cca318.png,https://cf.cjdropshipping.com/f5afd430-e27f-456e-9565-1fca34c5af2a.png,https://cf.cjdropshipping.com/6da225c2-8347-444e-b37c-1317c4f1e001.png</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Step into style with our Women's Lightweight Floral Maxi Tank Dress, perfect for warm days out. Featuring a vibrant floral pattern and a flowing silhouette, this dress combines comfort and elegance effortlessly. Ideal for casual outings or summer events, it’s a versatile addition to your wardrobe that embraces femininity.</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>29</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>[['Style1-S', 'CJLY235515001AZ'], ['Style1-M', 'CJLY235515002BY'], ['Style1-L', 'CJLY235515003CX'], ['Style1-XL', 'CJLY235515004DW'], ['Style1-2XL', 'CJLY235515005EV'], ['Style1-3XL', 'CJLY235515006FU'], ['Style2-S', 'CJLY235515007GT'], ['Style2-M', 'CJLY235515008HS'], ['Style2-L', 'CJLY235515009IR'], ['Style2-XL', 'CJLY235515010JQ'], ['Style2-2XL', 'CJLY235515011KP'], ['Style2-3XL', 'CJLY235515012LO']]</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>430</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>CJLY2355150</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>1912409369085751298</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>o1oa02pchkj63vribx1rf49g</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Solid Color Open-Front Cardigan</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/013f747a-bc80-44c4-8e06-0341aae7c4e3.png,https://cf.cjdropshipping.com/4e341dfc-126b-4d8b-9f0b-13bdc6f9ec08.png,https://cf.cjdropshipping.com/3751a349-3ac0-4f46-b51f-140f621e3e5a.png,https://cf.cjdropshipping.com/7aa16733-ba8d-45c3-972d-983193f1b0d0.png,https://cf.cjdropshipping.com/fdb6fc59-5039-46f4-a03a-8f2476f0c285.png</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Enhance your wardrobe with our Solid Color Open-Front Cardigan! This versatile piece combines comfort and style, perfect for layering over any outfit. Crafted from soft fabric, it offers a flattering fit while keeping you cozy. Ideal for casual outings or cozy nights in, this cardigan is a must-have staple.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Basic Jacket</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>31</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>[['Gray-S', 'CJJK235505401AZ'], ['Gray-M', 'CJJK235505402BY'], ['Gray-L', 'CJJK235505403CX'], ['Gray-XL', 'CJJK235505404DW'], ['Gray-2XL', 'CJJK235505405EV'], ['Gray-3XL', 'CJJK235505406FU'], ['Black-S', 'CJJK235505407GT'], ['Black-M', 'CJJK235505408HS'], ['Black-L', 'CJJK235505409IR'], ['Black-XL', 'CJJK235505410JQ'], ['Black-2XL', 'CJJK235505411KP'], ['Black-3XL', 'CJJK235505412LO']]</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>430</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>CJJK2355054</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>1912396793903853570</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>lh20gw6k706jd3kkub0y2dr7</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Women's Casual V-Neck T-Shirt With Unique Cloud Print</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/fd8b235a-7ba4-4231-9655-32761a282cab.png,https://cf.cjdropshipping.com/80c738f7-8d8e-4c19-8ca7-0c5202a25a41.png,https://cf.cjdropshipping.com/c2694927-815a-40a4-8183-8b9af0165018.png,https://cf.cjdropshipping.com/d3ed5f37-ef49-41cf-9142-78e12bcfaad9.png,https://cf.cjdropshipping.com/88ae6631-3ce0-43c7-aaa5-99b379d69465.png</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Add a touch of whimsy to your wardrobe with our Women's Casual V-Neck T-Shirt featuring a unique cloud print. Perfect for everyday wear, this lightweight tee combines comfort and style effortlessly. Dress it up or down, and enjoy the versatility that brings a fresh vibe to any outfit you choose.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>18</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>[['Pink-S', 'CJWL235520201AZ'], ['Pink-M', 'CJWL235520202BY'], ['Pink-L', 'CJWL235520203CX'], ['Pink-XL', 'CJWL235520204DW'], ['Pink-2XL', 'CJWL235520205EV'], ['Pink-3XL', 'CJWL235520206FU'], ['Blue-S', 'CJWL235520207GT'], ['Blue-M', 'CJWL235520208HS'], ['Blue-L', 'CJWL235520209IR'], ['Blue-XL', 'CJWL235520210JQ'], ['Blue-2XL', 'CJWL235520211KP'], ['Blue-3XL', 'CJWL235520212LO']]</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>380</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>CJWL2355202</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>1912416232774483969</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>yvazxm79yopmhm45bi6ovzub</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Solid Ribbed Pullover Sweatshirt</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/1246f36d-8ed8-4cba-a7ac-d322e1e88d19.png,https://cf.cjdropshipping.com/c9cf69e6-366d-4c07-ab9a-bad4bff58953.png,https://cf.cjdropshipping.com/3cff22d6-f6c9-46ff-9476-29442bd742d7.png,https://cf.cjdropshipping.com/f84e2898-36ae-4b7a-b446-3edf7f321958.png,https://cf.cjdropshipping.com/99a0b13d-eaf7-4bc1-9d65-603c25cf25fb.png</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Introducing the Solid Ribbed Pullover Sweatshirt, your new go-to for stylish comfort. Crafted from soft, breathable material, it features a cozy ribbed texture and a relaxed fit, perfect for layering or wearing solo. Ideal for casual outings or lounging at home, this sweatshirt effortlessly merges functionality with contemporary flair.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Woman Hoodies , Sweatshirts</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>35</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>[['Dark Gray-S', 'CJWY235512001AZ'], ['Dark Gray-M', 'CJWY235512002BY'], ['Dark Gray-L', 'CJWY235512003CX'], ['Dark Gray-XL', 'CJWY235512004DW'], ['Dark Gray-2XL', 'CJWY235512005EV'], ['Dark Gray-3XL', 'CJWY235512006FU'], ['Pink Red-S', 'CJWY235512007GT'], ['Pink Red-M', 'CJWY235512008HS'], ['Pink Red-L', 'CJWY235512009IR'], ['Pink Red-XL', 'CJWY235512010JQ'], ['Pink Red-2XL', 'CJWY235512011KP'], ['Pink Red-3XL', 'CJWY235512012LO']]</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>430</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>CJWY2355120</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>1912405090639462402</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>39gzwfw0kmm9m4b1ezb3cteo</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Solid Notched Buttoned Cuff Blouse,Long Sleeve Tops</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/f6d214b2-034c-471c-b4db-3273e9079986.png,https://cf.cjdropshipping.com/f5eab416-9adc-4635-9f49-46c0eec32769.png,https://cf.cjdropshipping.com/01b98889-4d26-499e-8ca4-975d42b5023c.png,https://cf.cjdropshipping.com/8cc6290a-c666-48b4-990a-fb8c1e6f6c76.png,https://cf.cjdropshipping.com/cf42182d-13a5-483c-abd9-5f09037ffe6b.png</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Introducing the Solid Notched Buttoned Cuff Blouse: a stylish long sleeve top that combines elegance and comfort. Crafted from premium fabric, its notched collar and chic buttoned cuffs add a unique touch to any outfit. Perfect for casual outings or professional settings, this versatile blouse enhances your wardrobe effortlessly. Upgrade your style today!</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>30</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL235519001AZ'], ['Black-M', 'CJWL235519002BY'], ['Black-L', 'CJWL235519003CX'], ['Black-XL', 'CJWL235519004DW'], ['Black-2XL', 'CJWL235519005EV'], ['Black-3XL', 'CJWL235519006FU'], ['Red-S', 'CJWL235519007GT'], ['Red-M', 'CJWL235519008HS'], ['Red-L', 'CJWL235519009IR'], ['Red-XL', 'CJWL235519010JQ'], ['Red-2XL', 'CJWL235519011KP'], ['Red-3XL', 'CJWL235519012LO']]</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>380</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>CJWL2355190</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>1912415001821757442</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>cd1tppuu49di7wskz2l7t7be</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Women's Solid Color Round Neck Long Sleeve</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/c9d51387-29ac-4374-a70e-f3c5fce9817b.png,https://cf.cjdropshipping.com/056f7727-6960-4b3f-b116-278f6416825b.png,https://cf.cjdropshipping.com/89fcd02a-a620-478f-beb1-589304ef3650.png,https://cf.cjdropshipping.com/1fb47fca-e3fa-4744-a88b-f9e1445c606b.png,https://cf.cjdropshipping.com/3786cc1d-95a4-4141-aa02-422e0ae0e91f.png</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Women's Solid Color Round Neck Long Sleeve top. Crafted for comfort and versatility, this wardrobe staple complements any outfit. Its soft fabric ensures a cozy fit, while the classic design makes it perfect for layering or wearing solo. Upgrade your collection and embrace timeless elegance today!</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>48</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJWL235515901AZ'], ['White-M', 'CJWL235515902BY'], ['White-L', 'CJWL235515903CX'], ['White-XL', 'CJWL235515904DW'], ['White-2XL', 'CJWL235515905EV'], ['White-3XL', 'CJWL235515906FU'], ['Black-S', 'CJWL235515907GT'], ['Black-M', 'CJWL235515908HS'], ['Black-L', 'CJWL235515909IR'], ['Black-XL', 'CJWL235515910JQ'], ['Black-2XL', 'CJWL235515911KP'], ['Black-3XL', 'CJWL235515912LO']]</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>390</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>CJWL2355159</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>1912411935966244866</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>85o4qc7zebr2u3sk8av2vcbx</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Color Block Zip-up Hoodie Jacket</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/566f7cb7-717b-4a86-9d81-94f20b0d21d2.png,https://cf.cjdropshipping.com/89e2c174-3b66-4ec9-8fa3-d277b11e514e.png,https://cf.cjdropshipping.com/8443aca0-d58f-458e-a61f-6af2727efb56.png,https://cf.cjdropshipping.com/62420bf4-7159-4205-865f-0f61cf4baca4.png,https://cf.cjdropshipping.com/f44be57d-d34f-4502-b042-34a577379520.png</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Introducing the Color Block Zip-up Hoodie Jacket, a stylish blend of comfort and trend. Featuring vibrant hues and a modern design, this versatile piece is perfect for casual outings or cozy nights in. Crafted from soft materials, it provides warmth while accentuating your fashion-forward choices. Stand out effortlessly!</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Basic Jacket</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>23</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJJK235503501AZ'], ['Green-M', 'CJJK235503502BY'], ['Green-L', 'CJJK235503503CX'], ['Green-XL', 'CJJK235503504DW'], ['Green-2XL', 'CJJK235503505EV'], ['Green-3XL', 'CJJK235503506FU'], ['Dark Gray-S', 'CJJK235503507GT'], ['Dark Gray-M', 'CJJK235503508HS'], ['Dark Gray-L', 'CJJK235503509IR'], ['Dark Gray-XL', 'CJJK235503510JQ'], ['Dark Gray-2XL', 'CJJK235503511KP'], ['Dark Gray-3XL', 'CJJK235503512LO']]</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>430</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>CJJK2355035</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>1912395074180493314</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>i9ila0hlxr4bm75802sey8mt</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Flirla Colorblock Drop Shoulder Duster Cardigan,Long Sleeve Tops</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/85c98e4e-7679-49e0-b380-0d7d0b4863ec.png,https://cf.cjdropshipping.com/a6de8ff1-d8ea-41cb-9ff8-21768af9c276.png,https://cf.cjdropshipping.com/93a5633a-e83e-40b3-b59c-748417da4325.png,https://cf.cjdropshipping.com/32b22279-743a-4484-8f07-630ca9a9d83d.png,https://cf.cjdropshipping.com/23d1866b-d802-46f5-aa88-c0b23b0f9eef.png</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>49</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Flirla Colorblock Drop Shoulder Duster Cardigan offers a trendy twist to your outerwear collection. This long-sleeve piece combines comfort and style effortlessly, featuring a unique colorblock design. Perfect for layering, it enhances any outfit while keeping you cozy. Embrace your fashion-forward side with this must-have cardigan, ideal for any occasion.</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Basic Jacket</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>44</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJJK235549101AZ'], ['Green-M', 'CJJK235549102BY'], ['Green-L', 'CJJK235549103CX'], ['Green-XL', 'CJJK235549104DW'], ['Green-2XL', 'CJJK235549105EV'], ['Green-3XL', 'CJJK235549106FU'], ['Blue-S', 'CJJK235549107GT'], ['Blue-M', 'CJJK235549108HS'], ['Blue-L', 'CJJK235549109IR'], ['Blue-XL', 'CJJK235549110JQ'], ['Blue-2XL', 'CJJK235549111KP'], ['Blue-3XL', 'CJJK235549112LO']]</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>430</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>CJJK2355491</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>1912456715283570690</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>cvm9fycd21fyjwu2aps28sge</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Directional Pattern Long Cardigan For Women</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/5d9b199b-3848-4b22-a803-1eba21efdf85.png,https://cf.cjdropshipping.com/03fda841-e179-45c4-9164-dcbfdc7c3ca8.png,https://cf.cjdropshipping.com/fcb54a88-d372-497c-832f-59357be90ada.png,https://cf.cjdropshipping.com/f72185ff-3ccd-4192-891d-e80258bfb62b.png,https://cf.cjdropshipping.com/6657d03e-de22-4198-ac6f-5d13611c020b.png</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Introducing the Directional Pattern Long Cardigan for Women! This stylish piece features a unique design that adds flair to any outfit. Crafted for comfort and versatility, it complements your wardrobe perfectly. Stay cozy and chic whether you’re at home or on-the-go. Experience warmth and elegance combined in one stunning cardigan!</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Basic Jacket</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>18</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJJK235549201AZ'], ['Black-M', 'CJJK235549202BY'], ['Black-L', 'CJJK235549203CX'], ['Black-XL', 'CJJK235549204DW'], ['Black-2XL', 'CJJK235549205EV'], ['Black-3XL', 'CJJK235549206FU'], ['Red-S', 'CJJK235549207GT'], ['Red-M', 'CJJK235549208HS'], ['Red-L', 'CJJK235549209IR'], ['Red-XL', 'CJJK235549210JQ'], ['Red-2XL', 'CJJK235549211KP'], ['Red-3XL', 'CJJK235549212LO']]</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>430</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>CJJK2355492</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>1912457904867876866</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>n60fhc07ihpws9p3dsuvxusi</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Women's V-Neck All-Over Print Elegant Long Sleeve Blouse,Long Sleeve Tops</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/671243d6-ebd0-4672-9f8a-1f9fdb1a7e1d.jpg,https://cf.cjdropshipping.com/80e8e3f4-a0db-4402-9422-914d51d1ca80.jpg,https://cf.cjdropshipping.com/144156e5-5754-4bee-9f26-9e493a6036f3.jpg,https://cf.cjdropshipping.com/df2048ae-1945-47e8-b14c-7948fe7bc171.jpg,https://cf.cjdropshipping.com/bd884c25-0c75-49c7-9463-62dfd5c6fdcd.jpg</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Step into sophistication with our Women's V-Neck All-Over Print Elegant Long Sleeve Blouse. Featuring a flattering silhouette, this blouse combines comfort with style, perfect for any occasion. The unique print adds a touch of individuality, making it a must-have addition to your wardrobe. Enjoy versatile dressing options with this chic top!</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>47</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>[['Purple-S', 'CJWL235433601AZ'], ['Purple-M', 'CJWL235433602BY'], ['Purple-L', 'CJWL235433603CX'], ['Purple-XL', 'CJWL235433604DW'], ['Purple-2XL', 'CJWL235433605EV'], ['Purple-3XL', 'CJWL235433606FU'], ['Apricot-S', 'CJWL235433607GT'], ['Apricot-M', 'CJWL235433608HS'], ['Apricot-L', 'CJWL235433609IR'], ['Apricot-XL', 'CJWL235433610JQ'], ['Apricot-2XL', 'CJWL235433611KP'], ['Apricot-3XL', 'CJWL235433612LO']]</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>400</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>CJWL2354336</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>1912067263175741441</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>arli9l142yn6xlek223y2b69</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Striped Pattern Drop Shoulder Sweater,Long Sleeve Tops</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/2b47c8f1-9cc0-4225-9191-1b03564c23fb.png,https://cf.cjdropshipping.com/10fc9cb8-3147-48b2-9c5d-3a64cfc3d97a.png,https://cf.cjdropshipping.com/c3aef47e-1d2a-47a2-bf16-81ee907705c3.png,https://cf.cjdropshipping.com/0dc5cf44-5f5d-43ca-a594-49d887ea5140.png,https://cf.cjdropshipping.com/0a29877a-3eb5-4568-a8bb-d02ee7212204.png</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Add a touch of style to your wardrobe with our Striped Pattern Drop Shoulder Sweater. This cozy long sleeve top combines comfort and chic vibes, making it perfect for any occasion. Stay warm and fashionable while effortlessly showcasing your unique personality. Embrace a relaxed fit that pairs beautifully with your favorite bottoms!</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>40</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>[['Style1-S', 'CJWL235447501AZ'], ['Style1-M', 'CJWL235447502BY'], ['Style1-L', 'CJWL235447503CX'], ['Style1-XL', 'CJWL235447504DW'], ['Style1-2XL', 'CJWL235447505EV'], ['Style1-3XL', 'CJWL235447506FU'], ['Style2-S', 'CJWL235447507GT'], ['Style2-M', 'CJWL235447508HS'], ['Style2-L', 'CJWL235447509IR'], ['Style2-XL', 'CJWL235447510JQ'], ['Style2-2XL', 'CJWL235447511KP'], ['Style2-3XL', 'CJWL235447512LO']]</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>380</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>CJWL2354475</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>1912097174569504769</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1ko018at7g16w4bce93b956b</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Casual Solid Color Pocket Button-Front Long Sleeve Minimalist Shirt</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/cc5ea8d7-01b9-4cb9-ba14-948136f50c3a.jpg,https://cf.cjdropshipping.com/6a84e672-5251-463f-b98c-ca8677cbb7c8.jpg,https://cf.cjdropshipping.com/801fb1ca-8fc5-4016-a1f0-6409519ec4ff.jpg,https://cf.cjdropshipping.com/ad425092-83b0-4f28-a56d-8c44f2f96c35.jpg,https://cf.cjdropshipping.com/46287168-afa2-48b2-ade9-66f5b84c2865.jpg</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>36</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Introducing the Casual Solid Color Pocket Button-Front Long Sleeve Minimalist Shirt, a versatile wardrobe essential. Crafted for comfort and style, this shirt features an elegant button-front design and a convenient pocket. Perfect for any occasion, its minimalist aesthetic pairs effortlessly with your favorite jeans or chinos. Upgrade your fashion game today!</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Blouses , Shirts</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>29</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJCS235429701AZ'], ['Black-M', 'CJCS235429702BY'], ['Black-L', 'CJCS235429703CX'], ['Black-XL', 'CJCS235429704DW'], ['Black-2XL', 'CJCS235429705EV'], ['Black-3XL', 'CJCS235429706FU'], ['Apricot-S', 'CJCS235429707GT'], ['Apricot-M', 'CJCS235429708HS'], ['Apricot-L', 'CJCS235429709IR'], ['Apricot-XL', 'CJCS235429710JQ'], ['Apricot-2XL', 'CJCS235429711KP'], ['Apricot-3XL', 'CJCS235429712LO']]</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>400</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>CJCS2354297</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>1912058823128797186</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2qxzvl0y9wng6vqgi4dl8ljz</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2pcs Set Women Solid Color Drawstring Hooded Long Sleeve Top And Pants Casual Suit</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/1d4cf2cd-38bb-418e-ac9a-36878360a437.jpg,https://cf.cjdropshipping.com/98309b78-ae86-440f-82c1-81c660c487b9.jpg,https://cf.cjdropshipping.com/a199e4af-e06f-47da-82d9-40e411ee01c9.jpg,https://cf.cjdropshipping.com/643816a2-bff2-481e-a397-5556ce4d274c.jpg,https://cf.cjdropshipping.com/f0a410b9-1204-4473-a235-f0ba111b060b.jpg</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Discover comfort and style with our 2pcs Set Women Solid Color Drawstring Hooded Long Sleeve Top and Pants Casual Suit. Effortlessly chic, this versatile outfit is perfect for lounging or outings. Soft fabric ensures all-day comfort, while the trendy design keeps you looking fabulous. Upgrade your wardrobe with this must-have set today!</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>14</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>[['Grey-S', 'CJTZ235437201AZ'], ['Grey-M', 'CJTZ235437202BY'], ['Grey-L', 'CJTZ235437203CX'], ['Grey-XL', 'CJTZ235437204DW'], ['Grey-2XL', 'CJTZ235437205EV'], ['Grey-3XL', 'CJTZ235437206FU'], ['Black-S', 'CJTZ235437207GT'], ['Black-M', 'CJTZ235437208HS'], ['Black-L', 'CJTZ235437209IR'], ['Black-XL', 'CJTZ235437210JQ'], ['Black-2XL', 'CJTZ235437211KP'], ['Black-3XL', 'CJTZ235437212LO']]</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>400</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>CJTZ2354372</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>1912077352397852674</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1iqvec9syhbpaha0u8xqg8ji</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Long Sleeve Geometric-Pattern Ruched Bust Crew Neck T-Shirt</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/3853e9bc-4b7e-4115-b59d-af417004c884.jpg,https://cf.cjdropshipping.com/86af7433-65b6-4948-b3bb-7775e63de0b3.jpg,https://cf.cjdropshipping.com/344f9b80-be41-46df-9c48-638a79382103.jpg,https://cf.cjdropshipping.com/985259ab-71ef-4d2b-bff4-aa1810a62dc6.jpg,https://cf.cjdropshipping.com/c710ec6e-f389-4069-820e-12a90a905b56.jpg</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Introducing the Long Sleeve Geometric-Pattern Ruched Bust Crew Neck T-Shirt: a stylish blend of comfort and modern aesthetics. Featuring a chic geometric design, this shirt accentuates your silhouette while offering softness and versatility. Perfect for layering or standalone wear, it effortlessly transitions from casual outings to sophisticated events. Upgrade your wardrobe today!</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>[['Navy Blue-S', 'CJWL235428201AZ'], ['Navy Blue-M', 'CJWL235428202BY'], ['Navy Blue-L', 'CJWL235428203CX'], ['Navy Blue-XL', 'CJWL235428204DW'], ['Navy Blue-2XL', 'CJWL235428205EV'], ['Navy Blue-3XL', 'CJWL235428206FU'], ['Rust Red-S', 'CJWL235428207GT'], ['Rust Red-M', 'CJWL235428208HS'], ['Rust Red-L', 'CJWL235428209IR'], ['Rust Red-XL', 'CJWL235428210JQ'], ['Rust Red-2XL', 'CJWL235428211KP'], ['Rust Red-3XL', 'CJWL235428212LO']]</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>400</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>CJWL2354282</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>1912056361965735937</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>vuqo2dj7xcq7s9615h8kr1c9</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Button Front V Neck Long Sleeve Blouse, Women's Clothing</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/dd396886-dcf0-4209-8ae9-0c6e58f223b8.png,https://cf.cjdropshipping.com/ae54c0bf-a965-499a-b175-576e8b76b790.png</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Button Front V Neck Long Sleeve Blouse. Designed for versatility, this chic top features a flattering neckline and button details, perfect for both casual outings and professional settings. Made from lightweight fabric, it ensures comfort while keeping you trendy. Elevate your wardrobe essentials today!</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>23</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL235447801AZ'], ['Black-M', 'CJWL235447802BY'], ['Black-L', 'CJWL235447803CX'], ['Black-XL', 'CJWL235447804DW'], ['Black-2XL', 'CJWL235447805EV'], ['Black-3XL', 'CJWL235447806FU'], ['White-S', 'CJWL235447807GT'], ['White-M', 'CJWL235447808HS'], ['White-L', 'CJWL235447809IR'], ['White-XL', 'CJWL235447810JQ'], ['White-2XL', 'CJWL235447811KP'], ['White-3XL', 'CJWL235447812LO']]</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>390</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>CJWL2354478</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>1912098351625424897</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>roksc8cuhfr2q2w40qj4msuu</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Sexy Mesh Stitching Dress</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/58740e7f-46f1-4557-8a9b-dd2d352a8778.jpg,https://cf.cjdropshipping.com/290547ba-3333-44de-a2c3-d4a991a7521d.jpg,https://cf.cjdropshipping.com/4f9a946a-cecc-4052-9f5e-2d08ab269038.jpg,https://cf.cjdropshipping.com/d21864cd-2e19-46c1-a230-bff4e93bf484.jpg</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>185.7</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Unleash your bold side with the Sexy Mesh Stitching Dress! This stunning piece features intricate mesh details that seamlessly blend elegance and allure. Perfect for parties or romantic evenings, this dress accentuates your curves while ensuring you stand out. Dare to make a statement and transform your wardrobe with this irresistible design!</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>46</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>[['Black-XS', 'CJLY235156301AZ'], ['Black-S', 'CJLY235156302BY'], ['Black-M', 'CJLY235156303CX'], ['Black-L', 'CJLY235156304DW'], ['Black-XL', 'CJLY235156305EV']]</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>700</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>CJLY2351563</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>1910623136085409793</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>onmqvkoeac4gusazf7zg9iwt</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Solid Color Pleated Long Sleeve Dress</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/9a6d772f-4e28-4f8b-9ebf-49910f93dc37.jpg,https://cf.cjdropshipping.com/14f8c9cc-e852-458d-87d1-895d2e5e086a.jpg,https://cf.cjdropshipping.com/660b2b43-0a49-4ad7-835d-0fbbcd63064a.jpg,https://cf.cjdropshipping.com/e269af6d-fe13-49f2-8755-cfbf1cd12b23.jpg</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Introducing the Solid Color Pleated Long Sleeve Dress, a perfect blend of elegance and comfort. This stylish outfit features delicate pleats and long sleeves, enhancing your silhouette for any occasion. Choose your favorite hue and effortlessly transition from day to night, making a timeless statement wherever you go!</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>19</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>[['Apricot-XS', 'CJLY235076401AZ'], ['Apricot-S', 'CJLY235076402BY'], ['Apricot-M', 'CJLY235076403CX'], ['Apricot-L', 'CJLY235076404DW'], ['Apricot-XL', 'CJLY235076405EV']]</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>660</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>CJLY2350764</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>1910257046166204418</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>eksra26gtat5ajdjbv29xf36</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Casual Round Neck Long Sleeve Top And Pants Suit</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/ac634e04-7ae4-4910-b837-9e98594d0157.png,https://cf.cjdropshipping.com/6e83248c-9ebe-4732-97de-8e42e42a4360.png,https://cf.cjdropshipping.com/3c564d43-2d5f-460c-943c-a530b010e7b9.png,https://cf.cjdropshipping.com/271dbf89-9227-4add-8b0b-a042ec0934c0.png,https://cf.cjdropshipping.com/43172237-a56f-4f68-a9e2-9b12a39e030e.png</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Discover our Casual Round Neck Long Sleeve Top and Pants Suit, perfect for effortless style. This versatile ensemble features a comfy fit and chic design, making it ideal for any occasion. Dress it up or down with ease, and enjoy all-day comfort without compromising on fashion. Upgrade your wardrobe today!</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJTZ235069301AZ'], ['Black-M', 'CJTZ235069302BY'], ['Black-L', 'CJTZ235069303CX'], ['Black-XL', 'CJTZ235069304DW'], ['Black-2XL', 'CJTZ235069305EV'], ['Black-3XL', 'CJTZ235069306FU'], ['Green-S', 'CJTZ235069307GT'], ['Green-M', 'CJTZ235069308HS'], ['Green-L', 'CJTZ235069309IR'], ['Green-XL', 'CJTZ235069310JQ'], ['Green-2XL', 'CJTZ235069311KP'], ['Green-3XL', 'CJTZ235069312LO']]</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>430</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>CJTZ2350693</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>1910245312969863170</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>8xrn4bcz1hrys0hpg0opubnw</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Lightweight Loose-Fitting Knitted Hoodie With Lace Details For Sun Protection.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/382c9288-ec38-4316-9674-1bd20903b8b3.png,https://cf.cjdropshipping.com/0148fe5e-8f88-409c-a78f-9311e74409a0.png,https://cf.cjdropshipping.com/59c436c5-c3fc-4472-92e2-63c0d589ff82.png,https://cf.cjdropshipping.com/63e08f76-4f46-4629-a971-c2b4f031d857.png,https://cf.cjdropshipping.com/3dc325f0-e5a3-408a-8c21-22a3e4f329d2.png</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Experience ultimate comfort with our Lightweight Loose-Fitting Knitted Hoodie featuring elegant lace details. Perfect for sunny days, this stylish piece offers sun protection while keeping you cool. Its versatile design effortlessly enhances any outfit, making it an ideal addition to your wardrobe. Embrace both fashion and functionality today!</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>14</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWL235046201AZ'], ['Black-M', 'CJWL235046202BY'], ['Black-L', 'CJWL235046203CX'], ['Black-XL', 'CJWL235046204DW'], ['Black-2XL', 'CJWL235046205EV'], ['Black-3XL', 'CJWL235046206FU'], ['Mineral Green-S', 'CJWL235046207GT'], ['Mineral Green-M', 'CJWL235046208HS'], ['Mineral Green-L', 'CJWL235046209IR'], ['Mineral Green-XL', 'CJWL235046210JQ'], ['Mineral Green-2XL', 'CJWL235046211KP'], ['Mineral Green-3XL', 'CJWL235046212LO']]</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>330</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>CJWL2350462</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>1910213843065819137</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>8ukpuvtzmvml135v3z6dwwm2</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Chic Love Letter Printed Womens Two-piece Set</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/977fd394-a1cb-40e7-b3cf-6225472051c8.png,https://cf.cjdropshipping.com/681d4b42-d2f2-4325-9857-53d4807db64b.png,https://cf.cjdropshipping.com/cff1db71-707f-4be0-89d4-db4a254b268b.png,https://cf.cjdropshipping.com/e3c7e442-23d7-4139-99fa-0b61186566e5.png,https://cf.cjdropshipping.com/0f2988dd-f3ba-43c9-bb92-6b57eaaee601.png</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Introducing the Chic Love Letter Printed Women's Two-piece Set! This stylish outfit combines comfort and elegance, perfect for any occasion. Featuring a unique print and tailored fit, it's designed for the modern woman who loves to stand out. Embrace your individuality with this versatile ensemble that effortlessly transitions from day to night!</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>17</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJTZ235081801AZ'], ['Black-M', 'CJTZ235081802BY'], ['Black-L', 'CJTZ235081803CX'], ['Black-XL', 'CJTZ235081804DW'], ['Black-2XL', 'CJTZ235081805EV'], ['Black-3XL', 'CJTZ235081806FU'], ['Burgundy-S', 'CJTZ235081807GT'], ['Burgundy-M', 'CJTZ235081808HS'], ['Burgundy-L', 'CJTZ235081809IR'], ['Burgundy-XL', 'CJTZ235081810JQ'], ['Burgundy-2XL', 'CJTZ235081811KP'], ['Burgundy-3XL', 'CJTZ235081812LO']]</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>490</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>CJTZ2350818</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>1910266072157417474</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>40d0ogbk8ors8y7uoqom063e</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Women'S  Casual Polyester Set</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/5b1fe20c-cc92-4684-8c4e-ec9018a19ee7.png,https://cf.cjdropshipping.com/2f08c645-1be6-49a6-aaf4-d94cb2decbb4.png,https://cf.cjdropshipping.com/0b17a7a4-4d58-451d-9757-7e8c9aab78f5.png,https://cf.cjdropshipping.com/d5ad43f5-f62e-4fdd-95ba-c44558cd73a4.png,https://cf.cjdropshipping.com/7dab67a4-db10-4183-8ec2-b67f4dee2c61.png</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Discover ultimate comfort with our Women's Casual Polyester Set. This stylish ensemble combines soft fabric with modern design, perfect for everyday wear. Versatile and chic, it's ideal for lounging or running errands. Embrace effortless elegance and make a fashion statement while enjoying the ease of this must-have clothing set. Upgrade your wardrobe today!</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>7</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>[['Navy Blue-S', 'CJTZ235008701AZ'], ['Navy Blue-M', 'CJTZ235008702BY'], ['Navy Blue-L', 'CJTZ235008703CX'], ['Navy Blue-XL', 'CJTZ235008704DW'], ['Navy Blue-2XL', 'CJTZ235008705EV'], ['Navy Blue-3XL', 'CJTZ235008706FU'], ['Orange-S', 'CJTZ235008707GT'], ['Orange-M', 'CJTZ235008708HS'], ['Orange-L', 'CJTZ235008709IR'], ['Orange-XL', 'CJTZ235008710JQ'], ['Orange-2XL', 'CJTZ235008711KP'], ['Orange-3XL', 'CJTZ235008712LO']]</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>465</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>CJTZ2350087</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>1910137814213382145</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>omh7kdilj4tdjg0cun1qnqwe</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Spring And Autumn Solid Color Simple Round Neck Long Sleeve Side Pocket High Waist Wide Leg Trousers Set</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/9e38a68c-19ed-4793-9a68-817745621289.png,https://cf.cjdropshipping.com/77725b49-e8ed-4645-a70a-10c8e376f73f.png,https://cf.cjdropshipping.com/275f2301-a45c-4526-9036-547610f9a248.png,https://cf.cjdropshipping.com/157c70cf-a27f-44ff-aa3a-75531709d3a6.png,https://cf.cjdropshipping.com/cb5609fe-d769-42f1-9404-bfa260971189.png</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Spring and Autumn Solid Color Set. Featuring a simple round neck, long sleeves, and high-waisted wide-leg trousers, this outfit combines comfort with sophistication. The added side pockets enhance practicality, making it perfect for any occasion. Step out confidently in this chic and versatile ensemble!</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>20</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJTZ234972201AZ'], ['Blue-M', 'CJTZ234972202BY'], ['Blue-L', 'CJTZ234972203CX'], ['Blue-XL', 'CJTZ234972204DW'], ['Blue-2XL', 'CJTZ234972205EV'], ['Blue-3XL', 'CJTZ234972206FU'], ['Black-S', 'CJTZ234972207GT'], ['Black-M', 'CJTZ234972208HS'], ['Black-L', 'CJTZ234972209IR'], ['Black-XL', 'CJTZ234972210JQ'], ['Black-2XL', 'CJTZ234972211KP'], ['Black-3XL', 'CJTZ234972212LO']]</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>621</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>CJTZ2349722</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>1909881693411061762</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>53fcgc5b0itc0ikizrsf6mxs</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Sheer Lace Long Sleeve Dress</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/fc4fc312-673c-4f84-9a9d-cb1c2dac6e08.jpg,https://cf.cjdropshipping.com/0f6bb06e-f6a8-478d-aa6a-d069291d527b.jpg,https://cf.cjdropshipping.com/e0507011-4c21-4d81-9691-37fe48b7d143.jpg,https://cf.cjdropshipping.com/4a2ffead-5945-4ed7-8b38-1782534921f3.jpg,https://cf.cjdropshipping.com/f88b8a4e-cacb-4876-8d88-a709e12da9db.jpg</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Make a statement in our Sheer Lace Long Sleeve Dress, where elegance meets allure. This stunning piece features delicate lace detailing and flowing fabric that drapes beautifully on any silhouette. Perfect for special occasions or evenings out, it radiates sophistication and charm. Embrace your femininity and turn heads effortlessly!</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>16</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>[['Black-XS', 'CJLY234980901AZ'], ['Black-S', 'CJLY234980902BY'], ['Black-M', 'CJLY234980903CX'], ['Black-L', 'CJLY234980904DW'], ['Black-XL', 'CJLY234980905EV']]</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>180</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>CJLY2349809</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>1909895066153824257</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>4k6p7124k7hena8udno55bli</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Women's Sleeveless V-Neck Tank Top With Geometric Print</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/381799d9-3b9a-4120-805e-7136e364e9c0.png,https://cf.cjdropshipping.com/90da96b0-daef-4380-9c68-ed56abd03eb9.png,https://cf.cjdropshipping.com/c35906de-9714-43d3-a019-60a6a2d6abdd.png,https://cf.cjdropshipping.com/c05d4854-4fee-4c0a-80e0-4f49653a1437.png,https://cf.cjdropshipping.com/08b7ca9c-2543-47c2-a0d2-ceaaacde5e16.png</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>27</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Discover the perfect blend of style and comfort with our Women's Sleeveless V-Neck Tank Top. Featuring a vibrant geometric print, this chic piece enhances your wardrobe and sets the tone for any occasion. Crafted with lightweight fabric for breathability, it keeps you looking fabulous while staying effortlessly cool. Embrace your unique flair today!</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Vests</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>40</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJWV234829801AZ'], ['Green-M', 'CJWV234829802BY'], ['Green-L', 'CJWV234829803CX'], ['Green-XL', 'CJWV234829804DW'], ['Green-2XL', 'CJWV234829805EV'], ['Green-3XL', 'CJWV234829806FU'], ['Pink-S', 'CJWV234829807GT'], ['Pink-M', 'CJWV234829808HS'], ['Pink-L', 'CJWV234829809IR'], ['Pink-XL', 'CJWV234829810JQ'], ['Pink-2XL', 'CJWV234829811KP'], ['Pink-3XL', 'CJWV234829812LO']]</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>280</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>CJWV2348298</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>1909420874407718913</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>vtyght9a5wm2o22zhjx3xhfm</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Women's Colorful Plaid Crop Tops Crew Neck Short Sleeved</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/8786182c-0914-4a67-9d97-e37f9d3bfa5a.png,https://cf.cjdropshipping.com/c083b812-523d-48a0-851f-663c2ff54a7a.png,https://cf.cjdropshipping.com/832761e9-f935-441d-9a5f-667d031f2a31.png,https://cf.cjdropshipping.com/e7a72af9-b702-4f69-967b-faade06c7ca7.png</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Discover the perfect blend of style and comfort with our Women's Colorful Plaid Crop Tops. Featuring a trendy crew neck and short sleeves, these vibrant tops are ideal for casual outings or layered looks. Embrace your unique fashion sense and make a bold statement wherever you go. Perfect for any occasion!</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Short-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>23</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>[['Style1-S', 'CJWS234879301AZ'], ['Style1-M', 'CJWS234879302BY'], ['Style1-L', 'CJWS234879303CX'], ['Style1-XL', 'CJWS234879304DW'], ['Style1-2XL', 'CJWS234879305EV'], ['Style1-3XL', 'CJWS234879306FU'], ['Style2-S', 'CJWS234879307GT'], ['Style2-M', 'CJWS234879308HS'], ['Style2-L', 'CJWS234879309IR'], ['Style2-XL', 'CJWS234879310JQ'], ['Style2-2XL', 'CJWS234879311KP'], ['Style2-3XL', 'CJWS234879312LO'], ['Style3-S', 'CJWS234879313MN'], ['Style3-M', 'CJWS234879314NM'], ['Style3-L', 'CJWS234879315OL'], ['Style3-XL', 'CJWS234879316PK'], ['Style3-2XL', 'CJWS234879317QJ'], ['Style3-3XL', 'CJWS234879318RI']]</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>330</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>CJWS2348793</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>1909520250807365633</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>8f0hbcshwfovocarra50jrpd</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Women's Rain Jacket Long Lightweight Hooded Windbreaker</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/17441568/1909881898818342912.jpg,https://cf.cjdropshipping.com/a2c3469c-9b33-4454-93ce-313a80d12985.png,https://cf.cjdropshipping.com/17441568/1909881903310442496.jpg,https://cf.cjdropshipping.com/2eae6b8a-3cc0-4d40-8e7f-5c1895dfa93f.png,https://cf.cjdropshipping.com/59b4064e-ec02-4232-9e0d-d10391baf6dd.png,https://cf.cjdropshipping.com/17441568/1909881903893450752.jpg</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Introducing our Women's Rain Jacket: a stylish, lightweight windbreaker perfect for unpredictable weather. Featuring a sleek hood for extra protection, this versatile piece is designed for comfort and functionality. Stay dry and fashionable while conquering the elements, whether you're running errands or exploring the great outdoors. Essential for your wardrobe!</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Blazers</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>18</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJQB234879701AZ'], ['Green-M', 'CJQB234879702BY'], ['Green-L', 'CJQB234879703CX'], ['Green-XL', 'CJQB234879704DW'], ['Green-2XL', 'CJQB234879705EV'], ['Green-3XL', 'CJQB234879706FU'], ['Grey-S', 'CJQB234879707GT'], ['Grey-M', 'CJQB234879708HS'], ['Grey-L', 'CJQB234879709IR'], ['Grey-XL', 'CJQB234879710JQ'], ['Grey-2XL', 'CJQB234879711KP'], ['Grey-3XL', 'CJQB234879712LO'], ['Black-S', 'CJQB234879713MN'], ['Black-M', 'CJQB234879714NM'], ['Black-L', 'CJQB234879715OL'], ['Black-XL', 'CJQB234879716PK'], ['Black-2XL', 'CJQB234879717QJ'], ['Black-3XL', 'CJQB234879718RI']]</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>390</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>CJQB2348797</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>1909521954988011522</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>0awchqihle42lw1rjjn131kg</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Women Casual Fashion Long Sleeve Letter Loose Knit Pullover Sweater</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/090ec150-35eb-4fd6-9f99-9139624c8dc3.png,https://cf.cjdropshipping.com/71b8a780-2371-4c70-abde-474bcfc751b7.png,https://cf.cjdropshipping.com/a597b6f2-7593-4ea1-8a7f-ce2b0724ee1c.png,https://cf.cjdropshipping.com/f483f047-92ad-499a-ae88-d5f7aec074d7.png,https://cf.cjdropshipping.com/644196a9-98ce-4a23-bc24-48a01acadb1e.png</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Stay stylish and comfy with our Women Casual Fashion Long Sleeve Letter Loose Knit Pullover Sweater. Crafted for ultimate relaxation, this sweater combines chic design with soft fabric. Perfect for layering or wearing solo, it effortlessly enhances any outfit. Embrace laid-back elegance and make a statement wherever you go!</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Long-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>32</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJWL234877301AZ'], ['White-M', 'CJWL234877302BY'], ['White-L', 'CJWL234877303CX'], ['White-XL', 'CJWL234877304DW'], ['White-2XL', 'CJWL234877305EV'], ['White-3XL', 'CJWL234877306FU'], ['Green-S', 'CJWL234877307GT'], ['Green-M', 'CJWL234877308HS'], ['Green-L', 'CJWL234877309IR'], ['Green-XL', 'CJWL234877310JQ'], ['Green-2XL', 'CJWL234877311KP'], ['Green-3XL', 'CJWL234877312LO']]</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>390</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>CJWL2348773</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>1909517740647821314</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>igrmsvo8jazihz2atow87owb</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Casual Daily Two-piece Set</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/b3ac3ce0-e2c3-47b3-a068-1716be70efe7.png,https://cf.cjdropshipping.com/0d1438a3-bdf8-41e8-9a19-1a4900f2fade.png,https://cf.cjdropshipping.com/bcaa728f-40c6-41c4-8258-7b6effba9bfd.png,https://cf.cjdropshipping.com/19488a81-350e-463a-b615-ac07128c1229.png,https://cf.cjdropshipping.com/011fdefa-a316-4d73-b4b6-01514fcf0392.png</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Effortlessly chic, our Casual Daily Two-piece Set is perfect for any occasion. Crafted from soft, breathable fabric, this stylish ensemble offers comfort and versatility. Dress it up or down for brunch, errands, or lounging. Experience the ultimate combination of fashion and ease, making it a must-have addition to your wardrobe!</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>50</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>[['Apricot-S', 'CJTZ234829101AZ'], ['Apricot-M', 'CJTZ234829102BY'], ['Apricot-L', 'CJTZ234829103CX'], ['Apricot-XL', 'CJTZ234829104DW'], ['Apricot-2XL', 'CJTZ234829105EV'], ['Apricot-3XL', 'CJTZ234829106FU'], ['Green-S', 'CJTZ234829107GT'], ['Green-M', 'CJTZ234829108HS'], ['Green-L', 'CJTZ234829109IR'], ['Green-XL', 'CJTZ234829110JQ'], ['Green-2XL', 'CJTZ234829111KP'], ['Green-3XL', 'CJTZ234829112LO']]</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>390</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>CJTZ2348291</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>1909419367139815425</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>oxkiqpf58b0f4tk7i5r2tpff</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Black And White Contrast Bow Sleeveless Dress</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/3e01a5fc-ad78-4f2e-b560-270153000a3e.jpg,https://cf.cjdropshipping.com/65d19fb8-92d7-43d5-8a08-aa00209e9a65.jpg,https://cf.cjdropshipping.com/32f44ce2-1708-4a6f-b3ed-92eb25f936e9.jpg,https://cf.cjdropshipping.com/8d761eed-9de9-408e-9370-6c3931a9fb3f.jpg,https://cf.cjdropshipping.com/b6239175-9629-4076-8ba5-6094bb79a32c.jpg,https://cf.cjdropshipping.com/6f770098-f526-41b7-821b-15fda3720b85.jpg,https://cf.cjdropshipping.com/70476c31-5efc-42d7-88d8-4bdba46f930e.jpg,https://cf.cjdropshipping.com/e720b949-88bf-4497-88d7-ba4abfc6b0a5.jpg</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Step out in style with our Black and White Contrast Bow Sleeveless Dress. This elegant piece features a stunning bow detail, perfect for any occasion. Embrace chic simplicity and make a statement, whether at a summer gathering or an evening event. Transform your wardrobe effortlessly with this timeless classic.</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>12</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>[['Black-XS', 'CJLY234710201AZ'], ['Black-S', 'CJLY234710202BY'], ['Black-M', 'CJLY234710203CX'], ['Black-L', 'CJLY234710204DW'], ['Black-XL', 'CJLY234710205EV']]</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>360</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>CJLY2347102</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>1908800001310912514</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>xb9yv32astinnbrfqg5xm763</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Solid Color Single Button Top And Pants Set</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/5a662bbc-a39a-4f46-bef3-8e3819956fa4.jpg,https://cf.cjdropshipping.com/9d6e7094-c02b-4238-8ef4-4118ad43373e.jpg,https://cf.cjdropshipping.com/dd948ed7-ebbb-4971-8e2f-d98ed3176deb.jpg,https://cf.cjdropshipping.com/32d01def-b5fb-4f44-a474-c4d970bc1d6d.jpg,https://cf.cjdropshipping.com/109a3783-f27e-4110-991d-f6f57f8e6944.jpg</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Solid Color Single Button Top and Pants Set. This chic ensemble offers a polished look, perfect for any occasion. Its comfortable fit and sleek design ensure you stand out while feeling great. Dress it up or down for versatility; your wardrobe deserves this timeless addition!</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>13</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>[['Picture color-XS', 'CJTZ234735301AZ'], ['Picture color-S', 'CJTZ234735302BY'], ['Picture color-M', 'CJTZ234735303CX'], ['Picture color-L', 'CJTZ234735304DW'], ['Picture color-XL', 'CJTZ234735305EV']]</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>580</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>CJTZ2347353</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>1908835831270273026</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>3inr3b7mkghojtq1i1h7mr1d</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Striped Pattern Batwing Sleeve Knit Top</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/51105570-02f5-4fe5-9500-76095cd71b00.png,https://cf.cjdropshipping.com/f79b8b19-589a-4e68-a7d7-3d39dbeed890.png,https://cf.cjdropshipping.com/fcf5986f-4273-43a5-a16c-6387cea157a6.png,https://cf.cjdropshipping.com/21a6d864-15d4-4154-9d66-6e646a2f1693.png</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Experience effortless style with our Striped Pattern Batwing Sleeve Knit Top. This chic, lightweight piece combines comfort and fashion, perfect for any casual outing. The elegant batwing design and trendy stripes create a flattering silhouette. Pair it with jeans or leggings for a stylish ensemble that turns heads wherever you go!</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Short-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>48</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>[['Apricot-S', 'CJWS234513401AZ'], ['Apricot-M', 'CJWS234513402BY'], ['Apricot-L', 'CJWS234513403CX'], ['Apricot-XL', 'CJWS234513404DW'], ['Apricot-2XL', 'CJWS234513405EV'], ['Apricot-3XL', 'CJWS234513406FU'], ['Black-S', 'CJWS234513407GT'], ['Black-M', 'CJWS234513408HS'], ['Black-L', 'CJWS234513409IR'], ['Black-XL', 'CJWS234513410JQ'], ['Black-2XL', 'CJWS234513411KP'], ['Black-3XL', 'CJWS234513412LO']]</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>330</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>CJWS2345134</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>1907994106858176513</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>wr2oy908rtgyqjjif492vx26</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Brown One Shoulder Paneled Satin Dress</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/70bc0728-dfe7-4b93-bf80-2bc03fedf2df.jpg,https://cf.cjdropshipping.com/b62cf6b5-0aa2-452f-a567-58b2a4af0872.jpg,https://cf.cjdropshipping.com/bbabfbc4-1b8e-4465-9f31-5cec73445efb.jpg,https://cf.cjdropshipping.com/9a1fee3f-3921-4911-b799-a1c7414a5c0a.jpg,https://cf.cjdropshipping.com/9e9c6751-8e3b-4d26-9f5e-a1ec94008e56.jpg</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Step into elegance with our Brown One Shoulder Paneled Satin Dress. Crafted from luxurious satin, this chic piece showcases a unique one-shoulder design that flatters your silhouette. Perfect for special occasions or a night out, its sophisticated appeal ensures you'll captivate attention wherever you go. Make a bold fashion statement today!</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>10</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>[['Brown-XS', 'CJLY234477901AZ'], ['Brown-S', 'CJLY234477902BY'], ['Brown-M', 'CJLY234477903CX'], ['Brown-L', 'CJLY234477904DW'], ['Brown-XL', 'CJLY234477905EV']]</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>410</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>CJLY2344779</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>1907722520884281345</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>sa0y7sqrnpcbbf64wgc8qh3d</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Plus Size Women's Elegant Sleeveless Blouse</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/13d2da0b-cb03-447f-9f11-1ade2ba07177.png,https://cf.cjdropshipping.com/d8e42c45-4716-4efe-9238-70ea95810a88.png,https://cf.cjdropshipping.com/6bf9c794-12cb-4f19-8202-e219f807b183.png,https://cf.cjdropshipping.com/b241a3a7-6818-4e56-80ca-aad2c21fa4d1.png,https://cf.cjdropshipping.com/f824461c-04f6-4b1d-ac7c-a546e927fecb.png</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>47</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Discover your new favorite wardrobe staple with our Plus Size Women's Elegant Sleeveless Blouse. Designed for comfort and style, this chic piece features a flattering silhouette that enhances your natural beauty. Perfect for any occasion, it offers versatility and grace. Elevate your everyday look with effortless sophistication and confidence!</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Vests</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>78</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJWV234425301AZ'], ['White-M', 'CJWV234425302BY'], ['White-L', 'CJWV234425303CX'], ['White-XL', 'CJWV234425304DW'], ['White-2XL', 'CJWV234425305EV'], ['White-3XL', 'CJWV234425306FU'], ['Grey-S', 'CJWV234425307GT'], ['Grey-M', 'CJWV234425308HS'], ['Grey-L', 'CJWV234425309IR'], ['Grey-XL', 'CJWV234425310JQ'], ['Grey-2XL', 'CJWV234425311KP'], ['Grey-3XL', 'CJWV234425312LO'], ['Blue-S', 'CJWV234425313MN'], ['Blue-M', 'CJWV234425314NM'], ['Blue-L', 'CJWV234425315OL'], ['Blue-XL', 'CJWV234425316PK'], ['Blue-2XL', 'CJWV234425317QJ'], ['Blue-3XL', 'CJWV234425318RI']]</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>330</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>CJWV2344253</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>1907604020171403265</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>0tedxkjlyyae18fqbaa9svil</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Women Sleeveless Textured Vest And Wide-Leg Button Front Pants Set</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/f7b0e3a2-dd83-474d-93ad-460749378fb7.jpg,https://cf.cjdropshipping.com/3d432029-5c38-46c3-87eb-5672bfa40eaf.jpg,https://cf.cjdropshipping.com/d0b8b198-ef0a-4169-9118-9afe754f3c94.jpg,https://cf.cjdropshipping.com/b3bf3b7b-7a15-4da6-9a70-3fb73c030a98.jpg,https://cf.cjdropshipping.com/4d4b1a2e-c802-4032-ad0f-9d52fe5438e1.jpg</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Women Sleeveless Textured Vest and Wide-Leg Button Front Pants Set. This chic ensemble offers a relaxed fit, perfect for any occasion. The trendy texture and sophisticated silhouette ensure you stand out while remaining comfortable. Update your wardrobe with this must-have outfit for an instant fashion boost!</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>28</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>[['Khaki-S', 'CJTZ234405101AZ'], ['Khaki-M', 'CJTZ234405102BY'], ['Khaki-L', 'CJTZ234405103CX'], ['Khaki-XL', 'CJTZ234405104DW'], ['Khaki-2XL', 'CJTZ234405105EV'], ['Khaki-3XL', 'CJTZ234405106FU'], ['Black-S', 'CJTZ234405107GT'], ['Black-M', 'CJTZ234405108HS'], ['Black-L', 'CJTZ234405109IR'], ['Black-XL', 'CJTZ234405110JQ'], ['Black-2XL', 'CJTZ234405111KP'], ['Black-3XL', 'CJTZ234405112LO']]</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>400</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>CJTZ2344051</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>1907374371957915650</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>k4ytqsn0sz23rh90apa6kxg0</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>V-Neck Floral Print Short Sleeve Bubble Sleeve A-Line Dress</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/9dbe4ae3-a680-4dee-97e3-6d583dd2d254.png,https://cf.cjdropshipping.com/a7ac2d13-7f81-4271-8969-b449f76d03db.png,https://cf.cjdropshipping.com/a45a8739-82a2-4227-ad6a-7b7163c9c1a2.png,https://cf.cjdropshipping.com/92cb93b6-d70c-44be-b356-915588e64e61.png,https://cf.cjdropshipping.com/70e67893-5ff3-4b12-a576-b81146b108dc.png</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>40</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Step into elegance with our V-Neck Floral Print Short Sleeve Bubble Sleeve A-Line Dress. This enchanting piece features a charming floral design, flattering fit, and playful bubble sleeves. Perfect for any occasion, it combines comfort and style effortlessly, making it an essential addition to your wardrobe. Embrace your femininity today!</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>38</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLY234330101AZ'], ['Blue-M', 'CJLY234330102BY'], ['Blue-L', 'CJLY234330103CX'], ['Blue-XL', 'CJLY234330104DW'], ['Blue-2XL', 'CJLY234330105EV'], ['Blue-3XL', 'CJLY234330106FU'], ['Red-S', 'CJLY234330107GT'], ['Red-M', 'CJLY234330108HS'], ['Red-L', 'CJLY234330109IR'], ['Red-XL', 'CJLY234330110JQ'], ['Red-2XL', 'CJLY234330111KP'], ['Red-3XL', 'CJLY234330112LO']]</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>390</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>CJLY2343301</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>1907250228077690882</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>fldj1tzdw4zzkuam8hyprvf5</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Women's Minimalist Asymmetrical Printed Spaghetti Strap Dress For Daily Wear Maxi Vacation Beach Outfit</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/e06e27e1-6bc2-4ba1-9cb1-35743fa60d75.jpg,https://cf.cjdropshipping.com/20caf8f1-ac33-4eda-af66-aede66c1796e.jpg,https://cf.cjdropshipping.com/f82a6ac5-21f1-4d0b-bd47-f1f17595ded5.jpg,https://cf.cjdropshipping.com/7427a35e-c669-43b4-a3df-5015531c7a96.jpg,https://cf.cjdropshipping.com/79ba58c3-05db-45c2-b72d-e17b63acb736.jpg</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Step into effortless style with our Women's Minimalist Asymmetrical Printed Spaghetti Strap Dress. Perfect for daily outings or beach vacations, this maxi dress flaunts a chic design and an inviting silhouette. Lightweight and comfortable, it’s your go-to outfit for sun-soaked days and evening strolls. Embrace versatility and make a statement!</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>31</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>[['Yellow-S', 'CJLY234326801AZ'], ['Yellow-M', 'CJLY234326802BY'], ['Yellow-L', 'CJLY234326803CX'], ['Yellow-XL', 'CJLY234326804DW'], ['Yellow-2XL', 'CJLY234326805EV'], ['Yellow-3XL', 'CJLY234326806FU'], ['Pink-S', 'CJLY234326807GT'], ['Pink-M', 'CJLY234326808HS'], ['Pink-L', 'CJLY234326809IR'], ['Pink-XL', 'CJLY234326810JQ'], ['Pink-2XL', 'CJLY234326811KP'], ['Pink-3XL', 'CJLY234326812LO']]</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>400</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>CJLY2343268</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>1907242912653266946</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>sqjmkjqktghg0gtx3sbkr5bc</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Solid Notched V-Neck Sleeveless Button Back Shirt</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/59947c18-a41f-4587-9a78-d7497cf96b82.jpg,https://cf.cjdropshipping.com/ec611fb0-fd87-417f-859f-04ef78eb7109.jpg,https://cf.cjdropshipping.com/0b7a8f2d-5f06-46ef-8ad2-a108713f2c7e.jpg,https://cf.cjdropshipping.com/e6ccbfc5-0aef-4058-b0b9-2bb400267c17.jpg,https://cf.cjdropshipping.com/ab87dad9-bdef-4d0f-a756-de07ecc0af19.jpg</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>27</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Discover effortless style with the Solid Notched V-Neck Sleeveless Button Back Shirt. Crafted for comfort, this versatile piece features a chic notched neckline and a playful button detail at the back. Perfect for layering or wearing solo, it’s a must-have addition to any wardrobe for casual or polished looks.</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Short-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>14</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>[['Khaki-S', 'CJWS234242401AZ'], ['Khaki-M', 'CJWS234242402BY'], ['Khaki-L', 'CJWS234242403CX'], ['Khaki-XL', 'CJWS234242404DW'], ['Khaki-2XL', 'CJWS234242405EV'], ['Khaki-3XL', 'CJWS234242406FU'], ['Dark Blue-S', 'CJWS234242407GT'], ['Dark Blue-M', 'CJWS234242408HS'], ['Dark Blue-L', 'CJWS234242409IR'], ['Dark Blue-XL', 'CJWS234242410JQ'], ['Dark Blue-2XL', 'CJWS234242411KP'], ['Dark Blue-3XL', 'CJWS234242412LO']]</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>400</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>CJWS2342424</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>1906885880754896898</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>5ltbdharz38gz3mtaotxkg3v</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Women's Summer Hawaiian Style Ruffle Sleeve Paisley Print Casual Shirt</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/39528c48-7a59-4f42-b831-a7204ee66e82.jpg,https://cf.cjdropshipping.com/da012669-fcc3-4909-a89b-f9087ffccbcb.jpg,https://cf.cjdropshipping.com/713d67ba-1ccf-4450-ab23-d58ec53dfa28.jpg,https://cf.cjdropshipping.com/9047094d-544d-499e-bbb5-33c43782c7e8.jpg,https://cf.cjdropshipping.com/3eed9098-692f-4bda-b465-55e5b9196b3a.jpg</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Embrace summer vibes with our Women's Hawaiian Style Ruffle Sleeve Paisley Print Casual Shirt. Crafted for comfort and style, this vibrant top features playful ruffles and a charming paisley design. Perfect for beach outings or casual gatherings, it adds a touch of fun to your wardrobe. Experience effortless chic!</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Short-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>31</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>[['Multicolor-S', 'CJWS234241101AZ'], ['Multicolor-M', 'CJWS234241102BY'], ['Multicolor-L', 'CJWS234241103CX'], ['Multicolor-XL', 'CJWS234241104DW'], ['Green-S', 'CJWS234241105EV'], ['Green-M', 'CJWS234241106FU'], ['Green-L', 'CJWS234241107GT'], ['Green-XL', 'CJWS234241108HS']]</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>360</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>CJWS2342411</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>1906881623892447233</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>11kqxcjcqc7mlt24gd5ybqfa</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Women'S A-Line Waist Belted Dress Casual Dress Summer</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/6c072494-64ad-4257-ab7f-976ca390ca40.jpg,https://cf.cjdropshipping.com/be7b8481-d61f-4899-befa-ec208ff18a78.jpg,https://cf.cjdropshipping.com/98e62694-1885-4d3c-a309-30bf4d41682d.jpg,https://cf.cjdropshipping.com/bef467d8-c80e-4c47-9b2e-0825e71f4346.jpg,https://cf.cjdropshipping.com/49fd5559-9ca6-41b3-8af9-dba5368a9e60.jpg</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>36</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with our Women's A-Line Waist Belted Dress. Perfect for summer outings, this casual dress features a flattering silhouette and a chic belt to accentuate your figure. Soft, breathable fabric ensures comfort all day long. Dress it up or down for versatile looks that easily transition from day to night.</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>47</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJLY234269901AZ'], ['Green-M', 'CJLY234269902BY'], ['Green-L', 'CJLY234269903CX'], ['Green-XL', 'CJLY234269904DW'], ['Green-2XL', 'CJLY234269905EV'], ['Green-3XL', 'CJLY234269906FU'], ['Blue-S', 'CJLY234269907GT'], ['Blue-M', 'CJLY234269908HS'], ['Blue-L', 'CJLY234269909IR'], ['Blue-XL', 'CJLY234269910JQ'], ['Blue-2XL', 'CJLY234269911KP'], ['Blue-3XL', 'CJLY234269912LO']]</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>400</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>CJLY2342699</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>1906948142656028673</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>nz8kq2xuae0kdwba8c1wi31p</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Women Elegant Sleeveless Dress For Spring &amp; Summer</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/b410456d-5a98-4ea8-95c0-8de3916b8505.png,https://cf.cjdropshipping.com/ffa26ad5-7176-4845-aed2-b110c81484de.png,https://cf.cjdropshipping.com/0c069dd1-6de9-4940-b9c0-7146c40325d5.png,https://cf.cjdropshipping.com/ed687043-cf46-4ca0-a857-6d814109a9b9.png,https://cf.cjdropshipping.com/10323658-a111-4ec2-8ec7-3de4527282bb.png</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Step into spring and summer with style in our Women Elegant Sleeveless Dress. Perfect for sunny days, this chic piece features a flattering silhouette, breathable fabric, and timeless design. Add a touch of sophistication to your wardrobe and make every occasion special with this must-have dress that exudes grace and charm.</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>28</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJLY234274001AZ'], ['Black-M', 'CJLY234274002BY'], ['Black-L', 'CJLY234274003CX'], ['Black-XL', 'CJLY234274004DW'], ['Black-2XL', 'CJLY234274005EV'], ['Black-3XL', 'CJLY234274006FU'], ['Blue-S', 'CJLY234274007GT'], ['Blue-M', 'CJLY234274008HS'], ['Blue-L', 'CJLY234274009IR'], ['Blue-XL', 'CJLY234274010JQ'], ['Blue-2XL', 'CJLY234274011KP'], ['Blue-3XL', 'CJLY234274012LO']]</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>390</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>CJLY2342740</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>1906955560475185153</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ulqe3u7v7n5lo1vliu33cmem</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Elastic Waist Wide Leg Pants Two Piece Set For Spring And Summer</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/39adee28-81ee-4765-81b5-e9dc9d53269b.jpg,https://cf.cjdropshipping.com/6803e4a1-8cc8-4383-abbd-4d070008e7ca.jpg,https://cf.cjdropshipping.com/a0e69037-30ad-4db7-9855-85feb4ae63b5.jpg,https://cf.cjdropshipping.com/eb997f0e-17ab-4de3-a7bb-e1a44384bc2c.jpg,https://cf.cjdropshipping.com/60ca21a2-d1b3-4f3e-83ee-610379d0aab6.jpg</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Experience ultimate comfort with our Elastic Waist Wide Leg Pants Two Piece Set, perfect for spring and summer. This stylish ensemble combines ease and elegance, featuring breathable fabric and a relaxed fit. Embrace effortless chic while staying cool and confident during warm days. Transform your wardrobe with this must-have outfit!</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>42</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJTZ234266301AZ'], ['Green-M', 'CJTZ234266302BY'], ['Green-L', 'CJTZ234266303CX'], ['Green-XL', 'CJTZ234266304DW'], ['Green-2XL', 'CJTZ234266305EV'], ['Green-3XL', 'CJTZ234266306FU'], ['Blue-S', 'CJTZ234266307GT'], ['Blue-M', 'CJTZ234266308HS'], ['Blue-L', 'CJTZ234266309IR'], ['Blue-XL', 'CJTZ234266310JQ'], ['Blue-2XL', 'CJTZ234266311KP'], ['Blue-3XL', 'CJTZ234266312LO']]</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>450</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>CJTZ2342663</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>1906941714172116994</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>sv3txg14rvg9plrpdp853eg0</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Floral Print Open Back Strap Maxi Dress</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/a267f155-636e-47f5-ba86-ca6c5daedb7c.jpg,https://cf.cjdropshipping.com/abdfc52b-30ea-45cd-b4b2-eff66bf8dc3d.jpg,https://cf.cjdropshipping.com/9a21e2f8-5875-42b4-b761-fd1f36f2cc58.jpg,https://cf.cjdropshipping.com/d57f7307-1520-48c1-b1a1-3c85b41144a8.jpg,https://cf.cjdropshipping.com/99859484-549d-4219-877d-217a98fef4b4.jpg</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Step into summer with our Floral Print Open Back Strap Maxi Dress. This enchanting piece features a vibrant floral design that exudes femininity and charm. The open back adds a touch of allure, while the flowing silhouette ensures comfort and style for any occasion. Perfect for garden parties or beach outings!</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>15</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>[['Floral-XS', 'CJLY234266501AZ'], ['Floral-S', 'CJLY234266502BY'], ['Floral-M', 'CJLY234266503CX'], ['Floral-L', 'CJLY234266504DW'], ['Floral-XL', 'CJLY234266505EV']]</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>580</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>CJLY2342665</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>1906942615145959425</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>plytny1hhxo9xzeyn6g6okis</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SHEIN EZwear Summer Solid Crop Halter Top</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/027533db-b220-458d-a1db-2055d3e9ff8a.png,https://cf.cjdropshipping.com/7b061358-26fa-48b9-b2b4-99091fef1ec4.jpg,https://cf.cjdropshipping.com/229d0750-61fa-4ab6-a1e8-a836dba601d9.png,https://cf.cjdropshipping.com/17434656/1906877300771917824.jpg,https://cf.cjdropshipping.com/c14c0726-ebf9-4ea6-a448-f6013dee2a95.jpg,https://cf.cjdropshipping.com/17434656/1906877304479682560.jpg,https://cf.cjdropshipping.com/17434656/1906877299480072192.jpg,https://cf.cjdropshipping.com/17434656/1906877300113412096.jpg,https://cf.cjdropshipping.com/a4208488-ad6d-4049-b528-e767900c2f41.jpg,https://cf.cjdropshipping.com/17434656/1906877302898429952.jpg,https://cf.cjdropshipping.com/9ca37d1d-97e2-4de1-bba4-abcca8e9ddd6.jpg</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>SHEIN EZwear Summer Solid Crop Halter Top is your go-to piece for effortless style. Featuring a chic crop silhouette and adjustable halter design, it ensures a perfect fit. Ideal for sunny days, pair it with your favorite shorts or skirts to achieve a trendy, laid-back look. Embrace summer vibes today!</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Vests</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>87</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWV234220101AZ'], ['Black-M', 'CJWV234220102BY'], ['Black-L', 'CJWV234220103CX'], ['Black-XL', 'CJWV234220104DW'], ['Blue-S', 'CJWV234220105EV'], ['Blue-M', 'CJWV234220106FU'], ['Blue-L', 'CJWV234220107GT'], ['Blue-XL', 'CJWV234220108HS'], ['Army Green-S', 'CJWV234220109IR'], ['Army Green-M', 'CJWV234220110JQ'], ['Army Green-L', 'CJWV234220111KP'], ['Army Green-XL', 'CJWV234220112LO'], ['Dark Grey-S', 'CJWV234220113MN'], ['Dark Grey-M', 'CJWV234220114NM'], ['Dark Grey-L', 'CJWV234220115OL'], ['Dark Grey-XL', 'CJWV234220116PK'], ['Brown-S', 'CJWV234220117QJ'], ['Brown-M', 'CJWV234220118RI'], ['Brown-L', 'CJWV234220119SH'], ['Brown-XL', 'CJWV234220120TG'], ['White-S', 'CJWV234220121UF'], ['White-M', 'CJWV234220122VE'], ['White-L', 'CJWV234220123WD'], ['White-XL', 'CJWV234220124XC']]</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>280</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>CJWV2342201</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>1906662523756892161</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>81hgfisym9zoabl17kmsshb6</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>V-Neck Sleeveless Women Simple Solid Color Casual Top</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/4c08ac5b-a14a-44b9-825b-123a2a79ea81.jpg,https://cf.cjdropshipping.com/791b83d0-22b0-4df8-9783-7633c31ccb9e.jpg,https://cf.cjdropshipping.com/85cb8add-03ca-4b82-8e7c-201f283b6d51.jpg,https://cf.cjdropshipping.com/07bbcfbf-f91a-43bc-8fa8-dbaa52a8c34f.jpg,https://oss-cf.cjdropshipping.com/product/2025/04/02/09/9636b8d4-f21c-4977-9be9-6b68cfea720e.jpg</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our V-Neck Sleeveless Women’s Casual Top. Crafted from comfortable fabric, its solid color design makes it versatile for any occasion. Dress it up or down for brunch, work, or evening outings. Perfect for layering or wearing alone, this top is a must-have addition to your wardrobe.</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Vests</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>94</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWV234223701AZ'], ['Black-M', 'CJWV234223702BY'], ['Black-L', 'CJWV234223703CX'], ['Black-XL', 'CJWV234223704DW'], ['Brown-S', 'CJWV234223705EV'], ['Brown-M', 'CJWV234223706FU'], ['Brown-L', 'CJWV234223707GT'], ['Brown-XL', 'CJWV234223708HS'], ['Grey-S', 'CJWV234223709IR'], ['Grey-M', 'CJWV234223710JQ'], ['Grey-L', 'CJWV234223711KP'], ['Grey-XL', 'CJWV234223712LO'], ['White-S', 'CJWV234223713MN'], ['White-M', 'CJWV234223714NM'], ['White-L', 'CJWV234223715OL'], ['White-XL', 'CJWV234223716PK'], ['Red-S', 'CJWV234223717QJ'], ['Red-M', 'CJWV234223718RI'], ['Red-L', 'CJWV234223719SH'], ['Red-XL', 'CJWV234223720TG']]</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>280</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>CJWV2342237</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>1906671787342843905</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>aau5unvl7ie1aev56m9hdw6h</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Summer Fashion Casual Short Sleeve Dress For Women</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/673d7754-21ff-4c95-bc8e-3b408d25c373.png,https://cf.cjdropshipping.com/d48dd9b4-e93c-4f89-8eca-a777be0efdd2.png,https://cf.cjdropshipping.com/b95f9c6f-a411-4b55-af63-21c7b0df56d5.png,https://cf.cjdropshipping.com/61419731-1503-4414-97e2-b25b36e07be8.png,https://cf.cjdropshipping.com/fbb43b06-1b0b-41cd-a22d-43c6b3eb19a1.png,https://cf.cjdropshipping.com/7997f2a4-6de9-45cc-b852-736ebd8e2763.png</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with our Summer Fashion Casual Short Sleeve Dress for Women. Designed for comfort and versatility, this dress features a flattering silhouette perfect for sunny days or casual outings. Pair it with sandals or sneakers for a chic look. Step out confidently and make every moment count!</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>37</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>[['Style1-S', 'CJLY234020501AZ'], ['Style1-M', 'CJLY234020502BY'], ['Style1-L', 'CJLY234020503CX'], ['Style1-XL', 'CJLY234020504DW'], ['Style1-2XL', 'CJLY234020505EV'], ['Style1-3XL', 'CJLY234020506FU'], ['Style2-S', 'CJLY234020507GT'], ['Style2-M', 'CJLY234020508HS'], ['Style2-L', 'CJLY234020509IR'], ['Style2-XL', 'CJLY234020510JQ'], ['Style2-2XL', 'CJLY234020511KP'], ['Style2-3XL', 'CJLY234020512LO']]</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>410</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>CJLY2340205</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>1905820075312828418</t>
         </is>
       </c>
     </row>

--- a/cj/catalog.xlsx
+++ b/cj/catalog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R184"/>
+  <dimension ref="A1:R269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7687,7 +7687,6 @@
       <c r="N92" t="n">
         <v>1</v>
       </c>
-      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>CJWL2376394</t>
@@ -7767,7 +7766,6 @@
       <c r="N93" t="n">
         <v>1</v>
       </c>
-      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
           <t>CJWL2372467</t>
@@ -7848,7 +7846,6 @@
       <c r="N94" t="n">
         <v>1</v>
       </c>
-      <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>CJNZ2372298</t>
@@ -7928,7 +7925,6 @@
       <c r="N95" t="n">
         <v>1</v>
       </c>
-      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>CJWL2370777</t>
@@ -8008,7 +8004,6 @@
       <c r="N96" t="n">
         <v>1</v>
       </c>
-      <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>CJWL2370748</t>
@@ -8088,7 +8083,6 @@
       <c r="N97" t="n">
         <v>1</v>
       </c>
-      <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>CJTZ2369215</t>
@@ -8168,7 +8162,6 @@
       <c r="N98" t="n">
         <v>1</v>
       </c>
-      <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>CJWL2369795</t>
@@ -8248,7 +8241,6 @@
       <c r="N99" t="n">
         <v>1</v>
       </c>
-      <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>CJLT2369800</t>
@@ -8328,7 +8320,6 @@
       <c r="N100" t="n">
         <v>1</v>
       </c>
-      <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>CJWL2369774</t>
@@ -8408,7 +8399,6 @@
       <c r="N101" t="n">
         <v>1</v>
       </c>
-      <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>CJWL2368883</t>
@@ -8488,7 +8478,6 @@
       <c r="N102" t="n">
         <v>1</v>
       </c>
-      <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>CJWL2368898</t>
@@ -8568,7 +8557,6 @@
       <c r="N103" t="n">
         <v>1</v>
       </c>
-      <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>CJWL2366389</t>
@@ -8648,7 +8636,6 @@
       <c r="N104" t="n">
         <v>1</v>
       </c>
-      <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>CJWL2366392</t>
@@ -8728,7 +8715,6 @@
       <c r="N105" t="n">
         <v>1</v>
       </c>
-      <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
           <t>CJLY2366387</t>
@@ -8808,7 +8794,6 @@
       <c r="N106" t="n">
         <v>1</v>
       </c>
-      <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
           <t>CJWL2365403</t>
@@ -8888,7 +8873,6 @@
       <c r="N107" t="n">
         <v>1</v>
       </c>
-      <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
           <t>CJLY2365480</t>
@@ -8968,7 +8952,6 @@
       <c r="N108" t="n">
         <v>1</v>
       </c>
-      <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
           <t>CJWL2365539</t>
@@ -9048,7 +9031,6 @@
       <c r="N109" t="n">
         <v>1</v>
       </c>
-      <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
           <t>CJWL2365412</t>
@@ -9128,7 +9110,6 @@
       <c r="N110" t="n">
         <v>1</v>
       </c>
-      <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>CJQB2365386</t>
@@ -9208,7 +9189,6 @@
       <c r="N111" t="n">
         <v>1</v>
       </c>
-      <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
           <t>CJWL2365417</t>
@@ -9288,7 +9268,6 @@
       <c r="N112" t="n">
         <v>1</v>
       </c>
-      <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>CJWL2364761</t>
@@ -9368,7 +9347,6 @@
       <c r="N113" t="n">
         <v>1</v>
       </c>
-      <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
           <t>CJWL2364744</t>
@@ -9448,7 +9426,6 @@
       <c r="N114" t="n">
         <v>1</v>
       </c>
-      <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>CJWL2364756</t>
@@ -9528,7 +9505,6 @@
       <c r="N115" t="n">
         <v>1</v>
       </c>
-      <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
           <t>CJWL2364750</t>
@@ -9608,7 +9584,6 @@
       <c r="N116" t="n">
         <v>1</v>
       </c>
-      <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
           <t>CJLT2364159</t>
@@ -9688,7 +9663,6 @@
       <c r="N117" t="n">
         <v>1</v>
       </c>
-      <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
           <t>CJWL2364738</t>
@@ -9768,7 +9742,6 @@
       <c r="N118" t="n">
         <v>1</v>
       </c>
-      <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
           <t>CJWL2364148</t>
@@ -9848,7 +9821,6 @@
       <c r="N119" t="n">
         <v>1</v>
       </c>
-      <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
           <t>CJTZ2364113</t>
@@ -9928,7 +9900,6 @@
       <c r="N120" t="n">
         <v>1</v>
       </c>
-      <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
           <t>CJWL2364749</t>
@@ -10008,7 +9979,6 @@
       <c r="N121" t="n">
         <v>1</v>
       </c>
-      <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
           <t>CJLY2364764</t>
@@ -10088,7 +10058,6 @@
       <c r="N122" t="n">
         <v>1</v>
       </c>
-      <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
           <t>CJLY2363624</t>
@@ -10168,7 +10137,6 @@
       <c r="N123" t="n">
         <v>1</v>
       </c>
-      <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
           <t>CJWC2363849</t>
@@ -10248,7 +10216,6 @@
       <c r="N124" t="n">
         <v>1</v>
       </c>
-      <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
           <t>CJWL2362708</t>
@@ -10328,7 +10295,6 @@
       <c r="N125" t="n">
         <v>1</v>
       </c>
-      <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
           <t>CJWL2361837</t>
@@ -10409,7 +10375,6 @@
       <c r="N126" t="n">
         <v>1</v>
       </c>
-      <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
           <t>CJQB2361764</t>
@@ -10489,7 +10454,6 @@
       <c r="N127" t="n">
         <v>1</v>
       </c>
-      <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
           <t>CJQB2361755</t>
@@ -10569,7 +10533,6 @@
       <c r="N128" t="n">
         <v>1</v>
       </c>
-      <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
           <t>CJWL2360968</t>
@@ -10649,7 +10612,6 @@
       <c r="N129" t="n">
         <v>1</v>
       </c>
-      <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
           <t>CJWL2360937</t>
@@ -10729,7 +10691,6 @@
       <c r="N130" t="n">
         <v>1</v>
       </c>
-      <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
           <t>CJJK2360979</t>
@@ -10809,7 +10770,6 @@
       <c r="N131" t="n">
         <v>1</v>
       </c>
-      <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
           <t>CJNZ2360864</t>
@@ -10889,7 +10849,6 @@
       <c r="N132" t="n">
         <v>1</v>
       </c>
-      <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
           <t>CJLY2360948</t>
@@ -10969,7 +10928,6 @@
       <c r="N133" t="n">
         <v>1</v>
       </c>
-      <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
           <t>CJLY2360136</t>
@@ -11049,7 +11007,6 @@
       <c r="N134" t="n">
         <v>1</v>
       </c>
-      <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>CJJK2360134</t>
@@ -11129,7 +11086,6 @@
       <c r="N135" t="n">
         <v>1</v>
       </c>
-      <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>CJTZ2358290</t>
@@ -11209,7 +11165,6 @@
       <c r="N136" t="n">
         <v>1</v>
       </c>
-      <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
           <t>CJCS2356934</t>
@@ -11289,7 +11244,6 @@
       <c r="N137" t="n">
         <v>1</v>
       </c>
-      <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
           <t>CJQZ2357071</t>
@@ -11369,7 +11323,6 @@
       <c r="N138" t="n">
         <v>1</v>
       </c>
-      <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
           <t>CJJK2356992</t>
@@ -11449,7 +11402,6 @@
       <c r="N139" t="n">
         <v>1</v>
       </c>
-      <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
           <t>CJJK2357082</t>
@@ -11529,7 +11481,6 @@
       <c r="N140" t="n">
         <v>1</v>
       </c>
-      <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
           <t>CJLY2355150</t>
@@ -11609,7 +11560,6 @@
       <c r="N141" t="n">
         <v>1</v>
       </c>
-      <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
           <t>CJJK2355054</t>
@@ -11689,7 +11639,6 @@
       <c r="N142" t="n">
         <v>1</v>
       </c>
-      <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>CJWL2355202</t>
@@ -11769,7 +11718,6 @@
       <c r="N143" t="n">
         <v>1</v>
       </c>
-      <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
           <t>CJWY2355120</t>
@@ -11849,7 +11797,6 @@
       <c r="N144" t="n">
         <v>1</v>
       </c>
-      <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
           <t>CJWL2355190</t>
@@ -11929,7 +11876,6 @@
       <c r="N145" t="n">
         <v>1</v>
       </c>
-      <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
           <t>CJWL2355159</t>
@@ -12009,7 +11955,6 @@
       <c r="N146" t="n">
         <v>1</v>
       </c>
-      <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
           <t>CJJK2355035</t>
@@ -12089,7 +12034,6 @@
       <c r="N147" t="n">
         <v>1</v>
       </c>
-      <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
           <t>CJJK2355491</t>
@@ -12169,7 +12113,6 @@
       <c r="N148" t="n">
         <v>1</v>
       </c>
-      <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
           <t>CJJK2355492</t>
@@ -12249,7 +12192,6 @@
       <c r="N149" t="n">
         <v>1</v>
       </c>
-      <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
           <t>CJWL2354336</t>
@@ -12329,7 +12271,6 @@
       <c r="N150" t="n">
         <v>1</v>
       </c>
-      <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
           <t>CJWL2354475</t>
@@ -12409,7 +12350,6 @@
       <c r="N151" t="n">
         <v>1</v>
       </c>
-      <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
           <t>CJCS2354297</t>
@@ -12489,7 +12429,6 @@
       <c r="N152" t="n">
         <v>1</v>
       </c>
-      <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
           <t>CJTZ2354372</t>
@@ -12569,7 +12508,6 @@
       <c r="N153" t="n">
         <v>1</v>
       </c>
-      <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
           <t>CJWL2354282</t>
@@ -12649,7 +12587,6 @@
       <c r="N154" t="n">
         <v>1</v>
       </c>
-      <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
           <t>CJWL2354478</t>
@@ -12729,7 +12666,6 @@
       <c r="N155" t="n">
         <v>1</v>
       </c>
-      <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
           <t>CJLY2351563</t>
@@ -12809,7 +12745,6 @@
       <c r="N156" t="n">
         <v>1</v>
       </c>
-      <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
           <t>CJLY2350764</t>
@@ -12889,7 +12824,6 @@
       <c r="N157" t="n">
         <v>1</v>
       </c>
-      <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
           <t>CJTZ2350693</t>
@@ -12969,7 +12903,6 @@
       <c r="N158" t="n">
         <v>1</v>
       </c>
-      <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
           <t>CJWL2350462</t>
@@ -13049,7 +12982,6 @@
       <c r="N159" t="n">
         <v>1</v>
       </c>
-      <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
           <t>CJTZ2350818</t>
@@ -13129,7 +13061,6 @@
       <c r="N160" t="n">
         <v>1</v>
       </c>
-      <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
         <is>
           <t>CJTZ2350087</t>
@@ -13209,7 +13140,6 @@
       <c r="N161" t="n">
         <v>1</v>
       </c>
-      <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
           <t>CJTZ2349722</t>
@@ -13289,7 +13219,6 @@
       <c r="N162" t="n">
         <v>1</v>
       </c>
-      <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
           <t>CJLY2349809</t>
@@ -13369,7 +13298,6 @@
       <c r="N163" t="n">
         <v>1</v>
       </c>
-      <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
           <t>CJWV2348298</t>
@@ -13449,7 +13377,6 @@
       <c r="N164" t="n">
         <v>1</v>
       </c>
-      <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
           <t>CJWS2348793</t>
@@ -13529,7 +13456,6 @@
       <c r="N165" t="n">
         <v>1</v>
       </c>
-      <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
           <t>CJQB2348797</t>
@@ -13609,7 +13535,6 @@
       <c r="N166" t="n">
         <v>1</v>
       </c>
-      <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr">
         <is>
           <t>CJWL2348773</t>
@@ -13689,7 +13614,6 @@
       <c r="N167" t="n">
         <v>1</v>
       </c>
-      <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
           <t>CJTZ2348291</t>
@@ -13769,7 +13693,6 @@
       <c r="N168" t="n">
         <v>1</v>
       </c>
-      <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
           <t>CJLY2347102</t>
@@ -13849,7 +13772,6 @@
       <c r="N169" t="n">
         <v>1</v>
       </c>
-      <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
           <t>CJTZ2347353</t>
@@ -13929,7 +13851,6 @@
       <c r="N170" t="n">
         <v>1</v>
       </c>
-      <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
           <t>CJWS2345134</t>
@@ -14009,7 +13930,6 @@
       <c r="N171" t="n">
         <v>1</v>
       </c>
-      <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
           <t>CJLY2344779</t>
@@ -14089,7 +14009,6 @@
       <c r="N172" t="n">
         <v>1</v>
       </c>
-      <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
           <t>CJWV2344253</t>
@@ -14169,7 +14088,6 @@
       <c r="N173" t="n">
         <v>1</v>
       </c>
-      <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
           <t>CJTZ2344051</t>
@@ -14249,7 +14167,6 @@
       <c r="N174" t="n">
         <v>1</v>
       </c>
-      <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
           <t>CJLY2343301</t>
@@ -14329,7 +14246,6 @@
       <c r="N175" t="n">
         <v>1</v>
       </c>
-      <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
           <t>CJLY2343268</t>
@@ -14409,7 +14325,6 @@
       <c r="N176" t="n">
         <v>1</v>
       </c>
-      <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
           <t>CJWS2342424</t>
@@ -14489,7 +14404,6 @@
       <c r="N177" t="n">
         <v>1</v>
       </c>
-      <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
           <t>CJWS2342411</t>
@@ -14569,7 +14483,6 @@
       <c r="N178" t="n">
         <v>1</v>
       </c>
-      <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
         <is>
           <t>CJLY2342699</t>
@@ -14649,7 +14562,6 @@
       <c r="N179" t="n">
         <v>1</v>
       </c>
-      <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr">
         <is>
           <t>CJLY2342740</t>
@@ -14729,7 +14641,6 @@
       <c r="N180" t="n">
         <v>1</v>
       </c>
-      <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
           <t>CJTZ2342663</t>
@@ -14809,7 +14720,6 @@
       <c r="N181" t="n">
         <v>1</v>
       </c>
-      <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr">
         <is>
           <t>CJLY2342665</t>
@@ -14889,7 +14799,6 @@
       <c r="N182" t="n">
         <v>1</v>
       </c>
-      <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
           <t>CJWV2342201</t>
@@ -14969,7 +14878,6 @@
       <c r="N183" t="n">
         <v>1</v>
       </c>
-      <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
           <t>CJWV2342237</t>
@@ -15049,7 +14957,6 @@
       <c r="N184" t="n">
         <v>1</v>
       </c>
-      <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr">
         <is>
           <t>CJLY2340205</t>
@@ -15063,6 +14970,6807 @@
       <c r="R184" t="inlineStr">
         <is>
           <t>1905820075312828418</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>v7pahva3mpj6l3ld5tmbr9xq</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Women's Autumn Winter Fashionable Versatile Commuter Floral Print Shirt Dress</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/1d413eed-7e5b-43e1-a176-4fd3ac3d6001.png,https://cf.cjdropshipping.com/75445744-6399-4c56-8c44-90d47272446c.png,https://cf.cjdropshipping.com/46fff36d-c560-48d9-b4a1-95352e894716.png,https://cf.cjdropshipping.com/3c16375e-62be-4b01-a908-ba2c38ca9580.png,https://cf.cjdropshipping.com/1c86ecd9-a8cc-41d3-b89a-fac3d3b24301.png</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Step into style with the Women's Autumn Winter Fashionable Versatile Commuter Floral Print Shirt Dress. This chic piece combines comfort and elegance, featuring a vibrant floral pattern. Perfect for daily wear or special occasions, it offers easy versatility. Embrace warmth and sophistication this season while making a lasting impression.</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>34</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJLY233949701AZ'], ['White-M', 'CJLY233949702BY'], ['White-L', 'CJLY233949703CX'], ['White-XL', 'CJLY233949704DW'], ['White-2XL', 'CJLY233949705EV'], ['White-3XL', 'CJLY233949706FU'], ['Black-S', 'CJLY233949707GT'], ['Black-M', 'CJLY233949708HS'], ['Black-L', 'CJLY233949709IR'], ['Black-XL', 'CJLY233949710JQ'], ['Black-2XL', 'CJLY233949711KP'], ['Black-3XL', 'CJLY233949712LO']]</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>390</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>CJLY2339497</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>1905517483143884802</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>dxxobtfzzrwkr58o0m48ifll</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Solid Color Halter Top For Women</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/abd9f2bf-8784-48da-84a7-a8b15c9aec34.png,https://cf.cjdropshipping.com/551cf4d0-6b19-45ae-af18-dc526795121c.png,https://cf.cjdropshipping.com/bc166bc2-05f9-4109-aee0-f28079fb527c.png,https://cf.cjdropshipping.com/3cf2ee41-28e6-46b0-abd0-ab620390d54f.png,https://cf.cjdropshipping.com/2fe68dd4-c9f3-4ac2-8caa-d1201bf87c50.png</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Discover elegance with our Solid Color Halter Top for Women. This stylish piece offers a flattering fit and versatile appeal, perfect for casual outings or special occasions. Crafted with comfort in mind, it pairs effortlessly with jeans, skirts, or shorts. Embrace chic simplicity and enhance your wardrobe with this essential top!</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Camis</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>62</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWC233881801AZ'], ['Black-M', 'CJWC233881802BY'], ['Black-L', 'CJWC233881803CX'], ['Black-XL', 'CJWC233881804DW'], ['Blue-S', 'CJWC233881805EV'], ['Blue-M', 'CJWC233881806FU'], ['Blue-L', 'CJWC233881807GT'], ['Blue-XL', 'CJWC233881808HS'], ['Brown-S', 'CJWC233881809IR'], ['Brown-M', 'CJWC233881810JQ'], ['Brown-L', 'CJWC233881811KP'], ['Brown-XL', 'CJWC233881812LO'], ['Grey-S', 'CJWC233881813MN'], ['Grey-M', 'CJWC233881814NM'], ['Grey-L', 'CJWC233881815OL'], ['Grey-XL', 'CJWC233881816PK'], ['White-S', 'CJWC233881817QJ'], ['White-M', 'CJWC233881818RI'], ['White-L', 'CJWC233881819SH'], ['White-XL', 'CJWC233881820TG']]</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>270</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>CJWC2338818</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>1905196746237816834</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>fcly6aj33to81u48b99orrz2</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Solid Color Tank Top For Women</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/3cde8bf6-24d5-4fa4-b44d-f5774f604351.png,https://cf.cjdropshipping.com/616c5d89-65fa-496d-ba85-089265170d0d.png,https://cf.cjdropshipping.com/1b44dc40-58fc-4c0f-8b3d-ccf94d614241.png,https://cf.cjdropshipping.com/9c652908-fb80-45ac-9690-1a7a5f7050d2.png,https://cf.cjdropshipping.com/3aa441cf-6a2d-43cc-a1ed-efff56521451.png,https://cf.cjdropshipping.com/07faf31a-49f8-435a-97f5-bcd07f254f29.png</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Introducing our Solid Color Tank Top for Women, a versatile wardrobe staple perfect for any occasion. Crafted from soft, breathable fabric, this tank top ensures all-day comfort while effortlessly enhancing your style. Its classic design pairs seamlessly with jeans, skirts, or shorts, making it a must-have addition to your collection!</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Vests</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>129</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJWV233880401AZ'], ['Black-M', 'CJWV233880402BY'], ['Black-L', 'CJWV233880403CX'], ['Black-XL', 'CJWV233880404DW'], ['Brown-S', 'CJWV233880405EV'], ['Brown-M', 'CJWV233880406FU'], ['Brown-L', 'CJWV233880407GT'], ['Brown-XL', 'CJWV233880408HS'], ['Blue-S', 'CJWV233880409IR'], ['Blue-M', 'CJWV233880410JQ'], ['Blue-L', 'CJWV233880411KP'], ['Blue-XL', 'CJWV233880412LO'], ['Grey-S', 'CJWV233880413MN'], ['Grey-M', 'CJWV233880414NM'], ['Grey-L', 'CJWV233880415OL'], ['Grey-XL', 'CJWV233880416PK'], ['White-S', 'CJWV233880417QJ'], ['White-M', 'CJWV233880418RI'], ['White-L', 'CJWV233880419SH'], ['White-XL', 'CJWV233880420TG']]</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>270</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>CJWV2338804</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>1905194250902458369</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>haukpnpv09g9wb91hs36faxa</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Solid Color Keyhole Neck Tank Dress</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/eb08a565-0d80-44dc-aa39-532da98b9bde.png,https://cf.cjdropshipping.com/be9536d6-b4d9-464b-a902-05ab26f5ceb2.png,https://cf.cjdropshipping.com/57f56a3b-9d44-4dcf-9fff-57d45dd7ae5f.png,https://cf.cjdropshipping.com/928e55ea-c68c-4e1f-82ce-5178123e6ca5.png,https://cf.cjdropshipping.com/a4a781ef-00ad-4b52-8e13-4e832b57efac.png</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Solid Color Keyhole Neck Tank Dress. Featuring a chic keyhole design and a flattering fit, this dress is perfect for any occasion. Pair it with sandals or heels for a versatile look. Enhance your wardrobe with this essential piece, blending comfort and elegance seamlessly.</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>36</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>[['Navy Blue-S', 'CJLY233752501AZ'], ['Navy Blue-M', 'CJLY233752502BY'], ['Navy Blue-L', 'CJLY233752503CX'], ['Navy Blue-XL', 'CJLY233752504DW'], ['Navy Blue-2XL', 'CJLY233752505EV'], ['Navy Blue-3XL', 'CJLY233752506FU'], ['Black-S', 'CJLY233752507GT'], ['Black-M', 'CJLY233752508HS'], ['Black-L', 'CJLY233752509IR'], ['Black-XL', 'CJLY233752510JQ'], ['Black-2XL', 'CJLY233752511KP'], ['Black-3XL', 'CJLY233752512LO']]</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>330</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>CJLY2337525</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>1904779182910910466</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>4ayzmsu2he6st7hs4s8hkoom</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Pocket Minimalist Flower Printed Shorts With Pockets Shorts Inside Out Back To School Outfits</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/0f1548f9-1356-4514-9076-c72a66b93b23.jpg,https://cf.cjdropshipping.com/349d4143-e7b4-494a-9474-7f7109a39bf6.jpg,https://cf.cjdropshipping.com/19b2132f-f1e5-4d76-bfde-f342f4008557.jpg,https://cf.cjdropshipping.com/bf1f781d-2223-4adf-8791-1fdec5ec0b40.jpg,https://cf.cjdropshipping.com/b88a61b1-2b0a-4c8f-9e5b-5c55cfc654c1.jpg</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Pocket Minimalist Flower Printed Shorts. Designed for comfort, these chic shorts feature practical pockets and a trendy floral print. Perfect for back-to-school outfits or casual outings, they combine functionality with a touch of elegance. Step into the new season with confidence and flair!</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Bottoms,Woman Shorts</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>48</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJDK233750601AZ'], ['Black-M', 'CJDK233750602BY'], ['Black-L', 'CJDK233750603CX'], ['Black-XL', 'CJDK233750604DW'], ['Black-2XL', 'CJDK233750605EV'], ['Black-3XL', 'CJDK233750606FU'], ['Grey-S', 'CJDK233750607GT'], ['Grey-M', 'CJDK233750608HS'], ['Grey-L', 'CJDK233750609IR'], ['Grey-XL', 'CJDK233750610JQ'], ['Grey-2XL', 'CJDK233750611KP'], ['Grey-3XL', 'CJDK233750612LO'], ['Khaki-S', 'CJDK233750613MN'], ['Khaki-M', 'CJDK233750614NM'], ['Khaki-L', 'CJDK233750615OL'], ['Khaki-XL', 'CJDK233750616PK'], ['Khaki-2XL', 'CJDK233750617QJ'], ['Khaki-3XL', 'CJDK233750618RI']]</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>360</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>CJDK2337506</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>1904778093897625601</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>75399aw7st450uz7xxpmd0sp</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Sleeveless Paneled Zipper Denim Jumpsuit</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/91e3903b-e3e6-4a9d-a968-fc7d42afc8e3.JPG,https://cf.cjdropshipping.com/a738e736-a365-464e-868a-133266882770.JPG,https://cf.cjdropshipping.com/0cf71699-cb65-458f-ac5a-94463949dd89.JPG,https://cf.cjdropshipping.com/a3f276cc-a6fc-4318-aac6-7d8aad685858.jpg,https://cf.cjdropshipping.com/065f3c57-30fb-4dbd-b1d1-5e2d5865ee2a.JPG,https://cf.cjdropshipping.com/f473a762-75f7-4feb-a506-2a19e50a6571.JPG</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Introducing the Sleeveless Paneled Zipper Denim Jumpsuit, a trend-setting essential for your wardrobe. Crafted for comfort and style, its unique panel design offers a flattering silhouette while the convenient zipper adds a modern twist. Perfect for casual outings or chic gatherings, this jumpsuit guarantees you’ll stand out effortlessly!</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Bottoms,Woman Jeans</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>155</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>[['Blue-XS', 'CJNZ233773301AZ'], ['Blue-S', 'CJNZ233773302BY'], ['Blue-M', 'CJNZ233773303CX'], ['Blue-L', 'CJNZ233773304DW'], ['Blue-XL', 'CJNZ233773305EV']]</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>732</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>CJNZ2337733</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>1904815084354768898</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>mz6dw48xowoxsbm7fg1nwv3k</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Solid Color Dress For Women</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/fd47093c-7897-4b01-bce4-3f266c928801.jpg,https://cf.cjdropshipping.com/2c8722ea-f960-49a9-97d6-57c650d78d46.jpg,https://cf.cjdropshipping.com/d13c08f5-7300-4dad-b544-e9a86f5b8414.jpg,https://cf.cjdropshipping.com/72af50be-9169-4074-a50e-3e53d9170f81.jpg</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Introducing the Solid Color Dress for Women, a perfect blend of style and comfort. This versatile piece features a flattering design that enhances your silhouette, making it ideal for any occasion. Available in various radiant shades, it effortlessly transitions from day to night, ensuring you always look chic and confident.</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>44</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJLY233742701AZ'], ['White-M', 'CJLY233742702BY'], ['White-L', 'CJLY233742703CX'], ['White-XL', 'CJLY233742704DW'], ['White-2XL', 'CJLY233742705EV'], ['Black-S', 'CJLY233742706FU'], ['Black-M', 'CJLY233742707GT'], ['Black-L', 'CJLY233742708HS'], ['Black-XL', 'CJLY233742709IR'], ['Black-2XL', 'CJLY233742710JQ'], ['Apricot-S', 'CJLY233742711KP'], ['Apricot-M', 'CJLY233742712LO'], ['Apricot-L', 'CJLY233742713MN'], ['Apricot-XL', 'CJLY233742714NM'], ['Apricot-2XL', 'CJLY233742715OL'], ['Green-S', 'CJLY233742716PK'], ['Green-M', 'CJLY233742717QJ'], ['Green-L', 'CJLY233742718RI'], ['Green-XL', 'CJLY233742719SH'], ['Green-2XL', 'CJLY233742720TG']]</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>320</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>CJLY2337427</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>1904761965741780993</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>01bokhaul33skcszs1lxtgjc</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Fashionable And Casual Women's Short Sleeved Dress</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/3488ddeb-464d-4841-afc7-6e69e2fa0610.png,https://cf.cjdropshipping.com/e79d6157-f821-4a88-8b88-a9754a76b1d3.png,https://cf.cjdropshipping.com/1b04fd1f-112b-427d-b5d8-1a1e53d0a621.png,https://cf.cjdropshipping.com/43e6ede2-0643-49d1-b5f5-63b74e7f731b.png,https://cf.cjdropshipping.com/1ffafc9d-b728-445e-ac97-710cbaf8d8e0.png,https://cf.cjdropshipping.com/8be092e2-eb2e-42a9-a77a-66d42f8642a8.png,https://cf.cjdropshipping.com/6654a2a0-9305-431d-8cf6-42b2914f3a82.png</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Upgrade your wardrobe with this Fashionable and Casual Women's Short Sleeved Dress. Perfect for any occasion, its versatile design blends comfort and style effortlessly. Enjoy the lightweight fabric that flatters your silhouette, making you look chic and feel confident. Embrace everyday elegance with this must-have dress! Ideal for warm days.</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>26</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJLY233703401AZ'], ['Green-M', 'CJLY233703402BY'], ['Green-L', 'CJLY233703403CX'], ['Green-XL', 'CJLY233703404DW'], ['Green-2XL', 'CJLY233703405EV'], ['Green-3XL', 'CJLY233703406FU'], ['Brown-S', 'CJLY233703407GT'], ['Brown-M', 'CJLY233703408HS'], ['Brown-L', 'CJLY233703409IR'], ['Brown-XL', 'CJLY233703410JQ'], ['Brown-2XL', 'CJLY233703411KP'], ['Brown-3XL', 'CJLY233703412LO']]</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>410</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>CJLY2337034</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>1904465886917419010</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2iw8u2b6k1b337v7bzi5xv3a</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Summer Casual Floral Short Sleeve Holiday Suit</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/dc2bd98b-13be-4a7a-9c0d-ffcb41c66ba3.png,https://cf.cjdropshipping.com/c449647a-eeb7-43f1-ab2a-ae93a880d3df.png,https://cf.cjdropshipping.com/be8df7ec-f42f-40cd-b603-927c19ab282d.png,https://cf.cjdropshipping.com/77e3cda3-8229-4829-963a-9391e5602493.png,https://cf.cjdropshipping.com/b3920afb-485a-4b7d-9aad-c033b9f5df11.png,https://cf.cjdropshipping.com/ce2b1b80-8648-4b16-a886-d27354884367.png,https://cf.cjdropshipping.com/ca075311-6f13-4177-9680-4b3479103dca.png,https://cf.cjdropshipping.com/78f757d6-b855-4bfd-81ca-b38e35d95c5d.png</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Introducing the Summer Casual Floral Short Sleeve Holiday Suit, perfect for warm days and sunny getaways. Crafted from lightweight fabric, it features a vibrant floral design that radiates summertime charm. Whether at a beach party or brunch with friends, this suit ensures you stand out while staying comfortable and stylish. Embrace effortless elegance!</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>49</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJTZ233661801AZ'], ['Green-M', 'CJTZ233661802BY'], ['Green-L', 'CJTZ233661803CX'], ['Green-XL', 'CJTZ233661804DW'], ['Green-2XL', 'CJTZ233661805EV'], ['Green-3XL', 'CJTZ233661806FU'], ['Purple-S', 'CJTZ233661807GT'], ['Purple-M', 'CJTZ233661808HS'], ['Purple-L', 'CJTZ233661809IR'], ['Purple-XL', 'CJTZ233661810JQ'], ['Purple-2XL', 'CJTZ233661811KP'], ['Purple-3XL', 'CJTZ233661812LO']]</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>420</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>CJTZ2336618</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>1904407928003092481</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>4fxxbb6xeg5eb5tcbluhd4j8</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Fashionable Printed Women's Sleeveless Dress</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/dde8ac1b-3fab-424c-adeb-721289729a08.png,https://cf.cjdropshipping.com/65d41268-b423-41cc-b226-0b76f83f4d84.png,https://cf.cjdropshipping.com/98430f23-89ba-49bf-9b04-b8cdce29a959.png,https://cf.cjdropshipping.com/0894393c-b96f-4595-a135-c4b26bf07fd7.png,https://cf.cjdropshipping.com/d36be0b2-9406-43d3-8797-f39d914660d8.png</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Introducing the Fashionable Printed Women's Sleeveless Dress, perfect for any occasion! This stunning dress features a vibrant print and a flattering silhouette, ensuring you stand out effortlessly. Crafted for comfort and style, it pairs beautifully with heels or sandals. Embrace your chic side and make a statement with this must-have piece!</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>13</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLY233688301AZ'], ['Blue-M', 'CJLY233688302BY'], ['Blue-L', 'CJLY233688303CX'], ['Blue-XL', 'CJLY233688304DW'], ['Blue-2XL', 'CJLY233688305EV'], ['Blue-3XL', 'CJLY233688306FU'], ['Green-S', 'CJLY233688307GT'], ['Green-M', 'CJLY233688308HS'], ['Green-L', 'CJLY233688309IR'], ['Green-XL', 'CJLY233688310JQ'], ['Green-2XL', 'CJLY233688311KP'], ['Green-3XL', 'CJLY233688312LO']]</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>370</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>CJLY2336883</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>1904447919840428033</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>yl572ao4q56v34nc0a9by3ik</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Women's Floral Print Cinching Waist Dress</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/acf9dc23-1bf5-4fde-b4bf-13b145de4038.png,https://cf.cjdropshipping.com/d588e948-9e51-43ab-8a23-04e19e9712a1.png,https://cf.cjdropshipping.com/92cf31e1-61e1-4379-a0e7-c9b776df2e10.png,https://cf.cjdropshipping.com/df0091ee-77e6-48a3-aa4c-c9db87db81e5.png,https://cf.cjdropshipping.com/56aa34b6-035b-46f8-80a9-04fe511f7169.png,https://cf.cjdropshipping.com/968cb96c-89d0-4884-ac39-532e829da16f.png</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>63</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Discover timeless elegance with our Women's Floral Print Cinching Waist Dress. This stunning piece features a flattering silhouette that enhances your figure, while vibrant floral patterns bring a touch of nature to your wardrobe. Perfect for any occasion, this dress combines comfort and style, making it a must-have for every fashionista.</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>30</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>[['Apricot-S', 'CJLY233497001AZ'], ['Apricot-M', 'CJLY233497002BY'], ['Apricot-L', 'CJLY233497003CX'], ['Apricot-XL', 'CJLY233497004DW'], ['Apricot-2XL', 'CJLY233497005EV'], ['Apricot-3XL', 'CJLY233497006FU'], ['Pink-S', 'CJLY233497007GT'], ['Pink-M', 'CJLY233497008HS'], ['Pink-L', 'CJLY233497009IR'], ['Pink-XL', 'CJLY233497010JQ'], ['Pink-2XL', 'CJLY233497011KP'], ['Pink-3XL', 'CJLY233497012LO']]</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>410</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>CJLY2334970</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>1903626463590088705</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>tnz3qv01yjvflbih21slic3q</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Casual Summer Solid Color Sleeveless Dress</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/b7b1f6ee-13f8-4f65-b18a-10c4e0f53222.png,https://cf.cjdropshipping.com/c58e11ad-3a05-4558-81c7-090cd6634ad7.png,https://cf.cjdropshipping.com/0989d1d9-4d24-47a5-8325-8b0493351647.png,https://cf.cjdropshipping.com/2dc28195-1dea-41de-9690-73a6f453495a.png,https://cf.cjdropshipping.com/00708584-b1d2-4e3b-88d1-015cd9272d0a.png</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with our Casual Summer Solid Color Sleeveless Dress. This chic piece features a flattering silhouette, designed for comfort and breathability. Perfect for sunny days out or casual gatherings, its versatile color options ensure you’ll stand out. Pair with sandals for a laid-back look or dress up for evening outings!</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>44</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJLY233494201AZ'], ['Black-M', 'CJLY233494202BY'], ['Black-L', 'CJLY233494203CX'], ['Black-XL', 'CJLY233494204DW'], ['Black-2XL', 'CJLY233494205EV'], ['Black-3XL', 'CJLY233494206FU'], ['Blue-S', 'CJLY233494207GT'], ['Blue-M', 'CJLY233494208HS'], ['Blue-L', 'CJLY233494209IR'], ['Blue-XL', 'CJLY233494210JQ'], ['Blue-2XL', 'CJLY233494211KP'], ['Blue-3XL', 'CJLY233494212LO']]</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>370</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>CJLY2334942</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>1903620247336038401</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>za1ofg2htkhy79w69mri1j7d</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Casual Women's Dress For Summer Vacation</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/da2fe907-f395-4214-9e2a-18e99caf10f0.png,https://cf.cjdropshipping.com/4005373d-1484-4480-9ba7-78a23f56e74d.png,https://cf.cjdropshipping.com/4bd2c879-266b-48f9-9ebc-bcef6d06fc62.png,https://cf.cjdropshipping.com/6c394aca-21de-42ce-b777-40c4b12cdda9.png,https://cf.cjdropshipping.com/43241c7b-d791-4f8d-a6e8-9f9d00eb2d4f.png,https://cf.cjdropshipping.com/ef0b6986-91ed-4bec-a295-8017cdd98ecf.png,https://cf.cjdropshipping.com/7edeb53a-1592-4d2d-bc1d-87e810daaddb.png</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>36</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Lightweight and breezy, this Casual Women's Dress is perfect for your summer vacation. Featuring a stylish design, it keeps you comfortable while showcasing your flair. Ideal for beach trips or evening strolls, its versatile look transitions effortlessly from day to night. Embrace the season in this must-have wardrobe staple!</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>23</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJLY233496501AZ'], ['Green-M', 'CJLY233496502BY'], ['Green-L', 'CJLY233496503CX'], ['Green-XL', 'CJLY233496504DW'], ['Green-2XL', 'CJLY233496505EV'], ['Green-3XL', 'CJLY233496506FU'], ['Orange-S', 'CJLY233496507GT'], ['Orange-M', 'CJLY233496508HS'], ['Orange-L', 'CJLY233496509IR'], ['Orange-XL', 'CJLY233496510JQ'], ['Orange-2XL', 'CJLY233496511KP'], ['Orange-3XL', 'CJLY233496512LO']]</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>370</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>CJLY2334965</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>1903624347937013762</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>3ufczhx07auxskwcvfa0mrj2</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Casual Women's Dress For Summer Vacation</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/b93b281f-f67a-4a95-9b1a-db176b9ec8b1.png,https://cf.cjdropshipping.com/e2584ee6-b266-4b37-a971-094f229abf72.png,https://cf.cjdropshipping.com/969ab30e-67eb-4b3f-8251-4b49ed3ec5ed.png,https://cf.cjdropshipping.com/9c99d25c-3720-43fd-b537-20cb4e44aca1.png,https://cf.cjdropshipping.com/7e93ec04-f183-4969-a5e7-421867749905.png,https://cf.cjdropshipping.com/a6be2d6b-4e7c-43bd-9343-5b500f6aaa8d.png,https://cf.cjdropshipping.com/e7a26ec7-f03c-4e6f-9553-880efc9a02a8.png</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Discover the perfect blend of comfort and style with our Casual Women's Dress for Summer Vacation. Crafted from lightweight fabric, this versatile dress features a flattering silhouette and vibrant colors, ideal for beach outings or brunch dates. Embrace carefree days and effortless charm in this must-have addition to your warm-weather wardrobe!</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>27</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJLY233497701AZ'], ['Green-M', 'CJLY233497702BY'], ['Green-L', 'CJLY233497703CX'], ['Green-XL', 'CJLY233497704DW'], ['Green-2XL', 'CJLY233497705EV'], ['Green-3XL', 'CJLY233497706FU'], ['Multicolor-S', 'CJLY233497707GT'], ['Multicolor-M', 'CJLY233497708HS'], ['Multicolor-L', 'CJLY233497709IR'], ['Multicolor-XL', 'CJLY233497710JQ'], ['Multicolor-2XL', 'CJLY233497711KP'], ['Multicolor-3XL', 'CJLY233497712LO']]</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>370</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>CJLY2334977</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>1903630840528941058</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ub5p6ev4mddl4yn0aoslvt9n</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Fashion Single-shoulder Shorts Irregular Jeans</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/0dda1d64-70f5-4fcc-aa9a-5244641694dd.jpg,https://cf.cjdropshipping.com/532204da-6898-46ad-8a28-1db2ecf557c6.JPG,https://cf.cjdropshipping.com/04cd3fa8-9268-4075-b7c2-e9a511ec9edf.JPG,https://cf.cjdropshipping.com/5e13903c-22f8-463c-9e2e-962ad2aaf09c.JPG,https://cf.cjdropshipping.com/4aa59e1f-0544-4e9c-b551-49e5a67914c7.JPG,https://cf.cjdropshipping.com/9a8d8a32-c9af-4340-a00f-91f8b769c7aa.JPG,https://cf.cjdropshipping.com/6bf6bb0b-8c40-4ad1-a269-34c53e3eb0bd.JPG</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Discover your next favorite staple: Fashion Single-shoulder Shorts Irregular Jeans. These trendy denim pieces effortlessly combine style and comfort, featuring a unique asymmetrical design that sets you apart. Perfect for casual outings or chic events, they pair seamlessly with any outfit. Embrace individuality and make a bold fashion statement today!</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Bottoms,Woman Jeans</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>19</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>[['Blue-XS', 'CJNZ233437501AZ'], ['Blue-S', 'CJNZ233437502BY'], ['Blue-M', 'CJNZ233437503CX'], ['Blue-L', 'CJNZ233437504DW'], ['Blue-XL', 'CJNZ233437505EV']]</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>510</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>CJNZ2334375</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>1903333705120002049</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>4wfyi63xk77j1pn91nv11elt</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Five-pointed Star Hot Diamond Ripped Jeans</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/86e81443-4f9f-412c-bf65-fda991125b6c.JPG,https://cf.cjdropshipping.com/e320200a-b4c0-4358-9354-f17c1c4c9584.JPG,https://cf.cjdropshipping.com/6fbb90e3-7332-41bf-95a8-075d44161b51.JPG,https://cf.cjdropshipping.com/fed73175-b5c9-459f-ad6f-33c57df0b21f.JPG,https://cf.cjdropshipping.com/c99081fa-1538-4f2c-9837-8167caf9dd15.JPG,https://cf.cjdropshipping.com/08b11684-22c1-43f5-b242-69bf40dd0538.JPG</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Transform your wardrobe with our Five-pointed Star Hot Diamond Ripped Jeans, designed for comfort and style. Featuring dazzling star embellishments and trendy rips, these jeans ensure you stand out effortlessly. Perfect for casual outings or date nights, they combine fashion and fun, making them a must-have addition to your collection.</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Bottoms,Woman Jeans</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>28</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>[['Blue-XS', 'CJNZ233453401AZ'], ['Blue-S', 'CJNZ233453402BY'], ['Blue-M', 'CJNZ233453403CX'], ['Blue-L', 'CJNZ233453404DW'], ['Blue-XL', 'CJNZ233453405EV']]</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>776</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>CJNZ2334534</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>1903362444700725250</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>3u939h1wdqxrwaq2ik1yyzjg</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Summer Mandala Print Asymmetrical Hem Tube Bodycon Top</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/4b8684d6-9008-47e9-9b56-47a2be50bf4b.jpg,https://cf.cjdropshipping.com/13ab3187-1498-46ab-aeb9-48f19b9d5517.jpg,https://cf.cjdropshipping.com/9413e56b-14c3-4e3b-89fd-13bf628037e4.jpg,https://cf.cjdropshipping.com/91818dd0-952c-46a8-bc2c-991ae6ed17b5.jpg,https://cf.cjdropshipping.com/730194d6-99b0-44be-82bc-cd696de3ec5e.jpg</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Transform your summer wardrobe with our Summer Mandala Print Asymmetrical Hem Tube Bodycon Top! Featuring a vibrant mandala design, this stylish piece hugs your curves while offering a unique asymmetrical cut. Perfect for beach outings or casual gatherings, this top ensures you stand out in every crowd. Enjoy ultimate comfort and flair!</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Camis</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>74</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJWC233402401AZ'], ['Green-M', 'CJWC233402402BY'], ['Green-L', 'CJWC233402403CX'], ['Green-XL', 'CJWC233402404DW'], ['Pink-S', 'CJWC233402405EV'], ['Pink-M', 'CJWC233402406FU'], ['Pink-L', 'CJWC233402407GT'], ['Pink-XL', 'CJWC233402408HS']]</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>320</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>CJWC2334024</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>1903255130782085121</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>m4x9k6pgwdg0fy36kp7tybvk</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Summer Women's Solid Color Tassel Short Sleeve Top</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/6abbdec7-c9fa-4a83-bb0c-0bcdee274b4c.png,https://cf.cjdropshipping.com/c2d38afd-8968-4a7d-b097-02b0a1b5949b.png,https://cf.cjdropshipping.com/a3b3b81c-a428-4bed-8e2e-b450e87933fa.png,https://cf.cjdropshipping.com/a3ed2233-a1fc-4112-beed-c0b2b134ad7e.png,https://cf.cjdropshipping.com/908bd5d2-14bc-426d-8f97-65203aaab357.png,https://cf.cjdropshipping.com/77dc61a2-925e-473c-aa67-edf290f652a2.png</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Introducing the Summer Women's Solid Color Tassel Short Sleeve Top! This trendy piece features playful tassels and a chic design, making it perfect for warm days out. Relaxed fit and breathable fabric ensure all-day comfort. Pair it with shorts or skirts for a stylish, effortless look that sets you apart this season!</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Short-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>12</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJWS233467501AZ'], ['Blue-M', 'CJWS233467502BY'], ['Blue-L', 'CJWS233467503CX'], ['Blue-XL', 'CJWS233467504DW'], ['Blue-2XL', 'CJWS233467505EV'], ['Blue-3XL', 'CJWS233467506FU'], ['Rose Red-S', 'CJWS233467507GT'], ['Rose Red-M', 'CJWS233467508HS'], ['Rose Red-L', 'CJWS233467509IR'], ['Rose Red-XL', 'CJWS233467510JQ'], ['Rose Red-2XL', 'CJWS233467511KP'], ['Rose Red-3XL', 'CJWS233467512LO']]</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>310</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>CJWS2334675</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>1903381979400896513</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ob5jt29hifcmf4sq2y005v4y</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Women's Solid Color Simple Daily Square Neck Pleated Design Dress</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/9a9cbad2-f952-45d2-9e88-a14fb72c1b80.jpg,https://cf.cjdropshipping.com/6ef33fe3-4162-470b-95aa-eb4cfe9d3c22.jpg,https://cf.cjdropshipping.com/d7e63ec5-6f83-44a7-8f67-58be86d7160e.jpg,https://cf.cjdropshipping.com/8ff80b07-c88f-4ad6-91ac-482fb80d6aad.jpg,https://cf.cjdropshipping.com/40bb83bc-b06b-47ed-84c1-8c6dbb97c4b7.jpg</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Introducing the Women's Solid Color Simple Daily Square Neck Pleated Design Dress. Effortlessly chic, this versatile piece enhances your wardrobe with its flattering square neckline and stylish pleats. Perfect for casual outings or special occasions, it combines comfort and elegance. Embrace your unique style and make a statement every day!</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>35</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJLY233406701AZ'], ['Black-M', 'CJLY233406702BY'], ['Black-L', 'CJLY233406703CX'], ['Black-XL', 'CJLY233406704DW'], ['Black-2XL', 'CJLY233406705EV'], ['Black-3XL', 'CJLY233406706FU'], ['Blue-S', 'CJLY233406707GT'], ['Blue-M', 'CJLY233406708HS'], ['Blue-L', 'CJLY233406709IR'], ['Blue-XL', 'CJLY233406710JQ'], ['Blue-2XL', 'CJLY233406711KP'], ['Blue-3XL', 'CJLY233406712LO']]</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>400</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>CJLY2334067</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>1903266136172134401</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>bwtfvq0egzi3sx1pw2m30tdw</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Ruffle Hem Belted Shirt Dress Maxi Vacation Beach Outfits Women</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/3e16b758-2ce2-4a81-8390-6182086eca20.jpg,https://cf.cjdropshipping.com/7ce3fe79-90dc-4559-83ec-00873fafbf0c.jpg,https://cf.cjdropshipping.com/40978bfa-7d14-4dae-9579-a8e607df8b76.jpg,https://cf.cjdropshipping.com/1a2b1c21-f464-4260-83e1-cd341b85747d.jpg,https://cf.cjdropshipping.com/3f4baf04-1ede-4303-93ee-f57d30171750.jpg</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Step into summer with our Ruffle Hem Belted Shirt Dress! This chic maxi offers a stylish twist with its playful ruffles and flattering belt, perfect for beach vacations or casual outings. Crafted from lightweight fabric, it ensures comfortable wear while making you look effortlessly fabulous. Embrace sun-kissed adventures in style!</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>96</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>[['Navy Blue-S', 'CJLY233405501AZ'], ['Navy Blue-M', 'CJLY233405502BY'], ['Navy Blue-L', 'CJLY233405503CX'], ['Navy Blue-XL', 'CJLY233405504DW'], ['Navy Blue-2XL', 'CJLY233405505EV'], ['Navy Blue-3XL', 'CJLY233405506FU'], ['Hot Pink-S', 'CJLY233405507GT'], ['Hot Pink-M', 'CJLY233405508HS'], ['Hot Pink-L', 'CJLY233405509IR'], ['Hot Pink-XL', 'CJLY233405510JQ'], ['Hot Pink-2XL', 'CJLY233405511KP'], ['Hot Pink-3XL', 'CJLY233405512LO']]</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>400</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>CJLY2334055</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>1903264682923569154</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>bb0rpw6fempvzh6ivg4belbs</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Trim Cap Sleeve Cinched Waist Ruffle Hem A-Line Dress</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/2dea257b-a376-49d8-b5d0-df9a520ba500.jpg,https://cf.cjdropshipping.com/db2d3074-2e01-4a5e-abe3-dba6ceeb6ce4.jpg,https://cf.cjdropshipping.com/eb164af9-9338-4e5d-8cf1-cb54109c1f30.jpg,https://cf.cjdropshipping.com/84af6878-5e93-4fa2-bf99-7dbdaec3d4aa.jpg,https://cf.cjdropshipping.com/c880de46-140b-4ade-b871-2dddf13ee6a7.jpg</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Embrace timeless elegance with the Trim Cap Sleeve Cinched Waist Ruffle Hem A-Line Dress. This stunning piece features delicate cap sleeves, a flattering cinched waist, and a playful ruffle hem, perfect for any occasion. Effortlessly stylish and comfortable, it's the ideal addition to your wardrobe for a chic look!</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>64</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>[['Navy Blue-S', 'CJLY233404901AZ'], ['Navy Blue-M', 'CJLY233404902BY'], ['Navy Blue-L', 'CJLY233404903CX'], ['Navy Blue-XL', 'CJLY233404904DW'], ['Navy Blue-2XL', 'CJLY233404905EV'], ['Navy Blue-3XL', 'CJLY233404906FU'], ['Green-S', 'CJLY233404907GT'], ['Green-M', 'CJLY233404908HS'], ['Green-L', 'CJLY233404909IR'], ['Green-XL', 'CJLY233404910JQ'], ['Green-2XL', 'CJLY233404911KP'], ['Green-3XL', 'CJLY233404912LO']]</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>400</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>CJLY2334049</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>1903262829376745474</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>8felczlf2oidoe7bhlvmc88f</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Print Crop One Shoulder Blouse &amp; Ruffle Hem Skirt</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/5894ca17-25b8-488c-a830-18e2d29b8f40.jpg,https://cf.cjdropshipping.com/7d289947-df36-4851-b314-9510b150c8ab.jpg,https://cf.cjdropshipping.com/1acd2742-366c-4982-95d5-089bd9d1b35d.jpg,https://cf.cjdropshipping.com/2b76d659-5cf2-40da-9f4f-a5431fad78a2.jpg,https://cf.cjdropshipping.com/c851df6d-230b-4acd-b581-c1d2a44f08ad.jpg</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Transform your wardrobe with the Print Crop One Shoulder Blouse paired with a stylish Ruffle Hem Skirt. This chic ensemble blends elegance and flair, perfect for brunches or nights out. Embrace versatility and comfort while showcasing your unique style. Make a statement and turn heads effortlessly with this trendy outfit.</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>22</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>[['Orange-S', 'CJTZ233381001AZ'], ['Orange-M', 'CJTZ233381002BY'], ['Orange-L', 'CJTZ233381003CX'], ['Orange-XL', 'CJTZ233381004DW'], ['Orange-2XL', 'CJTZ233381005EV'], ['Orange-3XL', 'CJTZ233381006FU'], ['Apricot-S', 'CJTZ233381007GT'], ['Apricot-M', 'CJTZ233381008HS'], ['Apricot-L', 'CJTZ233381009IR'], ['Apricot-XL', 'CJTZ233381010JQ'], ['Apricot-2XL', 'CJTZ233381011KP'], ['Apricot-3XL', 'CJTZ233381012LO']]</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>400</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>CJTZ2333810</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>1903023828642168833</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>6r0inxqvwv361r8h5w79mqhb</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Paisley Print Halter Neck Slit Wide Leg Jumpsuit</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/cae3e605-19d6-478e-91ee-da9d97d7d645.jpg,https://cf.cjdropshipping.com/f406c4dd-7e98-4733-82f4-87962a0507c7.jpg,https://cf.cjdropshipping.com/09f34957-1659-442d-9b22-52cc7d14c935.jpg,https://cf.cjdropshipping.com/5d3abd1e-a0eb-4913-86d9-67985dcc38aa.jpg,https://cf.cjdropshipping.com/efb48228-a140-42a1-8b93-a248060c54d6.jpg</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Step into effortless elegance with our Paisley Print Halter Neck Slit Wide Leg Jumpsuit. Featuring a stunning paisley design, this jumpsuit highlights your silhouette while ensuring comfort. The high slit adds a touch of flirtation, perfect for any occasion. Make a statement and embrace your unique style today!</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Jumpsuits</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>110</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLS233369401AZ'], ['Blue-M', 'CJLS233369402BY'], ['Blue-L', 'CJLS233369403CX'], ['Blue-XL', 'CJLS233369404DW'], ['Blue-2XL', 'CJLS233369405EV'], ['Blue-3XL', 'CJLS233369406FU'], ['Red-S', 'CJLS233369407GT'], ['Red-M', 'CJLS233369408HS'], ['Red-L', 'CJLS233369409IR'], ['Red-XL', 'CJLS233369410JQ'], ['Red-2XL', 'CJLS233369411KP'], ['Red-3XL', 'CJLS233369412LO']]</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>400</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>CJLS2333694</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>1903002735175053314</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>yono6flp679i9opy616s3oud</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Sleeveless Halter Ruffled Young Women's Jumpsuit</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/bb02b420-4f6e-47d9-8ccc-90b50f020a91.jpg,https://cf.cjdropshipping.com/3546f290-9c1e-4c39-a307-35ded778a672.jpg,https://cf.cjdropshipping.com/c20c8de9-f28f-4f78-be5e-d538ca4c14bf.jpg,https://cf.cjdropshipping.com/f4b2678e-a89e-4bcd-8614-b316f4ce751f.jpg,https://cf.cjdropshipping.com/56ed9262-de27-4b4d-9c5b-cdd3b851200e.jpg</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Stride into style with our Sleeveless Halter Ruffled Jumpsuit! Perfect for a chic day out or festive evening, this trendy piece combines comfort and elegance. The breathable fabric and flattering ruffled design ensure a stunning silhouette. Stand out effortlessly and make a statement wherever you go with this versatile wardrobe staple!</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Jumpsuits</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>124</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLS233370501AZ'], ['Blue-M', 'CJLS233370502BY'], ['Blue-L', 'CJLS233370503CX'], ['Blue-XL', 'CJLS233370504DW'], ['Blue-2XL', 'CJLS233370505EV'], ['Blue-3XL', 'CJLS233370506FU'], ['Apricot-S', 'CJLS233370507GT'], ['Apricot-M', 'CJLS233370508HS'], ['Apricot-L', 'CJLS233370509IR'], ['Apricot-XL', 'CJLS233370510JQ'], ['Apricot-2XL', 'CJLS233370511KP'], ['Apricot-3XL', 'CJLS233370512LO']]</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>400</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>CJLS2333705</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>1903004949635268610</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>134ayv3ma4lfygx0w6ab3s0a</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Contrast Lace Green Thin Stripe V Neck Summer Dresses For Women</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/92497ef9-0dc5-4340-98d4-0b03838abb1e.png,https://cf.cjdropshipping.com/b3230329-5309-4a8e-a9a1-8eb023254ce5.png,https://cf.cjdropshipping.com/d01b8fef-e325-46aa-9135-1cddeb436335.jpg,https://cf.cjdropshipping.com/f2645f3c-bde0-4eed-9131-58db4ab67edb.jpg,https://cf.cjdropshipping.com/11b2f303-0bfc-4fe9-ae02-693da33337da.png</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Embrace summer elegance with our Contrast Lace Green Thin Stripe V Neck Summer Dress. This stunning piece features a flattering fit and delicate lace detailing, perfect for sunny days or evenings out. Enjoy effortless style, comfort, and versatility. Pair it with sandals or heels for a chic, fashionable look that turns heads.</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>130</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJLY233357701AZ'], ['Green-M', 'CJLY233357702BY'], ['Green-L', 'CJLY233357703CX'], ['Green-XL', 'CJLY233357704DW'], ['Green-2XL', 'CJLY233357705EV'], ['Green-3XL', 'CJLY233357706FU'], ['Dusty Pink-S', 'CJLY233357707GT'], ['Dusty Pink-M', 'CJLY233357708HS'], ['Dusty Pink-L', 'CJLY233357709IR'], ['Dusty Pink-XL', 'CJLY233357710JQ'], ['Dusty Pink-2XL', 'CJLY233357711KP'], ['Dusty Pink-3XL', 'CJLY233357712LO']]</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>400</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>CJLY2333577</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>1902981007887609857</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>qjkucdn6sunxy8adob4v8x42</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Women Summer Solid Color Asymmetric Hem Camisole And Pants 2 Piece Set</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/014bc88e-3d55-4f45-bdb2-5761ba2247f0.png,https://cf.cjdropshipping.com/3b775a8e-6a6e-438a-b8c6-28498c5223ef.png,https://cf.cjdropshipping.com/b3c9a482-b68f-46e9-9785-85ce52538293.jpg,https://cf.cjdropshipping.com/3edfb6f3-9e73-45cf-9851-a0bcf8941c83.jpg,https://cf.cjdropshipping.com/65eaafb2-3e5b-4c5c-a4a5-95e3c41bbc12.jpg</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Transform your summer wardrobe with this chic Women Summer Solid Color Asymmetric Hem Camisole and Pants 2 Piece Set. Designed for comfort and style, the flowing silhouette pairs beautifully for any occasion. Embrace effortless elegance with this versatile ensemble that flatters every figure and ensures you stand out in any crowd.</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>6</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJTZ233350401AZ'], ['Black-M', 'CJTZ233350402BY'], ['Black-L', 'CJTZ233350403CX'], ['Black-XL', 'CJTZ233350404DW'], ['Black-2XL', 'CJTZ233350405EV'], ['Black-3XL', 'CJTZ233350406FU'], ['Green-S', 'CJTZ233350407GT'], ['Green-M', 'CJTZ233350408HS'], ['Green-L', 'CJTZ233350409IR'], ['Green-XL', 'CJTZ233350410JQ'], ['Green-2XL', 'CJTZ233350411KP'], ['Green-3XL', 'CJTZ233350412LO']]</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>400</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>CJTZ2333504</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>1902970569424502785</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>n4m92x9gyiqz8sd3c48sensj</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Ruffled Strap Sleeveless Summer Slip Dress</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://oss-cf.cjdropshipping.com/product/2025/03/22/08/262f3a14-6eab-4f18-86ab-7aaa26470495.jpg,https://cf.cjdropshipping.com/4131d525-9560-45c6-b30d-9671e7de5854.jpg,https://oss-cf.cjdropshipping.com/product/2025/03/22/08/c86e25de-8857-4f22-a625-1ddb2d9e4e8f.jpg</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Step into summer with our Ruffled Strap Sleeveless Slip Dress. This charming piece features delicate ruffles for a playful touch and a flattering silhouette perfect for any occasion. The lightweight fabric ensures comfort, making it ideal for warm days. Embrace effortless style and let your personality shine with this must-have dress!</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>24</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJLY233378401AZ'], ['Green-M', 'CJLY233378402BY'], ['Green-L', 'CJLY233378403CX'], ['Green-XL', 'CJLY233378404DW'], ['Green-2XL', 'CJLY233378405EV'], ['Green-3XL', 'CJLY233378406FU'], ['Blue-S', 'CJLY233378407GT'], ['Blue-M', 'CJLY233378408HS'], ['Blue-L', 'CJLY233378409IR'], ['Blue-XL', 'CJLY233378410JQ'], ['Blue-2XL', 'CJLY233378411KP'], ['Blue-3XL', 'CJLY233378412LO']]</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>400</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>CJLY2333784</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>1903019773391929346</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>hpimsggp4fs5xnxw7gflm1ep</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Women's Plus Size Casual Sleeveless Vest Dress</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/20a56d19-ca31-403c-bf86-03ce72bd9ecf.png,https://cf.cjdropshipping.com/a7e4c0d7-deb6-407a-851b-be6bd961cc4b.png,https://oss-cf.cjdropshipping.com/product/2025/04/03/10/97480112-82eb-4179-9c32-3da3b91dee9b.jpg</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Women's Plus Size Casual Sleeveless Vest Dress. Crafted for comfort and elegance, this versatile piece features a flattering fit, perfect for any occasion. Dress it up or down with ease, and enjoy endless outfit possibilities. Embrace your curves and feel fabulous in every moment!</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>9</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJLY233365701AZ'], ['Black-M', 'CJLY233365702BY'], ['Black-L', 'CJLY233365703CX'], ['Black-XL', 'CJLY233365704DW'], ['Black-2XL', 'CJLY233365705EV'], ['Black-3XL', 'CJLY233365706FU'], ['Grey-S', 'CJLY233365707GT'], ['Grey-M', 'CJLY233365708HS'], ['Grey-L', 'CJLY233365709IR'], ['Grey-XL', 'CJLY233365710JQ'], ['Grey-2XL', 'CJLY233365711KP'], ['Grey-3XL', 'CJLY233365712LO']]</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>400</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>CJLY2333657</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>1902995436270125058</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>30wpj71ysvd84wipkc4ho3lh</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Women Tropical Plant Print Cross-Waist Sleeveless Casual Dress</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/e4a0f4c2-dff3-42f0-92f6-79684b4fa73c.jpg,https://cf.cjdropshipping.com/bbc6872d-fb8b-43da-9630-58db8a37bfdb.jpg,https://cf.cjdropshipping.com/9c426272-ad8d-4e53-8103-b74372c3a57b.jpg,https://cf.cjdropshipping.com/713fcce5-6a99-4da1-b770-9a14b6fe36e4.jpg,https://cf.cjdropshipping.com/1bc22af9-604c-4d76-b1ff-fd0087aef605.jpg</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with this Women Tropical Plant Print Cross-Waist Sleeveless Casual Dress. Perfect for sunny days, it features a vibrant botanical design and a flattering cross-waist silhouette. Lightweight and breathable, it offers comfort while making a bold fashion statement. Ideal for casual outings or relaxed gatherings—add a touch of paradise to your wardrobe!</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>25</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJLY233383801AZ'], ['Green-M', 'CJLY233383802BY'], ['Green-L', 'CJLY233383803CX'], ['Green-XL', 'CJLY233383804DW'], ['Green-2XL', 'CJLY233383805EV'], ['Green-3XL', 'CJLY233383806FU'], ['Black-S', 'CJLY233383807GT'], ['Black-M', 'CJLY233383808HS'], ['Black-L', 'CJLY233383809IR'], ['Black-XL', 'CJLY233383810JQ'], ['Black-2XL', 'CJLY233383811KP'], ['Black-3XL', 'CJLY233383812LO']]</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>400</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>CJLY2333838</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>1903036539891482626</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>bowocbf2oyw5y49w70jxjiuv</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Spring And Autumn Women's V-neck Long Sleeve Fringe Jacket Solid Color Loose Short Coat</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/17559072/1959102670786793472.jpg,https://cf.cjdropshipping.com/17559072/1959102683587809280.jpg,https://cf.cjdropshipping.com/05a9bb9a-0a9b-41c7-8091-c734b677232d.jpg,https://cf.cjdropshipping.com/17559072/1959102670157647872.jpg,https://cf.cjdropshipping.com/17559072/1959102675589271552.jpg,https://cf.cjdropshipping.com/17559072/1959102674293231616.jpg,https://cf.cjdropshipping.com/17559072/1959102685877899264.jpg,https://cf.cjdropshipping.com/13abfb87-138d-4e92-ac44-5512b38d837e.jpg,https://cf.cjdropshipping.com/17559072/1959102662599512064.jpg,https://cf.cjdropshipping.com/17559072/1959102681377411072.jpg,https://cf.cjdropshipping.com/b8b3d74b-74aa-46d9-a235-329d52760b7d.jpg,https://cf.cjdropshipping.com/17559072/1959102672577761280.jpg,https://cf.cjdropshipping.com/17559072/1959102678923743232.jpg,https://cf.cjdropshipping.com/17559072/1959102690659405824.jpg,https://cf.cjdropshipping.com/17559072/1959102677426376704.jpg,https://cf.cjdropshipping.com/17559072/1959102680236560384.jpg,https://cf.cjdropshipping.com/62c38872-68d7-4aef-964f-878254456819.jpg</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>90</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Introducing the Spring and Autumn Women's V-neck Long Sleeve Fringe Jacket! This stylish, solid-color short coat boasts a loose fit perfect for layering. The chic fringe adds a playful touch, making it ideal for casual outings or dressy occasions. Embrace comfortable elegance and redefine your wardrobe with this versatile piece!</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Outerwear , Jackets,Basic Jacket</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>48</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJJK233356705EV'], ['Black-M', 'CJJK233356706FU'], ['Black-L', 'CJJK233356707GT'], ['Black-XL', 'CJJK233356708HS'], ['Brown-S', 'CJJK233356709IR'], ['Brown-M', 'CJJK233356710JQ'], ['Brown-L', 'CJJK233356711KP'], ['Brown-XL', 'CJJK233356712LO'], ['Navy Blue-S', 'CJJK233356713MN'], ['Navy Blue-M', 'CJJK233356714NM'], ['Navy Blue-L', 'CJJK233356715OL'], ['Navy Blue-XL', 'CJJK233356716PK']]</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>337</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>CJJK2333567</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>1902983800404881409</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>669py2qqithzu9eslo0s63gi</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Women's Solid Color Round Neck Batwing Sleeve Crop Top And Side Split Skirt</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/68a97009-95c7-4705-affe-5cbfbc2ca336.jpg,https://cf.cjdropshipping.com/8a17a5d7-daa5-40c8-8b73-2312eef7d873.jpg,https://cf.cjdropshipping.com/80a11527-9cc7-4e4c-ac0f-1353e3f94282.jpg,https://cf.cjdropshipping.com/fdcda458-0026-4b8a-8a59-a31988ff8b8c.jpg,https://cf.cjdropshipping.com/601d4631-a3d9-4a1e-8a4d-47f4328962d9.jpg</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Unleash your style with our Women's Solid Color Round Neck Batwing Sleeve Crop Top paired with a chic Side Split Skirt. This trendy ensemble boasts a relaxed fit and flattering silhouette, perfect for any occasion. Dress it up or down for an effortless, fashionable look that turns heads wherever you go!</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>29</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>[['Redwood-S', 'CJTZ233372801AZ'], ['Redwood-M', 'CJTZ233372802BY'], ['Redwood-L', 'CJTZ233372803CX'], ['Redwood-XL', 'CJTZ233372804DW'], ['Redwood-2XL', 'CJTZ233372805EV'], ['Redwood-3XL', 'CJTZ233372806FU'], ['Black-S', 'CJTZ233372807GT'], ['Black-M', 'CJTZ233372808HS'], ['Black-L', 'CJTZ233372809IR'], ['Black-XL', 'CJTZ233372810JQ'], ['Black-2XL', 'CJTZ233372811KP'], ['Black-3XL', 'CJTZ233372812LO']]</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>504</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>CJTZ2333728</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>1903009032223981569</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ubmrv5f4bv5thyf5iprw5lsf</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Clasi Floral Print Scoop Neck Dress Maxi Women Outfit</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/137fe262-0e1a-425e-a22f-88577e1f8682.jpg,https://cf.cjdropshipping.com/ba8b560b-4dc6-48c4-a508-cdba3b2c55dc.jpg,https://cf.cjdropshipping.com/fb1cf352-d323-458a-9546-b6f287198d4b.jpg,https://cf.cjdropshipping.com/0db82f17-fb90-4ae3-8dea-38a6c804462a.jpg,https://cf.cjdropshipping.com/55abf74b-a73c-488f-af32-3ee0c5984b73.jpg</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Introducing the Clasi Floral Print Scoop Neck Dress, a must-have maxi outfit for every stylish woman! This stunning dress features a vibrant floral pattern that radiates warmth and femininity. With its comfortable fit and elegant scoop neckline, you'll feel fabulous on any occasion. Embrace effortless charm and make a statement today!</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>97</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>[['Purple-S', 'CJLY233361401AZ'], ['Purple-M', 'CJLY233361402BY'], ['Purple-L', 'CJLY233361403CX'], ['Purple-XL', 'CJLY233361404DW'], ['Purple-2XL', 'CJLY233361405EV'], ['Purple-3XL', 'CJLY233361406FU'], ['Pink-S', 'CJLY233361407GT'], ['Pink-M', 'CJLY233361408HS'], ['Pink-L', 'CJLY233361409IR'], ['Pink-XL', 'CJLY233361410JQ'], ['Pink-2XL', 'CJLY233361411KP'], ['Pink-3XL', 'CJLY233361412LO'], ['Black-S', 'CJLY233361413MN'], ['Black-M', 'CJLY233361414NM'], ['Black-L', 'CJLY233361415OL'], ['Black-XL', 'CJLY233361416PK'], ['Black-2XL', 'CJLY233361417QJ'], ['Black-3XL', 'CJLY233361418RI']]</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>400</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>CJLY2333614</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>1902986956264046593</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>v91axm8773c5ho613muv5n80</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Elegant Floral Print Two-Piece Set - Round Neck</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/b106f041-9763-441c-a439-33c5b2755904.jpg,https://cf.cjdropshipping.com/f3e407eb-e8b6-49e1-9f20-5edfc1afbf56.jpg,https://cf.cjdropshipping.com/bfdbf306-06bd-4a03-9008-434bb8b479de.jpg,https://cf.cjdropshipping.com/d5f5edff-0636-4d46-a145-49f1f42a7922.jpg,https://cf.cjdropshipping.com/cccbb293-a759-444d-af1a-98ba1d94f2fc.jpg</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>40</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Transform your wardrobe with the Elegant Floral Print Two-Piece Set. This stunning ensemble features a chic round neck design and a vibrant floral pattern, perfect for any occasion. Effortlessly stylish and comfortably tailored, it promises to be your go-to outfit for brunch or evening outings. Embrace your sophisticated side!</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>62</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJTZ233353401AZ'], ['Green-M', 'CJTZ233353402BY'], ['Green-L', 'CJTZ233353403CX'], ['Green-XL', 'CJTZ233353404DW'], ['Green-2XL', 'CJTZ233353405EV'], ['Green-3XL', 'CJTZ233353406FU'], ['Army Green-S', 'CJTZ233353407GT'], ['Army Green-M', 'CJTZ233353408HS'], ['Army Green-L', 'CJTZ233353409IR'], ['Army Green-XL', 'CJTZ233353410JQ'], ['Army Green-2XL', 'CJTZ233353411KP'], ['Army Green-3XL', 'CJTZ233353412LO'], ['Blue-S', 'CJTZ233353413MN'], ['Blue-M', 'CJTZ233353414NM'], ['Blue-L', 'CJTZ233353415OL'], ['Blue-XL', 'CJTZ233353416PK'], ['Blue-2XL', 'CJTZ233353417QJ'], ['Blue-3XL', 'CJTZ233353418RI']]</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>400</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>CJTZ2333534</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>1902974650998194177</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>er2sa6ehecm87g34dtcq9v0l</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Women's Short Sleeve Casual Simple Dress Fashionable For Daily Wear</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/0b13134f-907f-43f3-b7d7-9083607f2842.jpg,https://cf.cjdropshipping.com/3a7c5f9b-f7ff-46cf-aff9-28e6fbf251a1.jpg,https://cf.cjdropshipping.com/4a445299-1366-400e-885f-f4864c3098c2.jpg,https://cf.cjdropshipping.com/e8782fef-7201-4849-bb6b-9e89e45d78c0.jpg,https://cf.cjdropshipping.com/1d3fb2bb-99c4-4821-b18c-038509c56df4.jpg</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Step into effortless style with our Women’s Short Sleeve Casual Simple Dress, perfect for daily wear. Crafted for comfort and radiance, this fashionable piece effortlessly complements any wardrobe. Its versatile design makes dressing up or down a breeze, ensuring you always look chic and feel confident. Embrace simplicity and elegance today!</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>11</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>[['Yellow-S', 'CJLY233384101AZ'], ['Yellow-M', 'CJLY233384102BY'], ['Yellow-L', 'CJLY233384103CX'], ['Yellow-XL', 'CJLY233384104DW'], ['Yellow-2XL', 'CJLY233384105EV'], ['Yellow-3XL', 'CJLY233384106FU'], ['Black-S', 'CJLY233384107GT'], ['Black-M', 'CJLY233384108HS'], ['Black-L', 'CJLY233384109IR'], ['Black-XL', 'CJLY233384110JQ'], ['Black-2XL', 'CJLY233384111KP'], ['Black-3XL', 'CJLY233384112LO']]</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>400</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>CJLY2333841</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>1903042023834910722</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>lvmfgr7rm9zz0295fs2r9len</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Black Backless Beaded Cropped Blazer &amp; High Waist Pants Set</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/e660aeb3-b73d-4483-b373-feb9fb9c4646.JPG,https://cf.cjdropshipping.com/defdd15b-b242-47ed-8c43-e50d8bb09894.jpg,https://cf.cjdropshipping.com/bdcadf0e-9a76-42cd-9553-34c171c2b36f.JPG,https://cf.cjdropshipping.com/4e637d6d-fdf5-4215-aa09-b53514a11991.JPG,https://cf.cjdropshipping.com/a4d740b0-7a1f-48b1-819e-7492ece9f646.JPG</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Step into sophistication with the Black Backless Beaded Cropped Blazer &amp; High Waist Pants Set. This eye-catching ensemble features intricate beading and a daring backless design, perfect for making a statement at any event. Pair it with your favorite heels for a look that exudes confidence and chic style. Unleash your inner fashionista!</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>9</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>[['Black-XS', 'CJTZ233288501AZ'], ['Black-S', 'CJTZ233288502BY'], ['Black-M', 'CJTZ233288503CX'], ['Black-L', 'CJTZ233288504DW'], ['Black-XL', 'CJTZ233288505EV']]</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>870</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>CJTZ2332885</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>1902638055900475393</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>t9k3w8jq9coooknlhywfs6fo</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Print V-neck Dress For Women</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/ab43b577-b643-4db9-a79b-cd36299b4fe9.png,https://cf.cjdropshipping.com/0d12db95-d0fb-4caa-8f25-c8705d3b9b3a.png,https://cf.cjdropshipping.com/faa81c36-4732-4e5a-b147-f73551de11ed.png,https://cf.cjdropshipping.com/fd9d0a6a-1ec4-47f5-a0f5-cd8da2e0971b.png,https://cf.cjdropshipping.com/ee28ffdc-5e8c-45fb-b270-28b6dfd9f48e.png</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>36</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with our stunning Print V-neck Dress for Women. This versatile piece features a flattering silhouette and vibrant patterns, perfect for any occasion. Crafted from lightweight fabric, it ensures comfort while making a statement. Dress it up or down for an unforgettable look that turns heads everywhere you go.</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>49</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>[['Red floral-S', 'CJLY233062701AZ'], ['Red floral-M', 'CJLY233062702BY'], ['Red floral-L', 'CJLY233062703CX'], ['Red floral-XL', 'CJLY233062704DW'], ['Red floral-2XL', 'CJLY233062705EV'], ['Red floral-3XL', 'CJLY233062706FU'], ['White floral-S', 'CJLY233062707GT'], ['White floral-M', 'CJLY233062708HS'], ['White floral-L', 'CJLY233062709IR'], ['White floral-XL', 'CJLY233062710JQ'], ['White floral-2XL', 'CJLY233062711KP'], ['White floral-3XL', 'CJLY233062712LO']]</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>250</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>CJLY2330627</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>1901900486246035458</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>xtw3d2e8qw6l992i4wk7aa6u</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Women's Clothing Bag Hip Floral Dress Fashion</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/4c40370c-dc82-4dfd-8f98-07fb5e3645dc.png,https://cf.cjdropshipping.com/dbd5d81e-08cc-4fd1-9ceb-50526b8e22f3.png</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Embrace your style with our Women's Hip Floral Dress, a perfect blend of comfort and chic. This stunning piece features vibrant floral patterns that enhance your feminine silhouette. Ideal for any occasion, it effortlessly transitions from day to night. Step out in confidence and let your unique beauty shine!</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>[['Multicolor-S', 'CJLY233062001AZ'], ['Multicolor-M', 'CJLY233062002BY'], ['Multicolor-L', 'CJLY233062003CX'], ['Multicolor-XL', 'CJLY233062004DW'], ['Multicolor-2XL', 'CJLY233062005EV'], ['Multicolor-3XL', 'CJLY233062006FU'], ['White floral-S', 'CJLY233062007GT'], ['White floral-M', 'CJLY233062008HS'], ['White floral-L', 'CJLY233062009IR'], ['White floral-XL', 'CJLY233062010JQ'], ['White floral-2XL', 'CJLY233062011KP'], ['White floral-3XL', 'CJLY233062012LO']]</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>230</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>CJLY2330620</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>1901898955406614530</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>dmklhxwc7a2r71jm7ydkkawu</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Summer Casual Zipper Half-Placket Button Decor Double Pocket Short Sleeve Dress</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/2f0963e5-2e9e-4db9-b1d9-44258d21b1cf.png,https://cf.cjdropshipping.com/0bd7c4a2-75ba-47ca-a743-ead960785fee.png,https://cf.cjdropshipping.com/2a438a4e-d73e-48d5-8c65-d84f6bfdb1c5.png,https://cf.cjdropshipping.com/743bc1f3-4808-4c5e-94b0-615408e2bd15.png,https://cf.cjdropshipping.com/8e058161-514f-41b8-a4d9-d61d94ecd006.png</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Introducing the Summer Casual Zipper Half-Placket Button Decor Double Pocket Short Sleeve Dress! This stylish and versatile piece is perfect for sunny days, featuring a flattering fit, convenient pockets, and chic button details. Stay cool and fashionable effortlessly with this must-have dress that brightens up any wardrobe. Ideal for any occasion!</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>37</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLY232960401AZ'], ['Blue-M', 'CJLY232960402BY'], ['Blue-L', 'CJLY232960403CX'], ['Blue-XL', 'CJLY232960404DW'], ['Blue-2XL', 'CJLY232960405EV'], ['Blue-3XL', 'CJLY232960406FU'], ['Pink-S', 'CJLY232960407GT'], ['Pink-M', 'CJLY232960408HS'], ['Pink-L', 'CJLY232960409IR'], ['Pink-XL', 'CJLY232960410JQ'], ['Pink-2XL', 'CJLY232960411KP'], ['Pink-3XL', 'CJLY232960412LO']]</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>390</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>CJLY2329604</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>1901523263589732354</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>czjas41d7lehsk6sx7gp2g6l</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Colorblock Keyhole Neckline Ruffle Hem Smock Dress</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/19a58e45-5352-49a0-92dc-e289d49b1ab8.jpg,https://cf.cjdropshipping.com/7fd1193c-45af-4ff2-a8f2-dc18f8538bed.jpg,https://cf.cjdropshipping.com/63f8471a-a49c-494e-9da8-1656ed651c88.jpg,https://cf.cjdropshipping.com/1cf99646-0941-468d-b0bd-c211b7f3d216.jpg,https://cf.cjdropshipping.com/48249233-bfb9-47bd-9b97-d7c753ce587c.jpg</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Unleash your style with our Colorblock Keyhole Neckline Ruffle Hem Smock Dress. This captivating piece features a playful ruffle hem and trendy keyhole design, blending comfort and flair effortlessly. Perfect for casual outings or special occasions, it’s versatile enough to make a statement wherever you go. Grab yours today!</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>54</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLY232954301AZ'], ['Blue-M', 'CJLY232954302BY'], ['Blue-L', 'CJLY232954303CX'], ['Blue-XL', 'CJLY232954304DW'], ['Blue-2XL', 'CJLY232954305EV'], ['Blue-3XL', 'CJLY232954306FU'], ['Apricot-S', 'CJLY232954307GT'], ['Apricot-M', 'CJLY232954308HS'], ['Apricot-L', 'CJLY232954309IR'], ['Apricot-XL', 'CJLY232954310JQ'], ['Apricot-2XL', 'CJLY232954311KP'], ['Apricot-3XL', 'CJLY232954312LO']]</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>400</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>CJLY2329543</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>1901515309094928386</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ahtza8yoc2k6ruu7qbgr65wp</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Floral Printed Summer Pleated Strapless Top</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/16488b87-20d8-4f26-9324-772d93b74606.jpg,https://cf.cjdropshipping.com/a78a9549-002f-44ee-9d4c-d777083c9e4d.jpg,https://cf.cjdropshipping.com/a2d77837-3b39-457a-9a5d-49202702693a.jpg,https://cf.cjdropshipping.com/de6960e6-35a1-464f-8cdc-fd5cb49c7954.jpg,https://cf.cjdropshipping.com/88327649-57ea-4333-9d73-41bdf47df763.jpg</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Embrace summer style with our Floral Printed Summer Pleated Strapless Top! This vibrant piece features a chic pleated design, perfect for warm days and nights out. Its lightweight fabric ensures comfort while the stunning floral print adds a touch of elegance. Don’t miss the opportunity to enhance your wardrobe!</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Camis</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>32</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>[['Navy Blue-S', 'CJWC232956601AZ'], ['Navy Blue-M', 'CJWC232956602BY'], ['Navy Blue-L', 'CJWC232956603CX'], ['Navy Blue-XL', 'CJWC232956604DW'], ['Baby Blue-S', 'CJWC232956605EV'], ['Baby Blue-M', 'CJWC232956606FU'], ['Baby Blue-L', 'CJWC232956607GT'], ['Baby Blue-XL', 'CJWC232956608HS']]</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>310</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>CJWC2329566</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>1901517200735522818</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>fh6p6urfqru8wihd5b27n2hk</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Puff Sleeve Dress For Summer Vacation For New Year Clothes Vacation Beach Outfits Women</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/a28138de-993e-4a6a-adbc-5a5af731bff6.jpg,https://cf.cjdropshipping.com/3df13029-194e-4db0-a6c4-c2be75df46c2.jpg,https://cf.cjdropshipping.com/15d480b6-144f-4013-b132-e793e1d14033.jpg,https://cf.cjdropshipping.com/65d471d7-1796-479e-b986-a668ee7ae746.jpg,https://cf.cjdropshipping.com/bf6b5ff2-4cb8-427c-a84f-5abb346b5a86.jpg</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Step into summer with our Puff Sleeve Dress, perfect for vacation vibes and New Year celebrations! Effortlessly chic and comfortable, this stunning piece enhances your beach outfits with its playful design. Experience warmth and style in every setting—ideal for making unforgettable memories under the sun. Upgrade your wardrobe today!</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>144</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>[['Red-S', 'CJLY232923201AZ'], ['Red-M', 'CJLY232923202BY'], ['Red-L', 'CJLY232923203CX'], ['Red-XL', 'CJLY232923204DW'], ['Red-2XL', 'CJLY232923205EV'], ['Red-3XL', 'CJLY232923206FU'], ['Green-S', 'CJLY232923207GT'], ['Green-M', 'CJLY232923208HS'], ['Green-L', 'CJLY232923209IR'], ['Green-XL', 'CJLY232923210JQ'], ['Green-2XL', 'CJLY232923211KP'], ['Green-3XL', 'CJLY232923212LO']]</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>400</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>CJLY2329232</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>1901447848921321473</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>vd17i6zrmw6tduaror6nkqk6</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Women's Casual Denim-Style Sleeveless Dress With Pockets</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/28f78ade-2e03-41a4-a2a1-d2fc8f6d68e3.png,https://cf.cjdropshipping.com/7b41cd63-a7b3-49e1-baae-0b076ce39609.png,https://cf.cjdropshipping.com/d3fcc2b9-e14d-499b-b768-ba712be4f17b.png,https://cf.cjdropshipping.com/7cfc0183-e8c9-435e-90f0-7c54cfe2e9cd.png,https://cf.cjdropshipping.com/9689e309-962a-437b-af34-5f3e8d7611a8.png</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with our Women's Casual Denim-Style Sleeveless Dress. Designed with practicality in mind, it features convenient pockets and a flattering fit. Perfect for warm days, this versatile piece transitions from day to night seamlessly. Dress it up or down for any occasion, making it a must-have addition to your wardrobe!</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>22</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJLY232959801AZ'], ['Green-M', 'CJLY232959802BY'], ['Green-L', 'CJLY232959803CX'], ['Green-XL', 'CJLY232959804DW'], ['Green-2XL', 'CJLY232959805EV'], ['Green-3XL', 'CJLY232959806FU'], ['Blue-S', 'CJLY232959807GT'], ['Blue-M', 'CJLY232959808HS'], ['Blue-L', 'CJLY232959809IR'], ['Blue-XL', 'CJLY232959810JQ'], ['Blue-2XL', 'CJLY232959811KP'], ['Blue-3XL', 'CJLY232959812LO']]</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>390</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>CJLY2329598</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>1901521770467479553</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>j7ilfkdm6e7rugih6kd2ih7p</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Women's Elegant Vacation Casual Backto School Pleated Halter Mini Dress</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/15399a9e-9862-4394-9617-df8a7a80361a.jpg,https://cf.cjdropshipping.com/4ffbcdca-f1b2-425c-98fe-9fa43a91f34c.jpg,https://cf.cjdropshipping.com/e28b6ec8-3dcd-4b41-bbfd-a2a881b3f78c.jpg,https://cf.cjdropshipping.com/45994b88-6e80-4da7-b59b-529ee5cb235d.jpg,https://cf.cjdropshipping.com/81de03d7-1748-434b-9435-b8df95f8137a.jpg</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>36</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Step into style with our Women's Elegant Vacation Casual Back to School Pleated Halter Mini Dress. This chic dress features a flattering pleated design, perfect for any occasion. Lightweight and breathable, it ensures comfort while keeping you fashionable. Dress it up or down for a stunning look all season long!</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>35</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJLY232984301AZ'], ['Black-M', 'CJLY232984302BY'], ['Black-L', 'CJLY232984303CX'], ['Black-XL', 'CJLY232984304DW'], ['Black-2XL', 'CJLY232984305EV'], ['Black-3XL', 'CJLY232984306FU'], ['Hot Pink-S', 'CJLY232984307GT'], ['Hot Pink-M', 'CJLY232984308HS'], ['Hot Pink-L', 'CJLY232984309IR'], ['Hot Pink-XL', 'CJLY232984310JQ'], ['Hot Pink-2XL', 'CJLY232984311KP'], ['Hot Pink-3XL', 'CJLY232984312LO']]</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>400</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>CJLY2329843</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>1901561980270432258</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>zr5stx9h8yskqowuw260zojq</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Neck Sleeveless Top With All-Over Print Drawstring Waist And Pocket</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/4b83df89-f46c-44ce-9c30-6094be7fd469.jpg,https://cf.cjdropshipping.com/4bb4a96f-69a0-4942-88a9-9ab499dead96.jpg,https://cf.cjdropshipping.com/cc884355-a74b-4fb8-bdaf-b369ec8e5881.jpg,https://cf.cjdropshipping.com/dd2b78aa-c297-44ab-a9e1-1a5dab71488a.jpg,https://cf.cjdropshipping.com/97e680be-ffea-47de-95be-52719f49b0d5.jpg</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Neck Sleeveless Top featuring an eye-catching all-over print. Designed with a drawstring waist for a customizable fit, this top includes handy pockets for added convenience. Perfect for a casual day out or a relaxed evening, it’s a versatile addition to any wardrobe. Embrace comfort and fashion!</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>13</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJTZ232985601AZ'], ['Blue-M', 'CJTZ232985602BY'], ['Blue-L', 'CJTZ232985603CX'], ['Blue-XL', 'CJTZ232985604DW'], ['Blue-2XL', 'CJTZ232985605EV'], ['Blue-3XL', 'CJTZ232985606FU'], ['Green-S', 'CJTZ232985607GT'], ['Green-M', 'CJTZ232985608HS'], ['Green-L', 'CJTZ232985609IR'], ['Green-XL', 'CJTZ232985610JQ'], ['Green-2XL', 'CJTZ232985611KP'], ['Green-3XL', 'CJTZ232985612LO'], ['Yellow-S', 'CJTZ232985613MN'], ['Yellow-M', 'CJTZ232985614NM'], ['Yellow-L', 'CJTZ232985615OL'], ['Yellow-XL', 'CJTZ232985616PK'], ['Yellow-2XL', 'CJTZ232985617QJ'], ['Yellow-3XL', 'CJTZ232985618RI']]</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>440</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>CJTZ2329856</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>1901565262187749378</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>juaeeps9nkdnjgpq1w5qrnxk</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Tropical Print Tie Backless Cami Top &amp; Split Thigh Skirt Two Piece Set</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/63a16ad8-e594-4e42-b7b3-50d52719fa96.jpg,https://cf.cjdropshipping.com/0cd4d977-2baa-4a62-9d6e-933f0283379e.jpg,https://cf.cjdropshipping.com/0f3408ee-8305-4867-b893-d46a802c63ce.jpg,https://cf.cjdropshipping.com/88b6f460-1d4b-4cae-a0c1-97a6c4d7638a.jpg,https://cf.cjdropshipping.com/161e1f6b-7132-4c75-9a8a-f81bc23ac31d.jpg</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Unleash your inner island spirit with our Tropical Print Tie Backless Cami Top &amp; Split Thigh Skirt Two Piece Set. This stunning ensemble features a vibrant tropical design and a daring split skirt, perfect for effortless summer style. Feel confident and chic at parties, beach outings, or casual brunches. Grab yours now!</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>54</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJTZ232959501AZ'], ['White-M', 'CJTZ232959502BY'], ['White-L', 'CJTZ232959503CX'], ['White-XL', 'CJTZ232959504DW'], ['White-2XL', 'CJTZ232959505EV'], ['White-3XL', 'CJTZ232959506FU'], ['Green-S', 'CJTZ232959507GT'], ['Green-M', 'CJTZ232959508HS'], ['Green-L', 'CJTZ232959509IR'], ['Green-XL', 'CJTZ232959510JQ'], ['Green-2XL', 'CJTZ232959511KP'], ['Green-3XL', 'CJTZ232959512LO']]</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>420</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>CJTZ2329595</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>1901521690879459329</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ifs97las4e3w9hi8o5igbu6t</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Swim Women's Vacation Paisley Print V-Neck Batwing Sleeve Loose Cover-Up Dress Summer</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/f705fe81-d219-4080-87b5-c1240d07b438.png,https://cf.cjdropshipping.com/f89c70d4-86de-4624-bbe2-75ba9acce7a2.png,https://cf.cjdropshipping.com/d6f8af91-e258-467f-96fc-b1fa34f71206.png,https://cf.cjdropshipping.com/db0e2787-feec-42c3-b437-d1b3ad9b2e21.png,https://cf.cjdropshipping.com/05dfa87d-aa19-4b88-ad78-b120e43443f7.png</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Embrace sun-soaked days with our Swim Women's Vacation Paisley Print V-Neck Batwing Sleeve Loose Cover-Up Dress. Perfect for beach escapades or poolside lounging, this airy design offers effortless style and comfort. The chic paisley pattern adds a touch of flair, making it an essential addition to your summer wardrobe.</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>28</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>[['Purple-S', 'CJLY232874001AZ'], ['Purple-M', 'CJLY232874002BY'], ['Purple-L', 'CJLY232874003CX'], ['Purple-XL', 'CJLY232874004DW'], ['Purple-2XL', 'CJLY232874005EV'], ['Purple-3XL', 'CJLY232874006FU'], ['Green-S', 'CJLY232874007GT'], ['Green-M', 'CJLY232874008HS'], ['Green-L', 'CJLY232874009IR'], ['Green-XL', 'CJLY232874010JQ'], ['Green-2XL', 'CJLY232874011KP'], ['Green-3XL', 'CJLY232874012LO']]</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>390</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>CJLY2328740</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>1901088843912892418</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>oas4uz4arx1g9jjqqrwq8zvq</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Two Piece Set With Ditsy Floral Print Dress</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/41aa635a-11bd-4c16-a6ba-097edcf56b81.png,https://cf.cjdropshipping.com/e584204c-fbc4-4f92-8637-7af022d53516.png,https://cf.cjdropshipping.com/fee03660-3a52-4c89-a3da-b6a9747d67c1.png,https://cf.cjdropshipping.com/7bf21ed5-eaf9-4a28-9044-bf1cde6f82a1.png,https://cf.cjdropshipping.com/391839ee-bf4f-40b6-9950-ab8cfc671372.png,https://cf.cjdropshipping.com/2b377b58-dec0-4b66-8acc-1fedda2bdf95.png</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Transform your wardrobe with our Two Piece Set featuring a charming Ditsy Floral Print Dress. This playful ensemble effortlessly blends comfort and style, perfect for any occasion. Whether you’re brunching or heading out for a stroll, the delightful patterns and flattering fit will make you feel lovely and confident all day long.</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>85</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJTZ232743801AZ'], ['Blue-M', 'CJTZ232743802BY'], ['Blue-L', 'CJTZ232743803CX'], ['Blue-XL', 'CJTZ232743804DW'], ['Blue-2XL', 'CJTZ232743805EV'], ['Blue-3XL', 'CJTZ232743806FU'], ['Purple-S', 'CJTZ232743807GT'], ['Purple-M', 'CJTZ232743808HS'], ['Purple-L', 'CJTZ232743809IR'], ['Purple-XL', 'CJTZ232743810JQ'], ['Purple-2XL', 'CJTZ232743811KP'], ['Purple-3XL', 'CJTZ232743812LO']]</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>420</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>CJTZ2327438</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>1900437359700344834</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>oxr47wmzq1b1fdkrrrtiiwcb</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Blue V-Neck Twist Strap Jumpsuit For Women</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/cbe00dd1-4785-4e45-8fc6-5807004c9e30.png,https://cf.cjdropshipping.com/846d522e-21f5-4437-8dfe-f3b4938debe3.png,https://cf.cjdropshipping.com/7c1a0f12-9f8a-4599-80d5-7bbde226ed31.png,https://cf.cjdropshipping.com/6a65ce1d-e07e-428e-9fc4-50f933003499.png,https://cf.cjdropshipping.com/78861b3c-0fc3-4c8c-9d93-45cf04d4b8bd.png,https://cf.cjdropshipping.com/824fa6c8-e3f3-44d4-8f6c-dcb9a9a786b3.png</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Step into style with our Blue V-Neck Twist Strap Jumpsuit for Women. This eye-catching piece features a flattering silhouette and chic twisted straps, perfect for any occasion. Effortlessly transition from day to night while exuding confidence and flair. Make a statement wherever you go with this stylish must-have!</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Jumpsuits</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>138</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLS232741501AZ'], ['Blue-M', 'CJLS232741502BY'], ['Blue-L', 'CJLS232741503CX'], ['Blue-XL', 'CJLS232741504DW'], ['Blue-2XL', 'CJLS232741505EV'], ['Blue-3XL', 'CJLS232741506FU'], ['Navy Blue-S', 'CJLS232741507GT'], ['Navy Blue-M', 'CJLS232741508HS'], ['Navy Blue-L', 'CJLS232741509IR'], ['Navy Blue-XL', 'CJLS232741510JQ'], ['Navy Blue-2XL', 'CJLS232741511KP'], ['Navy Blue-3XL', 'CJLS232741512LO']]</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>370</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>CJLS2327415</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>1900435215262863361</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>0so39zag3g2eeqax0xtxbrdy</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Women Plaid Square Collar Cropped Tank Top And Bodycon Mini Skirt Set</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/80b602b4-7eb2-4846-bfe5-2b73a61b8705.png,https://cf.cjdropshipping.com/dda65608-c834-4096-a182-3c052198f9b5.png,https://cf.cjdropshipping.com/4fda91cc-f9d4-4283-ad29-0db15cf8f544.png,https://cf.cjdropshipping.com/9814b975-f08d-48bd-9e2c-ebe6cab51d44.png,https://cf.cjdropshipping.com/8a14c1e0-3d9e-4e97-906d-d404110993e0.png,https://cf.cjdropshipping.com/2a5bfef9-76d6-4340-85c0-68b8306f15e0.png</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>36</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Step out in style with our Women Plaid Square Collar Cropped Tank Top and Bodycon Mini Skirt Set. This chic ensemble features a trendy plaid design, perfect for casual outings or classy events. The snug fit accentuates your curves, while the cropped tank and mini skirt combine comfort and elegance seamlessly.</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>51</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJTZ232739101AZ'], ['Black-M', 'CJTZ232739102BY'], ['Black-L', 'CJTZ232739103CX'], ['Black-XL', 'CJTZ232739104DW'], ['Black-2XL', 'CJTZ232739105EV'], ['Black-3XL', 'CJTZ232739106FU'], ['Brown-S', 'CJTZ232739107GT'], ['Brown-M', 'CJTZ232739108HS'], ['Brown-L', 'CJTZ232739109IR'], ['Brown-XL', 'CJTZ232739110JQ'], ['Brown-2XL', 'CJTZ232739111KP'], ['Brown-3XL', 'CJTZ232739112LO']]</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>420</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>CJTZ2327391</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>1900432443322847233</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>n3nnbttvtx5tpnegzvtd9ldj</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Drop Shoulder Button Front Kimono,Long Sleeve Tops</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/aead14d6-ef64-4c89-8058-33f396fa0eba.jpg,https://cf.cjdropshipping.com/66b23899-db43-4aa7-8f65-7154224d2edb.jpg,https://cf.cjdropshipping.com/b18f26ab-0170-4c21-b53b-b718fcc29865.jpg,https://cf.cjdropshipping.com/74bce405-a74c-4c29-873e-22e4056a9ec2.jpg,https://cf.cjdropshipping.com/7f06c6fe-dadb-44fa-bda1-1a1e927b011e.png</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Introducing the Drop Shoulder Button Front Kimono, a stylish and versatile long sleeve top perfect for any occasion. This chic piece combines comfort with elegance, featuring a relaxed fit and button detailing. Dress it up or down effortlessly, making it a must-have staple in your wardrobe for year-round fashion.</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Blouses , Shirts</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>48</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJCS232571801AZ'], ['White-M', 'CJCS232571802BY'], ['White-L', 'CJCS232571803CX'], ['White-XL', 'CJCS232571804DW'], ['White-2XL', 'CJCS232571805EV'], ['White-3XL', 'CJCS232571806FU'], ['Pink-S', 'CJCS232571807GT'], ['Pink-M', 'CJCS232571808HS'], ['Pink-L', 'CJCS232571809IR'], ['Pink-XL', 'CJCS232571810JQ'], ['Pink-2XL', 'CJCS232571811KP'], ['Pink-3XL', 'CJCS232571812LO']]</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>400</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>CJCS2325718</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>1899994323651891202</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>f1u6374v2ofcege8pij3dp5i</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Women Contrast Polka Dot Print Casual Cold Shoulder Halter Blouse</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/e6635107-bc01-4d49-a7a2-1c4fc528d85e.jpg,https://cf.cjdropshipping.com/9af516dc-de3c-4f08-b5c8-99f8ac9f19eb.jpg,https://cf.cjdropshipping.com/f9e53151-7836-419a-8f17-d94796e85e1b.jpg,https://cf.cjdropshipping.com/95ea77d7-7ae6-4ed9-91c6-2542618367d8.jpg,https://cf.cjdropshipping.com/0c910730-9913-414d-bd3d-196e9ab1a10c.jpg</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>This stylish Women Contrast Polka Dot Print Casual Cold Shoulder Halter Blouse combines trendy design with comfort. Featuring playful polka dots and a chic cold shoulder, it’s perfect for casual outings or dressing up. Pair it with jeans or shorts for a flirty, fashionable look that effortlessly enhances your wardrobe.</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Camis</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>73</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJWC232585901AZ'], ['Blue-M', 'CJWC232585902BY'], ['Blue-L', 'CJWC232585903CX'], ['Blue-XL', 'CJWC232585904DW'], ['Blue-2XL', 'CJWC232585905EV'], ['Blue-3XL', 'CJWC232585906FU'], ['Pink-S', 'CJWC232585907GT'], ['Pink-M', 'CJWC232585908HS'], ['Pink-L', 'CJWC232585909IR'], ['Pink-XL', 'CJWC232585910JQ'], ['Pink-2XL', 'CJWC232585911KP'], ['Pink-3XL', 'CJWC232585912LO'], ['Red-S', 'CJWC232585913MN'], ['Red-M', 'CJWC232585914NM'], ['Red-L', 'CJWC232585915OL'], ['Red-XL', 'CJWC232585916PK'], ['Red-2XL', 'CJWC232585917QJ'], ['Red-3XL', 'CJWC232585918RI']]</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>360</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>CJWC2325859</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>1900018565579771906</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>s73ax03apme6v33yveqzoywk</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Love Print Casual Two-piece Set</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/15c98d18-7892-471a-a34e-a94abe7e2034.png,https://cf.cjdropshipping.com/92a43283-572c-4107-b644-920029e28c8f.png,https://cf.cjdropshipping.com/e6a44392-1e53-4876-b6b2-ad6344858211.png,https://cf.cjdropshipping.com/5a984f7e-24fc-4d05-a3f9-55a6715d3948.png,https://cf.cjdropshipping.com/927b07d1-d32f-4b70-9eda-d636ca8299fb.png</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Love Print Casual Two-piece Set
+Embrace comfort and style with our Love Print Casual Two-piece Set. Perfect for lounging or a casual outing, this chic ensemble features a playful design that radiates joy. Made with soft, breathable fabric, it ensures all-day comfort. Dress it up or down for effortless, fashionable looks every time!</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>46</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJTZ232576601AZ'], ['Black-M', 'CJTZ232576602BY'], ['Black-L', 'CJTZ232576603CX'], ['Black-XL', 'CJTZ232576604DW'], ['Black-2XL', 'CJTZ232576605EV'], ['Black-3XL', 'CJTZ232576606FU'], ['Red-S', 'CJTZ232576607GT'], ['Red-M', 'CJTZ232576608HS'], ['Red-L', 'CJTZ232576609IR'], ['Red-XL', 'CJTZ232576610JQ'], ['Red-2XL', 'CJTZ232576611KP'], ['Red-3XL', 'CJTZ232576612LO']]</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>300</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>CJTZ2325766</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>1900003067102203906</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>6y6siimpjic1d9v08y8osz2h</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Women Clothes Women's Casual Office Blouse</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/14ea0a10-a6ba-430e-992f-d17da4c74176.jpg,https://cf.cjdropshipping.com/fa464b20-beb1-4d39-b015-103ac6b71774.jpg,https://cf.cjdropshipping.com/f750a57e-519b-4667-a1cc-500bb0d6450b.jpg,https://cf.cjdropshipping.com/af01d61e-5d80-4904-8503-9f983350080e.jpg,https://cf.cjdropshipping.com/35c96eea-3cac-4c15-a419-18eedb3231a6.jpg</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Transform your work wardrobe with our Women's Casual Office Blouse. This stylish top combines comfort with sophistication, making it perfect for daily wear or business meetings. Crafted from breathable fabric, it offers a flattering fit for all body types. Dress it up or down for a versatile addition to your closet!</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Blouses , Shirts</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>258</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJCS232587201AZ'], ['White-M', 'CJCS232587202BY'], ['White-L', 'CJCS232587203CX'], ['White-XL', 'CJCS232587204DW'], ['White-2XL', 'CJCS232587205EV'], ['White-3XL', 'CJCS232587206FU'], ['Black-S', 'CJCS232587207GT'], ['Black-M', 'CJCS232587208HS'], ['Black-L', 'CJCS232587209IR'], ['Black-XL', 'CJCS232587210JQ'], ['Black-2XL', 'CJCS232587211KP'], ['Black-3XL', 'CJCS232587212LO']]</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>400</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>CJCS2325872</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>1900020639109451777</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>kr9d3swpc7zfzt1myllnycpo</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Elegant Solid Color Pants Set</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/f3f014b2-190f-48b0-8a02-836da41527cc.png,https://cf.cjdropshipping.com/97137966-b611-4f5e-a835-6099098a08a3.png,https://cf.cjdropshipping.com/8adf7d8e-0ad2-4a3f-bf61-21419b42c19d.png,https://cf.cjdropshipping.com/22305294-9384-4c10-908c-aaddac45d465.png,https://cf.cjdropshipping.com/3f9b0765-7c36-44ee-8c0b-84002594da74.png</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Elegant Solid Color Pants Set, designed for versatility and comfort. This chic ensemble features a tailored fit that flatters every figure, making it perfect for any occasion. Dress it up or down; you’ll enjoy endless outfit possibilities while exuding sophistication. Elevate your wardrobe today!</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>67</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJTZ232577201AZ'], ['Blue-M', 'CJTZ232577202BY'], ['Blue-L', 'CJTZ232577203CX'], ['Blue-XL', 'CJTZ232577204DW'], ['Blue-2XL', 'CJTZ232577205EV'], ['Blue-3XL', 'CJTZ232577206FU'], ['Black-S', 'CJTZ232577207GT'], ['Black-M', 'CJTZ232577208HS'], ['Black-L', 'CJTZ232577209IR'], ['Black-XL', 'CJTZ232577210JQ'], ['Black-2XL', 'CJTZ232577211KP'], ['Black-3XL', 'CJTZ232577212LO'], ['Orange-S', 'CJTZ232577213MN'], ['Orange-M', 'CJTZ232577214NM'], ['Orange-L', 'CJTZ232577215OL'], ['Orange-XL', 'CJTZ232577216PK'], ['Orange-2XL', 'CJTZ232577217QJ'], ['Orange-3XL', 'CJTZ232577218RI']]</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>390</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>CJTZ2325772</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>1900004966287249409</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>msy261n15voe3edith8y4rh8</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Solid Batwing Sleeve Twist Front Dress Vacation Beach Outfits Women</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/6a277f70-e85e-4c5f-8cd4-7f7e5ac526a5.jpg,https://cf.cjdropshipping.com/c4824dff-52f3-4b26-8332-f0db115bc202.jpg,https://cf.cjdropshipping.com/cab2d27d-8d29-42b6-a23b-7d1788c14dbc.jpg,https://cf.cjdropshipping.com/97b05a61-4ff4-43c9-b2f4-81a9a85bdbaf.jpg,https://cf.cjdropshipping.com/28cacf10-ab10-454a-871d-f4153fb95b5c.jpg</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Get ready to turn heads with the Solid Batwing Sleeve Twist Front Dress. Perfect for beach vacations or casual outings, this stylish dress combines elegance and comfort. The unique twist front design accentuates your silhouette, while the batwing sleeves offer a relaxed fit. Embrace effortless chicness and enhance your wardrobe today!</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>64</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLY232487901AZ'], ['Blue-M', 'CJLY232487902BY'], ['Blue-L', 'CJLY232487903CX'], ['Blue-XL', 'CJLY232487904DW'], ['Blue-2XL', 'CJLY232487905EV'], ['Blue-3XL', 'CJLY232487906FU'], ['Pink-S', 'CJLY232487907GT'], ['Pink-M', 'CJLY232487908HS'], ['Pink-L', 'CJLY232487909IR'], ['Pink-XL', 'CJLY232487910JQ'], ['Pink-2XL', 'CJLY232487911KP'], ['Pink-3XL', 'CJLY232487912LO'], ['Hot Pink-S', 'CJLY232487913MN'], ['Hot Pink-M', 'CJLY232487914NM'], ['Hot Pink-L', 'CJLY232487915OL'], ['Hot Pink-XL', 'CJLY232487916PK'], ['Hot Pink-2XL', 'CJLY232487917QJ'], ['Hot Pink-3XL', 'CJLY232487918RI']]</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>400</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>CJLY2324879</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>1899691445842317313</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>p7qz95h8w2dxg8gks8ky6m7l</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Lace Tie Double Layer Swing Dress</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/a10b6b4b-099c-457f-b009-02acdb546398.jpg,https://cf.cjdropshipping.com/81ab0918-73ca-4527-8118-7f721c093c81.jpg,https://cf.cjdropshipping.com/6c466f0e-a3e0-403f-800b-18033e277bd3.jpg,https://cf.cjdropshipping.com/0e3bb272-906e-4066-a968-b96b10626338.jpg</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with the Lace Tie Double Layer Swing Dress. This captivating piece features delicate lace accents and a flowing design that flatters all body types. Perfect for day-to-night versatility, it effortlessly combines elegance with comfort. Stand out at any event and feel fabulous in this stunning dress!</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>13</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>[['Brown-S', 'CJLY232499601AZ'], ['Brown-M', 'CJLY232499602BY'], ['Brown-L', 'CJLY232499603CX'], ['Brown-XL', 'CJLY232499604DW']]</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>535</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>CJLY2324996</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>1899709982157803522</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>l0zpkdgjcvr7nwqwjj3yjlzm</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Irregular Rhinestone Jeans</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/2ce302e4-4cbb-4eb1-ba17-ece4baf2c15c.jpg,https://cf.cjdropshipping.com/84334e4f-e147-4628-8878-a71dfbdbbc36.jpg,https://cf.cjdropshipping.com/42d73484-4216-4a27-b4db-107eafdeb886.jpg</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Step up your style game with our Irregular Rhinestone Jeans! Featuring a unique design adorned with dazzling rhinestones, these jeans effortlessly blend comfort and flair. Perfect for any occasion, they add a touch of glamour to your look. Stand out from the crowd and make a statement with every step!</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Bottoms,Woman Jeans</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>115</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>[['Blue-XS', 'CJNZ232477401AZ'], ['Blue-S', 'CJNZ232477402BY'], ['Blue-M', 'CJNZ232477403CX'], ['Blue-L', 'CJNZ232477404DW'], ['Blue-XL', 'CJNZ232477405EV']]</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>763</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>CJNZ2324774</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>1899665131769716738</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ua22xxizcv27w5k845ul83nc</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Print Drawstring Waist A-line Dress</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/19d38399-9da6-4c3b-827a-88c9525de405.jpg,https://cf.cjdropshipping.com/51ed958b-c702-475d-a242-04090c39e547.jpg,https://cf.cjdropshipping.com/f8c0d2fe-9a3d-4cdb-91d6-b4a7a57270b4.jpg,https://cf.cjdropshipping.com/537b9968-4b4c-4214-ad4f-312c9c992e26.jpg,https://cf.cjdropshipping.com/2f4d8577-5192-4953-976f-a2f64fcdeaf4.jpg</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Print Drawstring Waist A-line Dress! This trendy piece features a flattering silhouette, comfortable drawstring waist, and vibrant patterns, perfect for any occasion. Whether it's brunch or a casual outing, this dress combines chic and comfort, ensuring you look fabulous while feeling your best. Upgrade your wardrobe today!</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>25</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJLY232486701AZ'], ['White-M', 'CJLY232486702BY'], ['White-L', 'CJLY232486703CX'], ['White-XL', 'CJLY232486704DW'], ['White-2XL', 'CJLY232486705EV'], ['White-3XL', 'CJLY232486706FU'], ['Burnt Orange-S', 'CJLY232486707GT'], ['Burnt Orange-M', 'CJLY232486708HS'], ['Burnt Orange-L', 'CJLY232486709IR'], ['Burnt Orange-XL', 'CJLY232486710JQ'], ['Burnt Orange-2XL', 'CJLY232486711KP'], ['Burnt Orange-3XL', 'CJLY232486712LO']]</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>400</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>CJLY2324867</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>1899689721777852417</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>gnun7a8rnihofpy496eh0gzl</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>White Pleated Long Sleeve Shirt Dress</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/6d8d02fc-2057-49c6-a55b-6666b681dae8.jpg,https://cf.cjdropshipping.com/331d0da4-3786-401e-9fa3-2f5d96ff3862.jpg,https://cf.cjdropshipping.com/df6753ae-d4ad-4f16-a167-e4d63a989fac.jpg,https://cf.cjdropshipping.com/af2f3c84-aabe-4dac-9e58-94a41e6cebfe.jpg,https://cf.cjdropshipping.com/aecca4a5-265f-4504-a4f6-909231d1bdda.jpg</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Transform your wardrobe with our White Pleated Long Sleeve Shirt Dress. This chic and versatile piece offers a flattering silhouette, perfect for any occasion. Crafted from high-quality fabric, it combines comfort with elegance. Dress it up with heels or keep it casual with sneakers—ideal for every stylish woman’s collection!</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>16</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>[['White-XS', 'CJLY232535401AZ'], ['White-S', 'CJLY232535402BY'], ['White-M', 'CJLY232535403CX'], ['White-L', 'CJLY232535404DW'], ['White-XL', 'CJLY232535405EV']]</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>480</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>CJLY2325354</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>1899755384697491457</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>15gwcjlry4vcqhpoej99ps7k</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Women's Casual Solid Color Round Neck Twist Waist Sleeveless Loose Commuter Dress</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/0bf256b1-a255-408b-93d6-9365f5fe6e05.jpg,https://cf.cjdropshipping.com/8b89cb43-fad6-42d0-b581-4a5d7e857a4e.jpg,https://cf.cjdropshipping.com/a6759bf1-59e5-4e6a-8f37-6ba22438ee45.jpg,https://cf.cjdropshipping.com/93ab47e5-5c78-4472-b438-7985d90c8b85.jpg,https://cf.cjdropshipping.com/3d2771c1-5fc3-4e49-b794-cef13a969fc0.jpg</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Experience effortless style with our Women's Casual Solid Color Round Neck Twist Waist Sleeveless Loose Commuter Dress. Perfect for any occasion, this versatile piece combines comfort and chic design. Its flattering silhouette and breathable fabric make it a must-have for your wardrobe. Embrace individuality and shine wherever you go!</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>66</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>[['Navy Blue-S', 'CJLY232490101AZ'], ['Navy Blue-M', 'CJLY232490102BY'], ['Navy Blue-L', 'CJLY232490103CX'], ['Navy Blue-XL', 'CJLY232490104DW'], ['Navy Blue-2XL', 'CJLY232490105EV'], ['Navy Blue-3XL', 'CJLY232490106FU'], ['Green-S', 'CJLY232490107GT'], ['Green-M', 'CJLY232490108HS'], ['Green-L', 'CJLY232490109IR'], ['Green-XL', 'CJLY232490110JQ'], ['Green-2XL', 'CJLY232490111KP'], ['Green-3XL', 'CJLY232490112LO']]</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>400</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>CJLY2324901</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>1899694907158138881</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>16zkh3w22qtop5n5h270k2fo</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Women's Round Neck Solid Color Split Hem Sleeveless Casual Shirt For Summer</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/bbfefcb3-0092-4dfc-9a8e-7deab605af60.jpg,https://cf.cjdropshipping.com/1423f06a-5fbd-4c5c-a380-48878c448e62.jpg,https://cf.cjdropshipping.com/412c98ad-5b7b-46c2-8ba2-f11ad0c33a2c.jpg,https://cf.cjdropshipping.com/a9d8d3a2-5c3f-41b0-b196-4c88a1efd8c8.jpg,https://cf.cjdropshipping.com/f9cc1c40-6992-445e-9d21-d9a0b1273efe.jpg</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Stay cool and stylish this summer with our Women's Round Neck Solid Color Split Hem Sleeveless Casual Shirt. Crafted for comfort and versatility, this chic top effortlessly complements any outfit. Perfect for sunny days, it offers a flattering silhouette and breathable fabric, making it a must-have addition to your wardrobe!</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>22</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>[['Apricot-S', 'CJLY232356901AZ'], ['Apricot-M', 'CJLY232356902BY'], ['Apricot-L', 'CJLY232356903CX'], ['Apricot-XL', 'CJLY232356904DW'], ['Apricot-2XL', 'CJLY232356905EV'], ['Apricot-3XL', 'CJLY232356906FU'], ['Green-S', 'CJLY232356907GT'], ['Green-M', 'CJLY232356908HS'], ['Green-L', 'CJLY232356909IR'], ['Green-XL', 'CJLY232356910JQ'], ['Green-2XL', 'CJLY232356911KP'], ['Green-3XL', 'CJLY232356912LO']]</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>370</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>CJLY2323569</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>1899280391072870402</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>gzijiuopxeybtj6lzskgzktf</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Solid Color Jacquard Suit Vest Jacket</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/017f76a9-a0d5-4def-9e26-52766d7ef7e1.png,https://cf.cjdropshipping.com/0ea02f40-5c8a-4dd6-a5f7-1a84f728369a.png,https://oss-cf.cjdropshipping.com/product/2025/03/13/02/0cfba7de-fae1-4468-a092-3489c6c534aa.jpg,https://oss-cf.cjdropshipping.com/product/2025/03/13/02/bb203e75-9a84-43f5-95f5-08452865f4d9.jpg,https://oss-cf.cjdropshipping.com/product/2025/03/13/02/307eb7fa-832a-41ce-a401-a1b7f615753b.jpg</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Enhance your wardrobe with our Solid Color Jacquard Suit Vest Jacket. Crafted from high-quality fabric, this stylish vest offers a sophisticated look for any occasion. Its intricate jacquard design adds texture, while the tailored fit ensures comfort. Perfect for formal events or adding flair to everyday attire, it's a must-have piece!</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Vests</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>52</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>[['Apricot-S', 'CJWV232412501AZ'], ['Apricot-M', 'CJWV232412502BY'], ['Apricot-L', 'CJWV232412503CX'], ['Apricot-XL', 'CJWV232412504DW'], ['Apricot-2XL', 'CJWV232412505EV'], ['Apricot-3XL', 'CJWV232412506FU'], ['Black-S', 'CJWV232412507GT'], ['Black-M', 'CJWV232412508HS'], ['Black-L', 'CJWV232412509IR'], ['Black-XL', 'CJWV232412510JQ'], ['Black-2XL', 'CJWV232412511KP'], ['Black-3XL', 'CJWV232412512LO']]</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>400</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>CJWV2324125</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>1899382650100490242</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>r08q9urygk3dujzo8bz3ogpt</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Elegant Color Short Sleeve Dress For Spring  Summer Women's Clothing</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/0ec046f2-30e1-4573-be67-7806b4ce7087.jpg,https://cf.cjdropshipping.com/d28eabbc-5e4f-41af-8498-2d5ff1087fd9.jpg,https://cf.cjdropshipping.com/d4cfdafb-62c2-4069-8d32-d24e0d28b916.png,https://cf.cjdropshipping.com/72508da2-67c9-473a-99bb-f5b8c27e80ab.jpg,https://cf.cjdropshipping.com/89ad6a65-c1c3-4948-8265-ef106ffd3769.png</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with our Elegant Color Short Sleeve Dress, perfect for spring and summer! This chic garment combines comfort and sophistication, featuring a flattering silhouette and vibrant hues. Ideal for any occasion, it’ll become your go-to choice for sunny days. Step out in confidence and make a statement!</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>60</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLY232352701AZ'], ['Blue-M', 'CJLY232352702BY'], ['Blue-L', 'CJLY232352703CX'], ['Blue-XL', 'CJLY232352704DW'], ['Blue-2XL', 'CJLY232352705EV'], ['Blue-3XL', 'CJLY232352706FU'], ['Green-S', 'CJLY232352707GT'], ['Green-M', 'CJLY232352708HS'], ['Green-L', 'CJLY232352709IR'], ['Green-XL', 'CJLY232352710JQ'], ['Green-2XL', 'CJLY232352711KP'], ['Green-3XL', 'CJLY232352712LO']]</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>420</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>CJLY2323527</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>1899273437911162881</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>0m0g9faiyvae2nx8nzv5f1cg</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Neckline Tie-Up Allover Allover Print Sexy Boho Sleeveless Dress</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/8a263f43-06f3-4b2f-a90f-b8b56330a94a.jpg,https://cf.cjdropshipping.com/1d080208-0fd8-4533-912d-88dbd0bd567d.png,https://cf.cjdropshipping.com/d4c21235-7fa3-4326-9a4c-e6bb29faeb25.jpg,https://cf.cjdropshipping.com/f442aa78-05a7-4022-85a6-46cbc012e085.jpg,https://cf.cjdropshipping.com/80a3808d-a70c-424f-9a54-00656a588bd9.jpg</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Experience effortless style with our Neckline Tie-Up Allover Print Sexy Boho Sleeveless Dress. Perfect for summer outings, this flowy piece features a vibrant print and a chic tie-up neckline. Embrace your inner bohemian spirit while staying comfortable and fashionable. Ideal for beach days, parties, or casual gatherings—make it yours today!</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>25</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJLY232397501AZ'], ['White-M', 'CJLY232397502BY'], ['White-L', 'CJLY232397503CX'], ['White-XL', 'CJLY232397504DW'], ['White-2XL', 'CJLY232397505EV'], ['White-3XL', 'CJLY232397506FU'], ['Black-S', 'CJLY232397507GT'], ['Black-M', 'CJLY232397508HS'], ['Black-L', 'CJLY232397509IR'], ['Black-XL', 'CJLY232397510JQ'], ['Black-2XL', 'CJLY232397511KP'], ['Black-3XL', 'CJLY232397512LO']]</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>450</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>CJLY2323975</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>1899362072291143682</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>4yprj9bp00cz0ss53g7kkxzv</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Sleeve Pocket Patched Cover Up Dress,Summer Beac</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/793d2a7c-b513-4527-8ece-8d294dfa4f1a.jpg,https://cf.cjdropshipping.com/fd50176e-ac00-41f0-b1eb-c40ad31b0ac7.jpg,https://cf.cjdropshipping.com/90896742-0eee-442c-aa2c-f46db0de84f1.jpg,https://cf.cjdropshipping.com/e3ec9c2c-bb10-4c71-babd-288c7143dabb.jpg,https://cf.cjdropshipping.com/219e6dc8-200e-4839-b5a2-bf30978ef9ab.jpg</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Embrace summer vibes with our Sleeve Pocket Patched Cover Up Dress! Perfect for beach outings or casual gatherings, this stylish dress features convenient pockets and a trendy design that flatters every figure. Lightweight and breathable, it's your ideal companion for sunny days. Get ready to turn heads while staying effortlessly chic!</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Blouses , Shirts</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>64</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>[['Orange-S', 'CJCS232410301AZ'], ['Orange-M', 'CJCS232410302BY'], ['Orange-L', 'CJCS232410303CX'], ['Orange-XL', 'CJCS232410304DW'], ['Orange-2XL', 'CJCS232410305EV'], ['Orange-3XL', 'CJCS232410306FU'], ['Black-S', 'CJCS232410307GT'], ['Black-M', 'CJCS232410308HS'], ['Black-L', 'CJCS232410309IR'], ['Black-XL', 'CJCS232410310JQ'], ['Black-2XL', 'CJCS232410311KP'], ['Black-3XL', 'CJCS232410312LO']]</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>400</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>CJCS2324103</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>1899377396621484034</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>iv9u8z8fjk19ta4ttf82g8nq</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Women's Solid Color V-Neck Long Sleeve Simple Casual Blouse</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/3961fd8b-1a47-4b8e-8353-c40158dd5ad5.jpg,https://cf.cjdropshipping.com/0b2ad13f-997b-49d0-98ee-13785aef8445.jpg,https://cf.cjdropshipping.com/dc0158f4-b592-479f-88d5-e79e2e8dfd5a.jpg,https://cf.cjdropshipping.com/dfb642ed-0d9f-4c96-95b5-5778d7b60951.jpg,https://cf.cjdropshipping.com/d15b5c7f-1a35-4eaa-a679-f47c638c90c5.jpg</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Introducing the Women's Solid Color V-Neck Long Sleeve Blouse! This chic and versatile top features a flattering V-neckline, making it perfect for casual outings or office wear. Crafted from soft, breathable fabric, it ensures comfort throughout the day. Pair it effortlessly with jeans or skirts for a stylish look!</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Short-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>51</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJWS232409201AZ'], ['White-M', 'CJWS232409202BY'], ['White-L', 'CJWS232409203CX'], ['White-XL', 'CJWS232409204DW'], ['White-2XL', 'CJWS232409205EV'], ['White-3XL', 'CJWS232409206FU'], ['Pink-S', 'CJWS232409207GT'], ['Pink-M', 'CJWS232409208HS'], ['Pink-L', 'CJWS232409209IR'], ['Pink-XL', 'CJWS232409210JQ'], ['Pink-2XL', 'CJWS232409211KP'], ['Pink-3XL', 'CJWS232409212LO']]</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>400</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>CJWS2324092</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>1899376121695674369</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ctd2vnkz39wdu3bugobi7x62</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Women's Solid Color Contrast Lace Short Sleeve Casual Shirt</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/d1a46e41-6b29-4fae-8e3b-32ab5e2d87a4.jpg,https://cf.cjdropshipping.com/17476128/1924365117391376384.jpg,https://cf.cjdropshipping.com/17476128/1924359857776103424.jpg,https://cf.cjdropshipping.com/7e9c667a-e0f3-4b8b-b284-8811ae64d434.jpg,https://cf.cjdropshipping.com/47871583-262d-4964-94c2-c84c592a7305.jpg,https://cf.cjdropshipping.com/17476128/1924365116720287744.jpg,https://cf.cjdropshipping.com/fa4c700a-0925-4e1d-9324-ea17a41f8fc1.jpg,https://cf.cjdropshipping.com/17476128/1924359867179732992.jpg,https://cf.cjdropshipping.com/17476128/1924359864268886016.jpg,https://cf.cjdropshipping.com/17476128/1924359855972552704.jpg,https://cf.cjdropshipping.com/e93c4db4-264f-4af2-8abc-2de6c2600876.jpg,https://cf.cjdropshipping.com/17476128/1924359865728503808.jpg,https://cf.cjdropshipping.com/17476128/1924359861127352320.jpg,https://cf.cjdropshipping.com/17476128/1924359858929537024.jpg,https://cf.cjdropshipping.com/17476128/1924359862435975168.jpg,https://cf.cjdropshipping.com/17476128/1924359863941730304.jpg,https://cf.cjdropshipping.com/17476128/1924359858136813568.jpg,https://cf.cjdropshipping.com/17476128/1924359863518105600.jpg,https://cf.cjdropshipping.com/17476128/1924359860707921920.jpg,https://cf.cjdropshipping.com/17476128/1924365117743697920.jpg,https://cf.cjdropshipping.com/17476128/1924359866626084864.jpg,https://cf.cjdropshipping.com/17476128/1924359856211628032.jpg,https://cf.cjdropshipping.com/17476128/1924359858552049664.jpg,https://cf.cjdropshipping.com/17476128/1924359865145495552.jpg,https://cf.cjdropshipping.com/17476128/1924359856782053376.jpg,https://cf.cjdropshipping.com/17476128/1924359862855405568.jpg,https://cf.cjdropshipping.com/17476128/1924359860020056064.jpg,https://cf.cjdropshipping.com/17476128/1924359864587653120.jpg,https://cf.cjdropshipping.com/17476128/1924359859520933888.jpg,https://cf.cjdropshipping.com/17476128/1924359857167929344.jpg,https://cf.cjdropshipping.com/17476128/1924359861865549824.jpg,https://cf.cjdropshipping.com/17476128/1924359855397933056.jpg</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>36</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Introducing our Women's Solid Color Contrast Lace Short Sleeve Casual Shirt! This stylish top features delicate lace detailing that adds a touch of elegance to your everyday look. Crafted for comfort and versatility, it's perfect for casual outings or daytime events. Upgrade your wardrobe with this chic essential today!</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Blouses , Shirts</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>22</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>[['Watermelon Pink-S', 'CJCS232406701AZ'], ['Watermelon Pink-M', 'CJCS232406702BY'], ['Watermelon Pink-L', 'CJCS232406703CX'], ['Watermelon Pink-XL', 'CJCS232406704DW'], ['Watermelon Pink-2XL', 'CJCS232406705EV'], ['Watermelon Pink-3XL', 'CJCS232406706FU'], ['Khaki-S', 'CJCS232406707GT'], ['Khaki-M', 'CJCS232406708HS'], ['Khaki-L', 'CJCS232406709IR'], ['Khaki-XL', 'CJCS232406710JQ'], ['Khaki-2XL', 'CJCS232406711KP'], ['Khaki-3XL', 'CJCS232406712LO'], ['Blue-S', 'CJCS232406713MN'], ['Blue-M', 'CJCS232406714NM'], ['Blue-L', 'CJCS232406715OL'], ['Blue-XL', 'CJCS232406716PK'], ['Blue-2XL', 'CJCS232406717QJ'], ['Blue-3XL', 'CJCS232406718RI'], ['Black-S', 'CJCS232406719SH'], ['Black-M', 'CJCS232406720TG'], ['Black-L', 'CJCS232406721UF'], ['Black-XL', 'CJCS232406722VE'], ['Black-2XL', 'CJCS232406723WD'], ['Black-3XL', 'CJCS232406724XC'], ['Green-S', 'CJCS232406725YB'], ['Green-M', 'CJCS232406726ZA'], ['Green-L', 'CJCS232406727AZ'], ['Green-XL', 'CJCS232406728BY'], ['Green-2XL', 'CJCS232406729CX'], ['Green-3XL', 'CJCS232406730DW'], ['Brown-S', 'CJCS232406731EV'], ['Brown-M', 'CJCS232406732FU'], ['Brown-L', 'CJCS232406733GT'], ['Brown-XL', 'CJCS232406734HS'], ['Brown-2XL', 'CJCS232406735IR'], ['Brown-3XL', 'CJCS232406736JQ'], ['Watermelon Pink-4XL', 'CJCS232406737KP'], ['Watermelon Pink-5XL', 'CJCS232406738LO'], ['Khaki-4XL', 'CJCS232406739MN'], ['Khaki-5XL', 'CJCS232406740NM'], ['Blue-4XL', 'CJCS232406741OL'], ['Blue-5XL', 'CJCS232406742PK'], ['Black-4XL', 'CJCS232406743QJ'], ['Black-5XL', 'CJCS232406744RI'], ['Green-4XL', 'CJCS232406745SH'], ['Green-5XL', 'CJCS232406746TG'], ['Brown-4XL', 'CJCS232406747UF'], ['Brown-5XL', 'CJCS232406748VE']]</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>440</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>CJCS2324067</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>1899372710640197634</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>r961ce3uinolrf3imrd037iw</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Women's Elegant Textured Casual Comfortable Long Pants</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/674dacb3-0c34-4e69-a548-6b5843a3854e.jpg,https://cf.cjdropshipping.com/dba6d791-3993-4b17-ab18-3ec7315bf47d.jpg,https://cf.cjdropshipping.com/6ade1259-7d06-4846-bba8-322c51e8d899.jpg,https://cf.cjdropshipping.com/ac116ede-90c0-4a0b-9b9c-6c2ad68936ec.jpg,https://cf.cjdropshipping.com/69b1ae79-2f4a-4b93-981f-cec8a4aa913f.jpg</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Introducing Women's Elegant Textured Casual Comfortable Long Pants, designed for versatility and style. Crafted from soft, breathable fabric, these pants offer an effortless fit suitable for various occasions. The unique texture adds sophistication, making them perfect for dressing up or down. Experience unparalleled comfort without sacrificing elegance in your wardrobe.</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Bottoms,Wide Leg Pants</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>40</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>[['Hot Pink-S', 'CJKT232391501AZ'], ['Hot Pink-M', 'CJKT232391502BY'], ['Hot Pink-L', 'CJKT232391503CX'], ['Hot Pink-XL', 'CJKT232391504DW'], ['Hot Pink-2XL', 'CJKT232391505EV'], ['Hot Pink-3XL', 'CJKT232391506FU'], ['Black-S', 'CJKT232391507GT'], ['Black-M', 'CJKT232391508HS'], ['Black-L', 'CJKT232391509IR'], ['Black-XL', 'CJKT232391510JQ'], ['Black-2XL', 'CJKT232391511KP'], ['Black-3XL', 'CJKT232391512LO']]</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>400</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>CJKT2323915</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>1899354103893958657</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>hy9nhbgv7ln8eoeiavfolk60</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Women's Summer Holiday Floral Wrap Dress With Button Closure, Elastic Waistband And Belt Vacation Beach Outfit</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/73891a58-b11f-487d-93dc-9ffae31d7345.jpg,https://cf.cjdropshipping.com/1b5fbfd5-cd5e-47f1-b458-1ff33f98c971.jpg,https://cf.cjdropshipping.com/4f50c251-e971-4f21-a810-210638a3c2eb.jpg,https://cf.cjdropshipping.com/9bd54944-3810-4d2b-9887-630015797515.jpg,https://cf.cjdropshipping.com/c82941dd-21f8-4427-ae79-be613852f835.jpg</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Embrace effortless elegance with our Women's Summer Holiday Floral Wrap Dress. Featuring a stylish button closure, comfortable elastic waistband, and chic belt, this dress is perfect for beach vacations or sunny outings. Its vibrant floral print will brighten up any occasion, ensuring you stand out while enjoying your summer adventures.</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>66</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>[['White-S', 'CJLY232362001AZ'], ['White-M', 'CJLY232362002BY'], ['White-L', 'CJLY232362003CX'], ['White-XL', 'CJLY232362004DW'], ['White-2XL', 'CJLY232362005EV'], ['White-3XL', 'CJLY232362006FU'], ['Blue-S', 'CJLY232362007GT'], ['Blue-M', 'CJLY232362008HS'], ['Blue-L', 'CJLY232362009IR'], ['Blue-XL', 'CJLY232362010JQ'], ['Blue-2XL', 'CJLY232362011KP'], ['Blue-3XL', 'CJLY232362012LO']]</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>420</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>CJLY2323620</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>1899287802521559042</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>gkszqzxjun192xibuz91gnhg</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2pcs Solid Color Casual Tube Top And Shorts Set</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/a09f5d01-ee5c-4d2a-af1e-f6f3157c2544.jpg,https://cf.cjdropshipping.com/85f87094-7dfc-4cfd-85a4-9812e9ad4b45.jpg,https://cf.cjdropshipping.com/4c07f91d-ad4a-482a-8a71-76bc0dbabd50.jpg,https://cf.cjdropshipping.com/7fa8d171-25fa-4a17-a960-330f691fff4f.jpg,https://cf.cjdropshipping.com/d7fd751b-7bab-4c55-a189-adfd5f93c290.jpg</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Step into summer with our 2pcs Solid Color Casual Tube Top and Shorts Set. This trendy ensemble features a comfortable and stylish tube top paired with relaxed shorts, perfect for any outing. Available in vibrant colors, it’s ideal for beach trips or casual hangouts. Embrace effortless chicness this season!</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>15</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJTZ232365801AZ'], ['Black-M', 'CJTZ232365802BY'], ['Black-L', 'CJTZ232365803CX'], ['Black-XL', 'CJTZ232365804DW'], ['Black-2XL', 'CJTZ232365805EV'], ['Black-3XL', 'CJTZ232365806FU'], ['Rose red-S', 'CJTZ232365807GT'], ['Rose red-M', 'CJTZ232365808HS'], ['Rose red-L', 'CJTZ232365809IR'], ['Rose red-XL', 'CJTZ232365810JQ'], ['Rose red-2XL', 'CJTZ232365811KP'], ['Rose red-3XL', 'CJTZ232365812LO']]</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>420</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>CJTZ2323658</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>1899294518562484225</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ohpgokynbtz68duraven6ea8</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Solid Wide Leg Tube Jumpsuit</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/28bcda07-fdc3-45dd-9027-c5659fd44d74.jpg,https://cf.cjdropshipping.com/c338b6d4-dd00-46a3-b103-070ef0139118.jpg,https://cf.cjdropshipping.com/46b71d82-f404-46c4-a106-f9b19e946d8b.jpg,https://cf.cjdropshipping.com/86394941-3c79-4a89-bcb6-0b78a3e30e1a.jpg,https://cf.cjdropshipping.com/55f26d92-469a-4302-a989-aae617378474.jpg</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>40</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Experience effortless style with our Solid Wide Leg Tube Jumpsuit. This chic and comfy design offers a flattering fit, perfect for any occasion. Crafted from high-quality fabric, it ensures all-day comfort while maintaining a modern silhouette. Pair it with your favorite accessories for a stunning look that’s sure to turn heads!</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Rompers</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>41</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJLT232400301AZ'], ['Black-M', 'CJLT232400302BY'], ['Black-L', 'CJLT232400303CX'], ['Black-XL', 'CJLT232400304DW'], ['Black-2XL', 'CJLT232400305EV'], ['Black-3XL', 'CJLT232400306FU'], ['Green-S', 'CJLT232400307GT'], ['Green-M', 'CJLT232400308HS'], ['Green-L', 'CJLT232400309IR'], ['Green-XL', 'CJLT232400310JQ'], ['Green-2XL', 'CJLT232400311KP'], ['Green-3XL', 'CJLT232400312LO']]</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>400</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>CJLT2324003</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>1899365643078299650</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>0x91315o3i8mmdupuw7tm9xr</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Button Back Ruffle Hem Denim Dress</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/74eea11c-176e-463d-9ce8-11aa7c37eb26.jpg,https://cf.cjdropshipping.com/6f518327-cb24-4343-a743-eb86fa6f87e8.jpg,https://cf.cjdropshipping.com/565d0cf6-eecc-4827-8286-9b14e913a123.jpg,https://cf.cjdropshipping.com/b0d69d06-6ebe-43d5-b0bd-740d18819776.jpg,https://cf.cjdropshipping.com/c3844752-1daf-44a8-a7f9-bdca5f28e8c8.jpg</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Introducing the Button Back Ruffle Hem Denim Dress, a chic blend of comfort and style. This versatile piece features an eye-catching button detail and playful ruffle hem, perfect for any occasion. Dress it up or down effortlessly, making it an essential addition to your wardrobe. Unleash your inner fashionista!</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J256" t="n">
+        <v>34</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLY232408001AZ'], ['Blue-M', 'CJLY232408002BY'], ['Blue-L', 'CJLY232408003CX'], ['Blue-XL', 'CJLY232408004DW'], ['Blue-2XL', 'CJLY232408005EV'], ['Blue-3XL', 'CJLY232408006FU'], ['Burgundy-S', 'CJLY232408007GT'], ['Burgundy-M', 'CJLY232408008HS'], ['Burgundy-L', 'CJLY232408009IR'], ['Burgundy-XL', 'CJLY232408010JQ'], ['Burgundy-2XL', 'CJLY232408011KP'], ['Burgundy-3XL', 'CJLY232408012LO']]</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>400</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>CJLY2324080</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>1899374143468969985</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>4gb4pkhqmiz9psy9dwtskka0</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Womens Summer Dresses Short Sleeve V Neck Drawstring Casual Flowy Ruffle A-Line Swing Mini Babydoll Tunic Dress</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/a5195b7b-5808-4931-8c40-1f020006ab7c.jpg,https://cf.cjdropshipping.com/6622da6f-aebd-4064-825f-76e5991c34f8.jpg,https://cf.cjdropshipping.com/39bdb2e2-eda1-4c2b-a96a-926a0ce8179e.jpg,https://cf.cjdropshipping.com/586f6f7c-85cc-4f80-ac33-5a696d1a1641.jpg,https://cf.cjdropshipping.com/72c1ccd0-04c8-41de-a24b-5459b97772ee.jpg</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with this Women's Summer Dress! Featuring a chic V-neck and playful drawstring, this casual yet elegant A-line swing mini dress offers a flattering fit. The short sleeves and flowy ruffle details ensure comfort and breathability, perfect for warm days or casual outings. Stand out and feel fabulous!</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J257" t="n">
+        <v>83</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>[['Hot Pink-S', 'CJLY232401601AZ'], ['Hot Pink-M', 'CJLY232401602BY'], ['Hot Pink-L', 'CJLY232401603CX'], ['Hot Pink-XL', 'CJLY232401604DW'], ['Hot Pink-2XL', 'CJLY232401605EV'], ['Hot Pink-3XL', 'CJLY232401606FU'], ['Green-S', 'CJLY232401607GT'], ['Green-M', 'CJLY232401608HS'], ['Green-L', 'CJLY232401609IR'], ['Green-XL', 'CJLY232401610JQ'], ['Green-2XL', 'CJLY232401611KP'], ['Green-3XL', 'CJLY232401612LO']]</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>400</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>CJLY2324016</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>1899367258883584001</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>gbafna5568zp2bkqey2okg2m</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Plus Size Chic Ruched Dress With Flattering Button Front</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/c07f8c64-e469-4bf8-95fa-3a57d9abf0fa.png,https://oss-cf.cjdropshipping.com/product/2025/03/13/08/2646b62f-4fdf-4605-991a-cd74d4f1adc9.jpg,https://cf.cjdropshipping.com/fd2081e0-f765-43a9-8478-4350304afddd.png,https://oss-cf.cjdropshipping.com/product/2025/03/13/08/b634e1a1-8458-400d-9854-b7b6d9ed442b.jpg</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>40</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Discover our Plus Size Chic Ruched Dress, designed to enhance your curves with a stylish button front. This flattering piece offers comfort and elegance, perfect for any occasion. Its ruched details provide a stunning silhouette, making you feel confident and beautiful. Embrace your style and shine wherever you go!</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>24</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>[['Grey-S', 'CJLY232384101AZ'], ['Grey-M', 'CJLY232384102BY'], ['Grey-L', 'CJLY232384103CX'], ['Grey-XL', 'CJLY232384104DW'], ['Grey-2XL', 'CJLY232384105EV'], ['Grey-3XL', 'CJLY232384106FU'], ['Purple-S', 'CJLY232384107GT'], ['Purple-M', 'CJLY232384108HS'], ['Purple-L', 'CJLY232384109IR'], ['Purple-XL', 'CJLY232384110JQ'], ['Purple-2XL', 'CJLY232384111KP'], ['Purple-3XL', 'CJLY232384112LO']]</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>390</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>CJLY2323841</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>1899340149985615873</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>q4dpro7k36r1ychyyg3x8uan</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Solid Asymmetrical Neck Petal Sleeve Blouse</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/82dd7ec1-5b80-463a-8327-cd5063b2c86c.jpg,https://cf.cjdropshipping.com/085056a8-01a7-4420-a9bf-7bdb3a7e01f4.jpg,https://cf.cjdropshipping.com/1d21c7ab-376e-491e-831b-0a9588776686.png,https://cf.cjdropshipping.com/028019e2-7d66-4f9a-8f71-512af4c10741.jpg,https://cf.cjdropshipping.com/972a9eb9-d1e2-4ace-9420-3e0bd4461694.jpg</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Introducing the Solid Asymmetrical Neck Petal Sleeve Blouse—an exquisite blend of elegance and modern flair. This chic top features a trendy asymmetrical neckline and delicate petal sleeves, perfect for any occasion. Dress it up or down for a versatile staple that adds a touch of sophistication to your wardrobe.</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Women's Short-Sleeved Shirts</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J259" t="n">
+        <v>55</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJWS232396501AZ'], ['Blue-M', 'CJWS232396502BY'], ['Blue-L', 'CJWS232396503CX'], ['Blue-XL', 'CJWS232396504DW'], ['Blue-2XL', 'CJWS232396505EV'], ['Blue-3XL', 'CJWS232396506FU'], ['Crimson-S', 'CJWS232396507GT'], ['Crimson-M', 'CJWS232396508HS'], ['Crimson-L', 'CJWS232396509IR'], ['Crimson-XL', 'CJWS232396510JQ'], ['Crimson-2XL', 'CJWS232396511KP'], ['Crimson-3XL', 'CJWS232396512LO']]</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>400</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>CJWS2323965</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>1899360358926348289</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>nradcv1tglx9onfwzjw2qn45</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Women's Solid Color Front Button Sleeveless Blouse And Long Pants Casual Suit Set</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/1212929e-07e3-41fa-bc11-cedca3a37436.jpg,https://cf.cjdropshipping.com/6ed05e59-1f53-4985-938d-928343da9bf1.jpg,https://cf.cjdropshipping.com/3f2c952c-1cba-4647-8c52-0bcb4bc01d18.jpg,https://cf.cjdropshipping.com/48ffa794-f1ae-44e2-a0f2-20443046549c.jpg,https://cf.cjdropshipping.com/a5762846-94a2-4f48-bf23-d82bf0ed2e6c.jpg</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our Women's Solid Color Front Button Sleeveless Blouse and Long Pants Casual Suit Set. This chic ensemble features a flattering silhouette, perfect for any occasion. Dress it up or down with ease and enjoy the comfort of high-quality fabric. A must-have addition to your wardrobe!</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J260" t="n">
+        <v>42</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJTZ232390201AZ'], ['Green-M', 'CJTZ232390202BY'], ['Green-L', 'CJTZ232390203CX'], ['Green-XL', 'CJTZ232390204DW'], ['Green-2XL', 'CJTZ232390205EV'], ['Green-3XL', 'CJTZ232390206FU'], ['Black-S', 'CJTZ232390207GT'], ['Black-M', 'CJTZ232390208HS'], ['Black-L', 'CJTZ232390209IR'], ['Black-XL', 'CJTZ232390210JQ'], ['Black-2XL', 'CJTZ232390211KP'], ['Black-3XL', 'CJTZ232390212LO']]</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>420</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+      <c r="O260" t="inlineStr"/>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>CJTZ2323902</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>1899351965830443009</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>bpl2ebqjp7u2dunz5qdgw152</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Color Block Button Print Long Sleeve Casual Retro Shirt</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/777ca261-a0cd-4c08-826d-defb88ab1e69.jpg,https://cf.cjdropshipping.com/06067d0a-f117-4cb4-bdcf-2a8d03eea460.jpg,https://cf.cjdropshipping.com/c7923f45-cdc3-4cdc-a7d8-f46888525f16.jpg,https://cf.cjdropshipping.com/825c9b82-3067-4ce5-a08d-142f75f694f1.jpg,https://cf.cjdropshipping.com/1e819a2d-a88f-4b97-98a3-2eb1ec9b560c.jpg</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Discover timeless style with our Color Block Button Print Long Sleeve Casual Retro Shirt. This eye-catching design blends vibrant hues for a chic look, making it perfect for any occasion. Crafted for comfort, it effortlessly complements your wardrobe, ensuring you stand out. Refresh your collection with this must-have piece today!</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Blouses , Shirts</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J261" t="n">
+        <v>53</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>[['Khaki-S', 'CJCS232355001AZ'], ['Khaki-M', 'CJCS232355002BY'], ['Khaki-L', 'CJCS232355003CX'], ['Khaki-XL', 'CJCS232355004DW'], ['Khaki-2XL', 'CJCS232355005EV'], ['Khaki-3XL', 'CJCS232355006FU'], ['Blue-S', 'CJCS232355007GT'], ['Blue-M', 'CJCS232355008HS'], ['Blue-L', 'CJCS232355009IR'], ['Blue-XL', 'CJCS232355010JQ'], ['Blue-2XL', 'CJCS232355011KP'], ['Blue-3XL', 'CJCS232355012LO']]</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>400</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>CJCS2323550</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>1899276525401251842</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>u8bsiq8udyo7yuavgj30349v</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Vintage Straight-leg Hollow Textured Jeans</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/dc837132-036a-48cf-b73e-eed0b5822ab5.jpg,https://cf.cjdropshipping.com/fe543e79-3818-45e7-88ad-e600cf8ecc8c.jpg,https://cf.cjdropshipping.com/e866ba96-a0b3-403b-b53a-be49c6374a97.jpg,https://cf.cjdropshipping.com/1919cb77-e015-4fa4-a5d5-0e798e7cfc32.jpg,https://cf.cjdropshipping.com/ce020205-3b84-4acf-977b-638d4ac52dec.jpg,https://cf.cjdropshipping.com/9acfcc62-ccee-45c2-94de-b990286bbe71.jpg</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Step into timeless fashion with our Vintage Straight-leg Hollow Textured Jeans. Crafted for comfort and style, these jeans feature a unique design that sets you apart. Versatile and chic, they effortlessly complement any outfit, making them a must-have addition to your wardrobe. Embrace individuality and express your style with confidence!</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Bottoms,Woman Jeans</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J262" t="n">
+        <v>60</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>[['Blue-XS', 'CJNZ232426301AZ'], ['Blue-S', 'CJNZ232426302BY'], ['Blue-M', 'CJNZ232426303CX'], ['Blue-L', 'CJNZ232426304DW'], ['Blue-XL', 'CJNZ232426305EV']]</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>580</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>CJNZ2324263</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>1899414873339817986</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>oltvq6d5ly4p1hf3j2oposma</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Summer Casual  Strap Dress With Patchwork Leaves Print</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/284fc74c-e97e-4b98-be67-f3f4b5a1507e.png,https://cf.cjdropshipping.com/470d8e77-e555-4a9d-8be0-fc559a1e6b43.png,https://cf.cjdropshipping.com/6f08fffe-2ead-4fad-8f24-57f3f609e8f3.jpeg</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with our Summer Casual Strap Dress featuring a vibrant patchwork leaves print. Perfect for sunny days, this dress combines comfort and flair effortlessly. The lightweight fabric and adjustable straps ensure a customized fit, while the lively design adds a refreshing touch to your wardrobe. Dress it up or down!</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J263" t="n">
+        <v>31</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>[['Style1-S', 'CJLY232098801AZ'], ['Style1-M', 'CJLY232098802BY'], ['Style1-L', 'CJLY232098803CX'], ['Style1-XL', 'CJLY232098804DW'], ['Style1-2XL', 'CJLY232098805EV'], ['Style1-3XL', 'CJLY232098806FU'], ['Style2-S', 'CJLY232098807GT'], ['Style2-M', 'CJLY232098808HS'], ['Style2-L', 'CJLY232098809IR'], ['Style2-XL', 'CJLY232098810JQ'], ['Style2-2XL', 'CJLY232098811KP'], ['Style2-3XL', 'CJLY232098812LO']]</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>390</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>CJLY2320988</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>1898946016062185473</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>prmnwkq6tlo0zk4ne9xiazyf</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Women's Sleeveless Printed Casual Dress Maxi Vacation Beach Outfit</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/7415ea32-5df4-4318-b9ba-b355befc472f.jpg,https://cf.cjdropshipping.com/8e10f62e-6cf4-4a2a-8bd6-e1b673869f53.jpg,https://cf.cjdropshipping.com/cbdc170f-fcf0-4001-93d1-315b7cb44049.jpg,https://cf.cjdropshipping.com/d10f8476-8a28-4f90-a74b-466014502e1d.jpg,https://cf.cjdropshipping.com/39009470-7c53-4ad0-a43b-eef8e613d8cc.jpg</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Embrace effortless style with our Women's Sleeveless Printed Casual Dress. Perfect for vacations or beach outings, this maxi dress features vibrant prints and a comfortable fit. Its lightweight fabric ensures breathability, making it ideal for sunny days. Elevate your wardrobe with this essential piece that combines fashion and functionality seamlessly.</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J264" t="n">
+        <v>35</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>[['Red-S', 'CJLY232080101AZ'], ['Red-M', 'CJLY232080102BY'], ['Red-L', 'CJLY232080103CX'], ['Red-XL', 'CJLY232080104DW'], ['Red-2XL', 'CJLY232080105EV'], ['Red-3XL', 'CJLY232080106FU'], ['Blue-S', 'CJLY232080107GT'], ['Blue-M', 'CJLY232080108HS'], ['Blue-L', 'CJLY232080109IR'], ['Blue-XL', 'CJLY232080110JQ'], ['Blue-2XL', 'CJLY232080111KP'], ['Blue-3XL', 'CJLY232080112LO']]</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>420</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+      <c r="O264" t="inlineStr"/>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>CJLY2320801</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>1898911257617199106</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>cj8nxzslj9kjyuu1rgjuqx2e</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Color Cross Tie Cuff Simple Long Sleeve Blouse Women Shirt</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/82b2be07-fa74-43bd-95ea-acc1b49f93f0.png,https://cf.cjdropshipping.com/1ac85be3-0b68-47d8-a367-9971cc975919.png,https://cf.cjdropshipping.com/7989b401-0eff-47f0-9b27-898602632fd6.png,https://cf.cjdropshipping.com/5a869628-83b7-4239-898d-0dc52c17d854.png,https://cf.cjdropshipping.com/19021075-cfd3-4914-9df7-0e1433c52190.png</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Introducing the Color Cross Tie Cuff Simple Long Sleeve Blouse for women—where elegance meets everyday style. Crafted for comfort, this blouse features a unique cross-tie design and chic cuffs. Perfect for both casual outings and sophisticated events, it effortlessly complements any wardrobe. Refresh your look and embrace confident flair!</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Blouses , Shirts</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J265" t="n">
+        <v>47</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJCS232112001AZ'], ['Black-M', 'CJCS232112002BY'], ['Black-L', 'CJCS232112003CX'], ['Black-XL', 'CJCS232112004DW'], ['Black-2XL', 'CJCS232112005EV'], ['Black-3XL', 'CJCS232112006FU'], ['Blue-S', 'CJCS232112007GT'], ['Blue-M', 'CJCS232112008HS'], ['Blue-L', 'CJCS232112009IR'], ['Blue-XL', 'CJCS232112010JQ'], ['Blue-2XL', 'CJCS232112011KP'], ['Blue-3XL', 'CJCS232112012LO']]</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>390</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>CJCS2321120</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>1898981019231678466</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>44vmmm69iircdkuq0bgfnyi4</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2pcs Women Solid Color Crew Neck Short Sleeve Top And Long Pants Casual Outfit</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/e3f134db-a0f3-4470-902f-9c5719c3521e.png,https://cf.cjdropshipping.com/a1b47eff-37f2-4a7d-a028-db477b52c10b.png,https://cf.cjdropshipping.com/51a38372-5414-4cdb-a6cb-68da014b104f.png,https://cf.cjdropshipping.com/b205ed54-d2b2-400b-ad01-6fd55afb600e.png,https://cf.cjdropshipping.com/4c07e622-0a30-4f36-8240-e8d9efff77a2.png</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Discover effortless style with our 2pcs Women Solid Color Crew Neck Short Sleeve Top and Long Pants Casual Outfit. This chic ensemble offers incredible comfort and versatility, perfect for any casual outing. Dress it up or down for day-to-night wear, ensuring you look fabulous at every occasion. Upgrade your wardrobe today!</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J266" t="n">
+        <v>23</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJTZ232105801AZ'], ['Black-M', 'CJTZ232105802BY'], ['Black-L', 'CJTZ232105803CX'], ['Black-XL', 'CJTZ232105804DW'], ['Black-2XL', 'CJTZ232105805EV'], ['Black-3XL', 'CJTZ232105806FU'], ['Burgundy-S', 'CJTZ232105807GT'], ['Burgundy-M', 'CJTZ232105808HS'], ['Burgundy-L', 'CJTZ232105809IR'], ['Burgundy-XL', 'CJTZ232105810JQ'], ['Burgundy-2XL', 'CJTZ232105811KP'], ['Burgundy-3XL', 'CJTZ232105812LO']]</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>430</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>CJTZ2321058</t>
+        </is>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>1898970297772765186</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>9r9ac3mtyofh6le6hd4vzudo</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Casual Women's Solid Color Vest Jacket Set</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/4385ad57-75b0-4fa5-ada4-e277c5dbc702.png,https://cf.cjdropshipping.com/d4e4c171-8d86-4476-982e-e8cafe63e9f8.png,https://cf.cjdropshipping.com/9da05821-f5ef-4386-9001-d1165ec5f907.png,https://cf.cjdropshipping.com/9cf27f7c-d985-49a3-a63e-56a5ad5c5c96.png,https://cf.cjdropshipping.com/2cf97154-0a42-4ae3-b167-b8d670d0ca1e.png,https://cf.cjdropshipping.com/dadda9d9-1e2f-436b-9d2f-5986ea3eb3e2.png</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Upgrade your wardrobe with our Casual Women's Solid Color Vest Jacket Set! This stylish ensemble combines comfort and versatility, perfect for any occasion. Whether dressing up for a night out or keeping it casual, its chic design ensures you stand out. Stay on-trend and cozy with this essential addition to your collection!</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Suits , Sets</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J267" t="n">
+        <v>5</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>[['Green-S', 'CJTZ232020001AZ'], ['Green-M', 'CJTZ232020002BY'], ['Green-L', 'CJTZ232020003CX'], ['Green-XL', 'CJTZ232020004DW'], ['Green-2XL', 'CJTZ232020005EV'], ['Green-3XL', 'CJTZ232020006FU'], ['Black-S', 'CJTZ232020007GT'], ['Black-M', 'CJTZ232020008HS'], ['Black-L', 'CJTZ232020009IR'], ['Black-XL', 'CJTZ232020010JQ'], ['Black-2XL', 'CJTZ232020011KP'], ['Black-3XL', 'CJTZ232020012LO']]</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>440</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>CJTZ2320200</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>1898603054493048834</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>7jmoryuznmw8x6xgz4f7zusk</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Women's Collared Solid Color Cover Up Shirt Dress</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/bbc2ce9a-f8b5-427e-b4b3-7b2875cd79de.png,https://cf.cjdropshipping.com/7b40bc8c-73f3-419f-9cfc-929bdd133e0d.png,https://cf.cjdropshipping.com/d59ee556-82e1-4abd-a668-68446b568e2c.png,https://cf.cjdropshipping.com/e0a8fc05-25b0-4c04-a30c-c5a3bdc5f1c0.png,https://cf.cjdropshipping.com/511d94a3-a43e-4ffc-b92c-7336b8b419a1.png</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Introducing the Women's Collared Solid Color Cover Up Shirt Dress: a stylish blend of comfort and sophistication. Perfect for beach days or casual outings, this versatile piece features a flattering fit and breathable fabric. Effortlessly chic, it elevates your wardrobe while ensuring you stay cool and confident all summer long.</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>40</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>[['Black-S', 'CJLY232022001AZ'], ['Black-M', 'CJLY232022002BY'], ['Black-L', 'CJLY232022003CX'], ['Black-XL', 'CJLY232022004DW'], ['Black-2XL', 'CJLY232022005EV'], ['Black-3XL', 'CJLY232022006FU'], ['White-S', 'CJLY232022007GT'], ['White-M', 'CJLY232022008HS'], ['White-L', 'CJLY232022009IR'], ['White-XL', 'CJLY232022010JQ'], ['White-2XL', 'CJLY232022011KP'], ['White-3XL', 'CJLY232022012LO']]</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>390</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>CJLY2320220</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>1898607616704618498</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>b551us4pfgj1jjag88jejqfe</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>676716d67602c42f64f06f94</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Women Stylish Summer V-Neck Fringed Belted Dress</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>https://cf.cjdropshipping.com/17483040/1927302110731571200.jpg,https://cf.cjdropshipping.com/e4d849c5-ea5d-4811-8fb8-dc83d4f290da.png,https://cf.cjdropshipping.com/17478720/1925360357568942080.jpg,https://cf.cjdropshipping.com/17478720/1925360363008954368.jpg,https://cf.cjdropshipping.com/17483040/1927302109695578112.jpg,https://cf.cjdropshipping.com/17478720/1925360362576941056.jpg,https://cf.cjdropshipping.com/17478720/1925360354381271040.jpg,https://cf.cjdropshipping.com/3c520cfe-5f4c-4fe4-9ffc-dae1e085d6da.png,https://cf.cjdropshipping.com/17478720/1925360354012172288.jpg,https://cf.cjdropshipping.com/6431b5c2-5e27-4203-9246-ac8c12a599ae.png,https://cf.cjdropshipping.com/17478720/1925360357191454720.jpg,https://cf.cjdropshipping.com/dc57f628-1b22-4836-be52-572edf81d808.png,https://cf.cjdropshipping.com/17478720/1925360353588547584.jpg</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Step into summer with our Women Stylish Summer V-Neck Fringed Belted Dress. This stunning piece features a flattering V-neckline and chic fringed detailing that exudes effortless elegance. The belted waist accentuates your figure, making it the perfect choice for beach outings or brunch dates. Embrace your style and turn heads!</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Women's Clothing,Tops , Sets,Lady Dresses</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>49</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>[['Blue-S', 'CJLY232023001AZ'], ['Blue-M', 'CJLY232023002BY'], ['Blue-L', 'CJLY232023003CX'], ['Blue-XL', 'CJLY232023004DW'], ['Blue-2XL', 'CJLY232023005EV'], ['Blue-3XL', 'CJLY232023006FU'], ['Black-S', 'CJLY232023007GT'], ['Black-M', 'CJLY232023008HS'], ['Black-L', 'CJLY232023009IR'], ['Black-XL', 'CJLY232023010JQ'], ['Black-2XL', 'CJLY232023011KP'], ['Black-3XL', 'CJLY232023012LO'], ['Light Blue-S', 'CJLY232023013MN'], ['Light Blue-M', 'CJLY232023014NM'], ['Light Blue-L', 'CJLY232023015OL'], ['Light Blue-XL', 'CJLY232023016PK'], ['Light Blue-2XL', 'CJLY232023017QJ'], ['Light Blue-3XL', 'CJLY232023018RI'], ['White-S', 'CJLY232023019SH'], ['White-M', 'CJLY232023020TG'], ['White-L', 'CJLY232023021UF'], ['White-XL', 'CJLY232023022VE'], ['White-2XL', 'CJLY232023023WD'], ['White-3XL', 'CJLY232023024XC'], ['Style1-S', 'CJLY232023025YB'], ['Style1-M', 'CJLY232023026ZA'], ['Style1-L', 'CJLY232023027AZ'], ['Style1-XL', 'CJLY232023028BY'], ['Style1-2XL', 'CJLY232023029CX'], ['Style1-3XL', 'CJLY232023030DW'], ['Style2-S', 'CJLY232023031EV'], ['Style2-M', 'CJLY232023032FU'], ['Style2-L', 'CJLY232023033GT'], ['Style2-XL', 'CJLY232023034HS'], ['Style2-2XL', 'CJLY232023035IR'], ['Style2-3XL', 'CJLY232023036JQ']]</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>390</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>CJLY2320230</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>1898610192846135297</t>
         </is>
       </c>
     </row>
